--- a/website/everyday-update/data/volume_top50.xlsx
+++ b/website/everyday-update/data/volume_top50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
   <si>
     <t>amt</t>
   </si>
@@ -40,252 +40,255 @@
     <t>000100.SZ</t>
   </si>
   <si>
+    <t>300088.SZ</t>
+  </si>
+  <si>
+    <t>603128.SH</t>
+  </si>
+  <si>
+    <t>601288.SH</t>
+  </si>
+  <si>
+    <t>601398.SH</t>
+  </si>
+  <si>
+    <t>601668.SH</t>
+  </si>
+  <si>
+    <t>601988.SH</t>
+  </si>
+  <si>
+    <t>601899.SH</t>
+  </si>
+  <si>
     <t>600050.SH</t>
   </si>
   <si>
+    <t>002510.SZ</t>
+  </si>
+  <si>
+    <t>600018.SH</t>
+  </si>
+  <si>
+    <t>002797.SZ</t>
+  </si>
+  <si>
     <t>600839.SH</t>
   </si>
   <si>
-    <t>601398.SH</t>
-  </si>
-  <si>
-    <t>600166.SH</t>
-  </si>
-  <si>
-    <t>601288.SH</t>
-  </si>
-  <si>
-    <t>002797.SZ</t>
-  </si>
-  <si>
-    <t>601988.SH</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>600499.SH</t>
-  </si>
-  <si>
-    <t>601668.SH</t>
+    <t>000792.SZ</t>
   </si>
   <si>
     <t>000727.SZ</t>
   </si>
   <si>
-    <t>300247.SZ</t>
+    <t>600048.SH</t>
+  </si>
+  <si>
+    <t>002285.SZ</t>
+  </si>
+  <si>
+    <t>603993.SH</t>
+  </si>
+  <si>
+    <t>000010.SZ</t>
+  </si>
+  <si>
+    <t>601766.SH</t>
+  </si>
+  <si>
+    <t>601818.SH</t>
+  </si>
+  <si>
+    <t>600031.SH</t>
+  </si>
+  <si>
+    <t>000868.SZ</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>600690.SH</t>
+  </si>
+  <si>
+    <t>600010.SH</t>
   </si>
   <si>
     <t>600028.SH</t>
   </si>
   <si>
-    <t>000816.SZ</t>
-  </si>
-  <si>
-    <t>002600.SZ</t>
-  </si>
-  <si>
-    <t>600022.SH</t>
-  </si>
-  <si>
-    <t>601818.SH</t>
+    <t>002429.SZ</t>
+  </si>
+  <si>
+    <t>000735.SZ</t>
+  </si>
+  <si>
+    <t>300355.SZ</t>
   </si>
   <si>
     <t>002340.SZ</t>
   </si>
   <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>002285.SZ</t>
-  </si>
-  <si>
-    <t>300185.SZ</t>
-  </si>
-  <si>
-    <t>000709.SZ</t>
-  </si>
-  <si>
-    <t>600522.SH</t>
-  </si>
-  <si>
-    <t>002264.SZ</t>
-  </si>
-  <si>
-    <t>600010.SH</t>
-  </si>
-  <si>
-    <t>002195.SZ</t>
-  </si>
-  <si>
-    <t>000413.SZ</t>
-  </si>
-  <si>
-    <t>601328.SH</t>
-  </si>
-  <si>
-    <t>600795.SH</t>
-  </si>
-  <si>
-    <t>600219.SH</t>
-  </si>
-  <si>
-    <t>002024.SZ</t>
-  </si>
-  <si>
-    <t>002280.SZ</t>
+    <t>000671.SZ</t>
+  </si>
+  <si>
+    <t>002377.SZ</t>
+  </si>
+  <si>
+    <t>000839.SZ</t>
+  </si>
+  <si>
+    <t>600822.SH</t>
+  </si>
+  <si>
+    <t>000050.SZ</t>
+  </si>
+  <si>
+    <t>000830.SZ</t>
+  </si>
+  <si>
+    <t>002401.SZ</t>
+  </si>
+  <si>
+    <t>600676.SH</t>
+  </si>
+  <si>
+    <t>600567.SH</t>
+  </si>
+  <si>
+    <t>600460.SH</t>
+  </si>
+  <si>
+    <t>002056.SZ</t>
+  </si>
+  <si>
+    <t>000807.SZ</t>
+  </si>
+  <si>
+    <t>600019.SH</t>
+  </si>
+  <si>
+    <t>600720.SH</t>
   </si>
   <si>
     <t>600516.SH</t>
   </si>
   <si>
-    <t>600460.SH</t>
-  </si>
-  <si>
-    <t>601939.SH</t>
-  </si>
-  <si>
-    <t>600282.SH</t>
-  </si>
-  <si>
-    <t>000516.SZ</t>
-  </si>
-  <si>
-    <t>601166.SH</t>
-  </si>
-  <si>
-    <t>002081.SZ</t>
-  </si>
-  <si>
-    <t>600808.SH</t>
-  </si>
-  <si>
-    <t>600567.SH</t>
-  </si>
-  <si>
-    <t>601318.SH</t>
-  </si>
-  <si>
-    <t>600019.SH</t>
-  </si>
-  <si>
-    <t>300059.SZ</t>
-  </si>
-  <si>
-    <t>600307.SH</t>
+    <t>600119.SH</t>
+  </si>
+  <si>
+    <t>002822.SZ</t>
   </si>
   <si>
     <t>000630.SZ</t>
   </si>
   <si>
-    <t>000001.SZ</t>
-  </si>
-  <si>
     <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
   </si>
   <si>
     <t>家电-黑色家电Ⅱ-黑色家电Ⅲ</t>
   </si>
   <si>
+    <t>交通运输-公交物流-物流</t>
+  </si>
+  <si>
+    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
+  </si>
+  <si>
+    <t>建筑-建筑施工Ⅱ-建筑施工Ⅲ</t>
+  </si>
+  <si>
+    <t>有色金属-贵金属-黄金</t>
+  </si>
+  <si>
     <t>通信-电信运营Ⅱ-电信运营Ⅲ</t>
   </si>
   <si>
-    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
-  </si>
-  <si>
-    <t>汽车-商用车-卡车</t>
+    <t>汽车-汽车零部件Ⅱ-汽车零部件Ⅲ</t>
+  </si>
+  <si>
+    <t>交通运输-航运港口-港口</t>
   </si>
   <si>
     <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
   </si>
   <si>
-    <t>有色金属-贵金属-黄金</t>
-  </si>
-  <si>
-    <t>通信-通信设备制造-系统设备</t>
+    <t>基础化工-农用化工-钾肥</t>
+  </si>
+  <si>
+    <t>电子元器件-电子设备Ⅱ-电子设备Ⅲ</t>
+  </si>
+  <si>
+    <t>房地产-房地产开发管理-住宅地产</t>
+  </si>
+  <si>
+    <t>房地产-房地产服务Ⅱ-房地产服务Ⅲ</t>
+  </si>
+  <si>
+    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
+  </si>
+  <si>
+    <t>建筑-建筑装修Ⅱ-建筑装修Ⅲ</t>
+  </si>
+  <si>
+    <t>机械-运输设备-铁路交通设备</t>
+  </si>
+  <si>
+    <t>银行-股份制与城商行-股份制银行</t>
+  </si>
+  <si>
+    <t>机械-工程机械Ⅱ-工程机械Ⅲ</t>
+  </si>
+  <si>
+    <t>汽车-商用车-客车</t>
+  </si>
+  <si>
+    <t>家电-白色家电Ⅱ-白色家电Ⅲ</t>
+  </si>
+  <si>
+    <t>钢铁-普钢-板材</t>
+  </si>
+  <si>
+    <t>石油石化-石油化工-炼油</t>
+  </si>
+  <si>
+    <t>农林牧渔-牧业-畜牧养殖</t>
   </si>
   <si>
     <t>电力及公用事业-环保及公用事业-环保</t>
   </si>
   <si>
-    <t>建筑-建筑施工Ⅱ-建筑施工Ⅲ</t>
-  </si>
-  <si>
-    <t>电子元器件-电子设备Ⅱ-电子设备Ⅲ</t>
-  </si>
-  <si>
-    <t>家电-照明设备及其他-其他家电</t>
-  </si>
-  <si>
-    <t>石油石化-石油化工-炼油</t>
-  </si>
-  <si>
-    <t>机械-通用设备-其他通用机械</t>
-  </si>
-  <si>
-    <t>钢铁-普钢-板材</t>
-  </si>
-  <si>
-    <t>银行-股份制与城商行-股份制银行</t>
-  </si>
-  <si>
-    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
-  </si>
-  <si>
-    <t>房地产-房地产服务Ⅱ-房地产服务Ⅲ</t>
-  </si>
-  <si>
-    <t>电力设备-新能源设备-风电</t>
-  </si>
-  <si>
-    <t>通信-通信设备制造-线缆</t>
-  </si>
-  <si>
-    <t>商贸零售-零售-超市</t>
-  </si>
-  <si>
-    <t>计算机-IT服务-IT外包服务</t>
-  </si>
-  <si>
-    <t>电力及公用事业-发电及电网-火电</t>
+    <t>石油石化-石油化工-其他石化</t>
+  </si>
+  <si>
+    <t>综合-综合Ⅱ-综合Ⅲ</t>
+  </si>
+  <si>
+    <t>商贸零售-贸易Ⅱ-贸易Ⅲ</t>
+  </si>
+  <si>
+    <t>基础化工-农用化工-氮肥</t>
+  </si>
+  <si>
+    <t>计算机-IT服务-系统集成及IT咨询</t>
+  </si>
+  <si>
+    <t>轻工制造-造纸Ⅱ-造纸Ⅲ</t>
+  </si>
+  <si>
+    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
   </si>
   <si>
     <t>有色金属-工业金属-铝</t>
   </si>
   <si>
-    <t>商贸零售-零售-连锁</t>
-  </si>
-  <si>
-    <t>计算机-计算机软件-行业应用软件</t>
+    <t>建材-水泥Ⅱ-水泥Ⅲ</t>
   </si>
   <si>
     <t>建材-其他建材-新型建材及非金属新材料</t>
   </si>
   <si>
-    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
-  </si>
-  <si>
-    <t>医药-其他医药医疗-医疗服务</t>
-  </si>
-  <si>
-    <t>建筑-建筑装修Ⅱ-建筑装修Ⅲ</t>
-  </si>
-  <si>
-    <t>轻工制造-造纸Ⅱ-造纸Ⅲ</t>
-  </si>
-  <si>
-    <t>非银行金融-保险Ⅱ-保险Ⅲ</t>
-  </si>
-  <si>
-    <t>传媒-传媒Ⅱ-互联网</t>
-  </si>
-  <si>
-    <t>钢铁-普钢-长材</t>
-  </si>
-  <si>
     <t>有色金属-工业金属-铜</t>
   </si>
   <si>
@@ -295,148 +298,148 @@
     <t>TCL集团</t>
   </si>
   <si>
+    <t>长信科技</t>
+  </si>
+  <si>
+    <t>华贸物流</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>中国建筑</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>紫金矿业</t>
+  </si>
+  <si>
     <t>中国联通</t>
   </si>
   <si>
+    <t>天汽模</t>
+  </si>
+  <si>
+    <t>上港集团</t>
+  </si>
+  <si>
+    <t>第一创业</t>
+  </si>
+  <si>
     <t>四川长虹</t>
   </si>
   <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>福田汽车</t>
-  </si>
-  <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>第一创业</t>
-  </si>
-  <si>
-    <t>中国银行</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>科达洁能</t>
-  </si>
-  <si>
-    <t>中国建筑</t>
+    <t>盐湖股份</t>
   </si>
   <si>
     <t>华东科技</t>
   </si>
   <si>
-    <t>乐金健康</t>
+    <t>保利地产</t>
+  </si>
+  <si>
+    <t>世联行</t>
+  </si>
+  <si>
+    <t>洛阳钼业</t>
+  </si>
+  <si>
+    <t>美丽生态</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>光大银行</t>
+  </si>
+  <si>
+    <t>三一重工</t>
+  </si>
+  <si>
+    <t>安凯客车</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>青岛海尔</t>
+  </si>
+  <si>
+    <t>包钢股份</t>
   </si>
   <si>
     <t>中国石化</t>
   </si>
   <si>
-    <t>智慧农业</t>
-  </si>
-  <si>
-    <t>江粉磁材</t>
-  </si>
-  <si>
-    <t>山东钢铁</t>
-  </si>
-  <si>
-    <t>光大银行</t>
+    <t>兆驰股份</t>
+  </si>
+  <si>
+    <t>罗牛山</t>
+  </si>
+  <si>
+    <t>蒙草生态</t>
   </si>
   <si>
     <t>格林美</t>
   </si>
   <si>
-    <t>洛阳钼业</t>
-  </si>
-  <si>
-    <t>世联行</t>
-  </si>
-  <si>
-    <t>通裕重工</t>
-  </si>
-  <si>
-    <t>河钢股份</t>
-  </si>
-  <si>
-    <t>中天科技</t>
-  </si>
-  <si>
-    <t>新华都</t>
-  </si>
-  <si>
-    <t>包钢股份</t>
-  </si>
-  <si>
-    <t>二三四五</t>
-  </si>
-  <si>
-    <t>东旭光电</t>
-  </si>
-  <si>
-    <t>交通银行</t>
-  </si>
-  <si>
-    <t>国电电力</t>
-  </si>
-  <si>
-    <t>南山铝业</t>
-  </si>
-  <si>
-    <t>苏宁云商</t>
-  </si>
-  <si>
-    <t>联络互动</t>
+    <t>阳光城</t>
+  </si>
+  <si>
+    <t>国创高新</t>
+  </si>
+  <si>
+    <t>中信国安</t>
+  </si>
+  <si>
+    <t>上海物贸</t>
+  </si>
+  <si>
+    <t>深天马A</t>
+  </si>
+  <si>
+    <t>鲁西化工</t>
+  </si>
+  <si>
+    <t>中远海科</t>
+  </si>
+  <si>
+    <t>交运股份</t>
+  </si>
+  <si>
+    <t>山鹰纸业</t>
+  </si>
+  <si>
+    <t>士兰微</t>
+  </si>
+  <si>
+    <t>横店东磁</t>
+  </si>
+  <si>
+    <t>云铝股份</t>
+  </si>
+  <si>
+    <t>宝钢股份</t>
+  </si>
+  <si>
+    <t>祁连山</t>
   </si>
   <si>
     <t>方大炭素</t>
   </si>
   <si>
-    <t>士兰微</t>
-  </si>
-  <si>
-    <t>建设银行</t>
-  </si>
-  <si>
-    <t>南钢股份</t>
-  </si>
-  <si>
-    <t>国际医学</t>
-  </si>
-  <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
-    <t>金螳螂</t>
-  </si>
-  <si>
-    <t>马钢股份</t>
-  </si>
-  <si>
-    <t>山鹰纸业</t>
-  </si>
-  <si>
-    <t>中国平安</t>
-  </si>
-  <si>
-    <t>宝钢股份</t>
-  </si>
-  <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>酒钢宏兴</t>
+    <t>长江投资</t>
+  </si>
+  <si>
+    <t>中装建设</t>
   </si>
   <si>
     <t>铜陵有色</t>
-  </si>
-  <si>
-    <t>平安银行</t>
   </si>
 </sst>
 </file>
@@ -825,22 +828,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>6798872904</v>
+        <v>9820546338</v>
       </c>
       <c r="C2">
-        <v>1312460574</v>
+        <v>1803941542</v>
       </c>
       <c r="D2">
-        <v>114906282762.12</v>
+        <v>130668774830.88</v>
       </c>
       <c r="E2">
-        <v>0.05916885256896776</v>
+        <v>0.07515602982204729</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -848,22 +851,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1522683826</v>
+        <v>1539936156</v>
       </c>
       <c r="C3">
-        <v>362270868</v>
+        <v>354117783</v>
       </c>
       <c r="D3">
-        <v>30782023346.88</v>
+        <v>32557909309.2</v>
       </c>
       <c r="E3">
-        <v>0.04946665814787435</v>
+        <v>0.04729837353422613</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -871,22 +874,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1966662037</v>
+        <v>1910128265</v>
       </c>
       <c r="C4">
-        <v>279917433</v>
+        <v>197531450</v>
       </c>
       <c r="D4">
-        <v>54655869129.28</v>
+        <v>19659640309.9</v>
       </c>
       <c r="E4">
-        <v>0.03598263221005901</v>
+        <v>0.09715987855780439</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -894,22 +897,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>903152705</v>
+        <v>2195549889</v>
       </c>
       <c r="C5">
-        <v>230337681</v>
+        <v>189062288</v>
       </c>
       <c r="D5">
-        <v>13643118013.2</v>
+        <v>5197348470.03</v>
       </c>
       <c r="E5">
-        <v>0.06619840890668695</v>
+        <v>0.4224365369496433</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -917,22 +920,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1428684400</v>
+        <v>632567673</v>
       </c>
       <c r="C6">
-        <v>225511382</v>
+        <v>167610932</v>
       </c>
       <c r="D6">
-        <v>136715671392.16</v>
+        <v>133582374882.45</v>
       </c>
       <c r="E6">
-        <v>0.01045004120926204</v>
+        <v>0.004735412688662316</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -940,22 +943,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>692587200</v>
+        <v>1022535463</v>
       </c>
       <c r="C7">
-        <v>219565584</v>
+        <v>165866636</v>
       </c>
       <c r="D7">
-        <v>14298515942.28</v>
+        <v>132834153907.84</v>
       </c>
       <c r="E7">
-        <v>0.04843769820559168</v>
+        <v>0.00769783548069597</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -963,22 +966,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>817873097</v>
+        <v>1374126128</v>
       </c>
       <c r="C8">
-        <v>213462065</v>
+        <v>145105465</v>
       </c>
       <c r="D8">
-        <v>136417014137.25</v>
+        <v>121328872021.12</v>
       </c>
       <c r="E8">
-        <v>0.005995389227454669</v>
+        <v>0.01132563177345622</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -986,22 +989,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>2366386137</v>
+        <v>582807013</v>
       </c>
       <c r="C9">
-        <v>191509693</v>
+        <v>142433205</v>
       </c>
       <c r="D9">
-        <v>23117310618.7</v>
+        <v>83410403927.73001</v>
       </c>
       <c r="E9">
-        <v>0.1023642488536616</v>
+        <v>0.006987222043726901</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1009,22 +1012,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>798971782</v>
+        <v>546571683</v>
       </c>
       <c r="C10">
-        <v>191371172</v>
+        <v>137557586</v>
       </c>
       <c r="D10">
-        <v>85869678736.41</v>
+        <v>40225828365.9</v>
       </c>
       <c r="E10">
-        <v>0.009304469211449656</v>
+        <v>0.01358758054721221</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1032,22 +1035,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>619756689</v>
+        <v>847207981</v>
       </c>
       <c r="C11">
-        <v>159974866</v>
+        <v>119502092</v>
       </c>
       <c r="D11">
-        <v>39921854851.8</v>
+        <v>55919588646.72</v>
       </c>
       <c r="E11">
-        <v>0.01552424583729121</v>
+        <v>0.01515046876242881</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1055,22 +1058,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>4471537918</v>
+        <v>987733500</v>
       </c>
       <c r="C12">
-        <v>153742041</v>
+        <v>117753065</v>
       </c>
       <c r="D12">
-        <v>61201031273.57999</v>
+        <v>5625603867.65</v>
       </c>
       <c r="E12">
-        <v>0.07306311388792444</v>
+        <v>0.1755782175989951</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1078,22 +1081,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1927860534</v>
+        <v>868346769</v>
       </c>
       <c r="C13">
-        <v>145838864</v>
+        <v>115459215</v>
       </c>
       <c r="D13">
-        <v>14738243231.4</v>
+        <v>23829926614.4</v>
       </c>
       <c r="E13">
-        <v>0.1308066710347588</v>
+        <v>0.03643933877980444</v>
       </c>
       <c r="F13" t="s">
         <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1101,22 +1104,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1273093207</v>
+        <v>1310954871</v>
       </c>
       <c r="C14">
-        <v>135878758</v>
+        <v>110628022</v>
       </c>
       <c r="D14">
-        <v>119915082198.84</v>
+        <v>23059757148.28</v>
       </c>
       <c r="E14">
-        <v>0.01061662289393248</v>
+        <v>0.05685033292285919</v>
       </c>
       <c r="F14" t="s">
         <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1124,22 +1127,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>393812546</v>
+        <v>402446453</v>
       </c>
       <c r="C15">
-        <v>134046150</v>
+        <v>106048199</v>
       </c>
       <c r="D15">
-        <v>6767500461.48</v>
+        <v>13398241536.04</v>
       </c>
       <c r="E15">
-        <v>0.05819172798606301</v>
+        <v>0.03003725913713804</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1147,22 +1150,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>995083433</v>
+        <v>1683161164</v>
       </c>
       <c r="C16">
-        <v>132317349</v>
+        <v>104291320</v>
       </c>
       <c r="D16">
-        <v>3353451462.66</v>
+        <v>19751713614.84</v>
       </c>
       <c r="E16">
-        <v>0.2967341093437766</v>
+        <v>0.08521595628722539</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1170,22 +1173,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>768666127</v>
+        <v>291835841</v>
       </c>
       <c r="C17">
-        <v>130502495</v>
+        <v>99303233</v>
       </c>
       <c r="D17">
-        <v>57809391674.4</v>
+        <v>6790286658.32</v>
       </c>
       <c r="E17">
-        <v>0.01329656141910921</v>
+        <v>0.04297842722772528</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1193,22 +1196,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>659738681</v>
+        <v>1072989578</v>
       </c>
       <c r="C18">
-        <v>120112168</v>
+        <v>97638654</v>
       </c>
       <c r="D18">
-        <v>5602048602.48</v>
+        <v>76150089148.98</v>
       </c>
       <c r="E18">
-        <v>0.1177673968604872</v>
+        <v>0.01409045727971249</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1216,22 +1219,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1041778877</v>
+        <v>1262910607</v>
       </c>
       <c r="C19">
-        <v>119302928</v>
+        <v>96739688</v>
       </c>
       <c r="D19">
-        <v>10730355609.6</v>
+        <v>10445930958.24</v>
       </c>
       <c r="E19">
-        <v>0.09708707846252215</v>
+        <v>0.1208997658560806</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1239,22 +1242,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>273952390</v>
+        <v>669391116</v>
       </c>
       <c r="C20">
-        <v>118010265</v>
+        <v>93548501</v>
       </c>
       <c r="D20">
-        <v>8707956339.390001</v>
+        <v>18674857972.8</v>
       </c>
       <c r="E20">
-        <v>0.03146000959614258</v>
+        <v>0.03584450907069658</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1262,22 +1265,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>478128923</v>
+        <v>603719935</v>
       </c>
       <c r="C21">
-        <v>116159630</v>
+        <v>89906269</v>
       </c>
       <c r="D21">
-        <v>63852619742.28</v>
+        <v>3503770751.58</v>
       </c>
       <c r="E21">
-        <v>0.007488007930290244</v>
+        <v>0.1723057750646948</v>
       </c>
       <c r="F21" t="s">
         <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1285,22 +1288,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>873213738</v>
+        <v>858716670</v>
       </c>
       <c r="C22">
-        <v>113260186</v>
+        <v>84329072</v>
       </c>
       <c r="D22">
-        <v>20018221777.92</v>
+        <v>78984700181.3</v>
       </c>
       <c r="E22">
-        <v>0.043620944341977</v>
+        <v>0.01087193681850938</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1308,22 +1311,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>751434199</v>
+        <v>340503486</v>
       </c>
       <c r="C23">
-        <v>111194990</v>
+        <v>83720876</v>
       </c>
       <c r="D23">
-        <v>17559553954.98</v>
+        <v>62772986075.14001</v>
       </c>
       <c r="E23">
-        <v>0.04279346735837151</v>
+        <v>0.005424363365356131</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1331,22 +1334,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1379625183</v>
+        <v>673368260</v>
       </c>
       <c r="C24">
-        <v>109899525</v>
+        <v>83227554</v>
       </c>
       <c r="D24">
-        <v>9853310064.24</v>
+        <v>32831982186.8</v>
       </c>
       <c r="E24">
-        <v>0.1400164182396926</v>
+        <v>0.020509521970645</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1354,22 +1357,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>292795884</v>
+        <v>755131104</v>
       </c>
       <c r="C25">
-        <v>107677945</v>
+        <v>79681178</v>
       </c>
       <c r="D25">
-        <v>6270939579.45</v>
+        <v>4004008891.74</v>
       </c>
       <c r="E25">
-        <v>0.04669091135234316</v>
+        <v>0.1885937630053181</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1377,22 +1380,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>444765003</v>
+        <v>3026015991</v>
       </c>
       <c r="C26">
-        <v>105098805</v>
+        <v>72821082</v>
       </c>
       <c r="D26">
-        <v>16902736212.6</v>
+        <v>181396231407.82</v>
       </c>
       <c r="E26">
-        <v>0.02631319553271226</v>
+        <v>0.01668180186277866</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,22 +1403,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1334851248</v>
+        <v>1191876148</v>
       </c>
       <c r="C27">
-        <v>102163308</v>
+        <v>71011768</v>
       </c>
       <c r="D27">
-        <v>24232335856.45</v>
+        <v>50763887361.09</v>
       </c>
       <c r="E27">
-        <v>0.05508553760180318</v>
+        <v>0.02347881949075399</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1423,22 +1426,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>1523295861</v>
+        <v>185123011</v>
       </c>
       <c r="C28">
-        <v>102038925</v>
+        <v>70387903</v>
       </c>
       <c r="D28">
-        <v>3819080801.25</v>
+        <v>29014158279.98</v>
       </c>
       <c r="E28">
-        <v>0.3988645279517049</v>
+        <v>0.006380437068468615</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1446,22 +1449,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>251276860</v>
+        <v>410041878</v>
       </c>
       <c r="C29">
-        <v>99512120</v>
+        <v>69359393</v>
       </c>
       <c r="D29">
-        <v>27690318358.46</v>
+        <v>57711740674.95</v>
       </c>
       <c r="E29">
-        <v>0.009074538499237927</v>
+        <v>0.007104999315641509</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1469,22 +1472,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>706168508</v>
+        <v>257861221</v>
       </c>
       <c r="C30">
-        <v>94451262</v>
+        <v>69175131</v>
       </c>
       <c r="D30">
-        <v>13997961982.71</v>
+        <v>5661524635.12</v>
       </c>
       <c r="E30">
-        <v>0.05044795155696559</v>
+        <v>0.04554625081032337</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1492,22 +1495,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1002281608</v>
+        <v>608966428</v>
       </c>
       <c r="C31">
-        <v>94271964</v>
+        <v>68753920</v>
       </c>
       <c r="D31">
-        <v>38216720265.82</v>
+        <v>8184330897.08</v>
       </c>
       <c r="E31">
-        <v>0.02622625910932534</v>
+        <v>0.07440637917233608</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1515,22 +1518,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>597042374</v>
+        <v>991908539</v>
       </c>
       <c r="C32">
-        <v>93804149</v>
+        <v>67149100</v>
       </c>
       <c r="D32">
-        <v>124912807494.93</v>
+        <v>15224482730.56</v>
       </c>
       <c r="E32">
-        <v>0.004779673005301982</v>
+        <v>0.06515219968747764</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1538,22 +1541,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>310222949</v>
+        <v>523242077</v>
       </c>
       <c r="C33">
-        <v>92512863</v>
+        <v>66530877</v>
       </c>
       <c r="D33">
-        <v>35655272600.64</v>
+        <v>20565595029.66</v>
       </c>
       <c r="E33">
-        <v>0.008700619189612692</v>
+        <v>0.02544259362519648</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1561,22 +1564,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>343139855</v>
+        <v>480413005</v>
       </c>
       <c r="C34">
-        <v>89857999</v>
+        <v>66492499</v>
       </c>
       <c r="D34">
-        <v>19203643445.32</v>
+        <v>11056402382.55</v>
       </c>
       <c r="E34">
-        <v>0.01786847667616035</v>
+        <v>0.04345111442020435</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1584,22 +1587,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>1176015737</v>
+        <v>716162740</v>
       </c>
       <c r="C35">
-        <v>86138426</v>
+        <v>65698193.00000001</v>
       </c>
       <c r="D35">
-        <v>42742230895.2</v>
+        <v>2341211598.75</v>
       </c>
       <c r="E35">
-        <v>0.02751414028630097</v>
+        <v>0.3058940680040914</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1607,22 +1610,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>833983896</v>
+        <v>714132729</v>
       </c>
       <c r="C36">
-        <v>86129057</v>
+        <v>65327762</v>
       </c>
       <c r="D36">
-        <v>11893292509.6</v>
+        <v>27221371107.01</v>
       </c>
       <c r="E36">
-        <v>0.07012220504345847</v>
+        <v>0.02623426741410898</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1630,22 +1633,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>2109666611</v>
+        <v>953455652</v>
       </c>
       <c r="C37">
-        <v>83497951</v>
+        <v>63517761</v>
       </c>
       <c r="D37">
-        <v>24936761448.78</v>
+        <v>2453395199.22</v>
       </c>
       <c r="E37">
-        <v>0.08460066538043627</v>
+        <v>0.3886270146379716</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1653,22 +1656,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>746792968</v>
+        <v>1544581084</v>
       </c>
       <c r="C38">
-        <v>81763779</v>
+        <v>62809418.00000001</v>
       </c>
       <c r="D38">
-        <v>6281391881.55</v>
+        <v>20453047422.79</v>
       </c>
       <c r="E38">
-        <v>0.1188897273219834</v>
+        <v>0.07551838374358512</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1676,22 +1679,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>588746020</v>
+        <v>694382425</v>
       </c>
       <c r="C39">
-        <v>81145247</v>
+        <v>62371141</v>
       </c>
       <c r="D39">
-        <v>64888842800.7</v>
+        <v>10640447474.85</v>
       </c>
       <c r="E39">
-        <v>0.009073147163500484</v>
+        <v>0.06525876159261702</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1699,22 +1702,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>380172610</v>
+        <v>1079808197</v>
       </c>
       <c r="C40">
-        <v>78961660</v>
+        <v>62116036</v>
       </c>
       <c r="D40">
-        <v>9365133778.24</v>
+        <v>2551401092.94</v>
       </c>
       <c r="E40">
-        <v>0.0405944665609941</v>
+        <v>0.423221656519606</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1722,22 +1725,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>430078478</v>
+        <v>492581852</v>
       </c>
       <c r="C41">
-        <v>78755059</v>
+        <v>61094777</v>
       </c>
       <c r="D41">
-        <v>7754460442.740001</v>
+        <v>3583670760.6</v>
       </c>
       <c r="E41">
-        <v>0.05546207646241263</v>
+        <v>0.1374517596358458</v>
       </c>
       <c r="F41" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1745,22 +1748,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>1403079240</v>
+        <v>298860401</v>
       </c>
       <c r="C42">
-        <v>78043235</v>
+        <v>60176781.99999999</v>
       </c>
       <c r="D42">
-        <v>269857370938.35</v>
+        <v>15401767259.95</v>
       </c>
       <c r="E42">
-        <v>0.005199336357280895</v>
+        <v>0.01940429276432075</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1768,22 +1771,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>912733509</v>
+        <v>557217899</v>
       </c>
       <c r="C43">
-        <v>75273732</v>
+        <v>60116375</v>
       </c>
       <c r="D43">
-        <v>15555557687.54</v>
+        <v>6454910994.3</v>
       </c>
       <c r="E43">
-        <v>0.0586757175367039</v>
+        <v>0.08632464483120689</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1791,22 +1794,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>319895509</v>
+        <v>663967205</v>
       </c>
       <c r="C44">
-        <v>74990493</v>
+        <v>59725114</v>
       </c>
       <c r="D44">
-        <v>10362004503.3</v>
+        <v>8258419911.000001</v>
       </c>
       <c r="E44">
-        <v>0.03087197162461399</v>
+        <v>0.08039881867905663</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1814,22 +1817,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>352804435</v>
+        <v>722202497</v>
       </c>
       <c r="C45">
-        <v>74320329</v>
+        <v>59250157.99999999</v>
       </c>
       <c r="D45">
-        <v>14630135633.7</v>
+        <v>11781249884</v>
       </c>
       <c r="E45">
-        <v>0.02411491211245694</v>
+        <v>0.06130100830649693</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1837,22 +1840,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>4412200243</v>
+        <v>453170750</v>
       </c>
       <c r="C46">
-        <v>74113891</v>
+        <v>58877707.99999999</v>
       </c>
       <c r="D46">
-        <v>588150046147.64</v>
+        <v>58473934663.2</v>
       </c>
       <c r="E46">
-        <v>0.007501827589574702</v>
+        <v>0.007749961630086758</v>
       </c>
       <c r="F46" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1860,22 +1863,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>540911430</v>
+        <v>738820226</v>
       </c>
       <c r="C47">
-        <v>73252082</v>
+        <v>58743014</v>
       </c>
       <c r="D47">
-        <v>56502051004</v>
+        <v>7353601341.12</v>
       </c>
       <c r="E47">
-        <v>0.00957330610815715</v>
+        <v>0.1004705302514364</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1883,22 +1886,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>959136509</v>
+        <v>1505130806</v>
       </c>
       <c r="C48">
-        <v>73034671</v>
+        <v>58178362</v>
       </c>
       <c r="D48">
-        <v>37827621902.06999</v>
+        <v>25747230905.3</v>
       </c>
       <c r="E48">
-        <v>0.02535545352237737</v>
+        <v>0.05845796821941628</v>
       </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1906,22 +1909,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>241549860</v>
+        <v>1021901188</v>
       </c>
       <c r="C49">
-        <v>72660660</v>
+        <v>57669159</v>
       </c>
       <c r="D49">
-        <v>9316478799.460001</v>
+        <v>3442534432.04</v>
       </c>
       <c r="E49">
-        <v>0.02592716252561007</v>
+        <v>0.2968455968048038</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1929,22 +1932,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>216830507</v>
+        <v>742900693</v>
       </c>
       <c r="C50">
-        <v>72301850</v>
+        <v>57537824</v>
       </c>
       <c r="D50">
-        <v>17281286261.98</v>
+        <v>1920000000</v>
       </c>
       <c r="E50">
-        <v>0.01254712778394521</v>
+        <v>0.3869274442708333</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="G50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1952,22 +1955,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>841546799</v>
+        <v>170785261</v>
       </c>
       <c r="C51">
-        <v>72276482</v>
+        <v>57072030.00000001</v>
       </c>
       <c r="D51">
-        <v>88507577147.92001</v>
+        <v>17339083206</v>
       </c>
       <c r="E51">
-        <v>0.00950818931122189</v>
+        <v>0.009849728441288154</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/volume_top50.xlsx
+++ b/website/everyday-update/data/volume_top50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="137">
   <si>
     <t>amt</t>
   </si>
@@ -37,409 +37,394 @@
     <t>000725.SZ</t>
   </si>
   <si>
+    <t>601668.SH</t>
+  </si>
+  <si>
+    <t>601288.SH</t>
+  </si>
+  <si>
+    <t>600050.SH</t>
+  </si>
+  <si>
+    <t>601398.SH</t>
+  </si>
+  <si>
+    <t>601766.SH</t>
+  </si>
+  <si>
+    <t>601988.SH</t>
+  </si>
+  <si>
+    <t>600016.SH</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>600028.SH</t>
+  </si>
+  <si>
+    <t>601818.SH</t>
+  </si>
+  <si>
     <t>000100.SZ</t>
   </si>
   <si>
+    <t>000001.SZ</t>
+  </si>
+  <si>
+    <t>600115.SH</t>
+  </si>
+  <si>
+    <t>600031.SH</t>
+  </si>
+  <si>
+    <t>002102.SZ</t>
+  </si>
+  <si>
+    <t>601328.SH</t>
+  </si>
+  <si>
+    <t>601166.SH</t>
+  </si>
+  <si>
+    <t>601989.SH</t>
+  </si>
+  <si>
+    <t>600048.SH</t>
+  </si>
+  <si>
+    <t>601939.SH</t>
+  </si>
+  <si>
+    <t>600208.SH</t>
+  </si>
+  <si>
+    <t>600795.SH</t>
+  </si>
+  <si>
+    <t>600019.SH</t>
+  </si>
+  <si>
+    <t>600029.SH</t>
+  </si>
+  <si>
+    <t>600522.SH</t>
+  </si>
+  <si>
+    <t>300059.SZ</t>
+  </si>
+  <si>
+    <t>600460.SH</t>
+  </si>
+  <si>
+    <t>601318.SH</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
     <t>300088.SZ</t>
   </si>
   <si>
-    <t>603128.SH</t>
-  </si>
-  <si>
-    <t>601288.SH</t>
-  </si>
-  <si>
-    <t>601398.SH</t>
-  </si>
-  <si>
-    <t>601668.SH</t>
-  </si>
-  <si>
-    <t>601988.SH</t>
+    <t>000839.SZ</t>
+  </si>
+  <si>
+    <t>000338.SZ</t>
+  </si>
+  <si>
+    <t>600018.SH</t>
+  </si>
+  <si>
+    <t>002285.SZ</t>
+  </si>
+  <si>
+    <t>600000.SH</t>
+  </si>
+  <si>
+    <t>601169.SH</t>
+  </si>
+  <si>
+    <t>002185.SZ</t>
+  </si>
+  <si>
+    <t>601390.SH</t>
+  </si>
+  <si>
+    <t>601636.SH</t>
+  </si>
+  <si>
+    <t>600887.SH</t>
+  </si>
+  <si>
+    <t>002230.SZ</t>
+  </si>
+  <si>
+    <t>000002.SZ</t>
+  </si>
+  <si>
+    <t>600839.SH</t>
+  </si>
+  <si>
+    <t>601998.SH</t>
   </si>
   <si>
     <t>601899.SH</t>
   </si>
   <si>
-    <t>600050.SH</t>
-  </si>
-  <si>
-    <t>002510.SZ</t>
-  </si>
-  <si>
-    <t>600018.SH</t>
-  </si>
-  <si>
-    <t>002797.SZ</t>
-  </si>
-  <si>
-    <t>600839.SH</t>
-  </si>
-  <si>
-    <t>000792.SZ</t>
-  </si>
-  <si>
-    <t>000727.SZ</t>
-  </si>
-  <si>
-    <t>600048.SH</t>
-  </si>
-  <si>
-    <t>002285.SZ</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>000010.SZ</t>
-  </si>
-  <si>
-    <t>601766.SH</t>
-  </si>
-  <si>
-    <t>601818.SH</t>
-  </si>
-  <si>
-    <t>600031.SH</t>
-  </si>
-  <si>
-    <t>000868.SZ</t>
-  </si>
-  <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
-    <t>600690.SH</t>
-  </si>
-  <si>
-    <t>600010.SH</t>
-  </si>
-  <si>
-    <t>600028.SH</t>
+    <t>601009.SH</t>
+  </si>
+  <si>
+    <t>601006.SH</t>
   </si>
   <si>
     <t>002429.SZ</t>
   </si>
   <si>
-    <t>000735.SZ</t>
-  </si>
-  <si>
-    <t>300355.SZ</t>
-  </si>
-  <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
-    <t>000671.SZ</t>
-  </si>
-  <si>
-    <t>002377.SZ</t>
-  </si>
-  <si>
-    <t>000839.SZ</t>
-  </si>
-  <si>
-    <t>600822.SH</t>
-  </si>
-  <si>
-    <t>000050.SZ</t>
-  </si>
-  <si>
-    <t>000830.SZ</t>
-  </si>
-  <si>
-    <t>002401.SZ</t>
-  </si>
-  <si>
-    <t>600676.SH</t>
-  </si>
-  <si>
-    <t>600567.SH</t>
-  </si>
-  <si>
-    <t>600460.SH</t>
-  </si>
-  <si>
-    <t>002056.SZ</t>
-  </si>
-  <si>
-    <t>000807.SZ</t>
-  </si>
-  <si>
-    <t>600019.SH</t>
-  </si>
-  <si>
-    <t>600720.SH</t>
-  </si>
-  <si>
-    <t>600516.SH</t>
-  </si>
-  <si>
-    <t>600119.SH</t>
-  </si>
-  <si>
-    <t>002822.SZ</t>
-  </si>
-  <si>
-    <t>000630.SZ</t>
+    <t>601688.SH</t>
   </si>
   <si>
     <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
   </si>
   <si>
+    <t>建筑-建筑施工Ⅱ-建筑施工Ⅲ</t>
+  </si>
+  <si>
+    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
+  </si>
+  <si>
+    <t>通信-电信运营Ⅱ-电信运营Ⅲ</t>
+  </si>
+  <si>
+    <t>机械-运输设备-铁路交通设备</t>
+  </si>
+  <si>
+    <t>银行-股份制与城商行-股份制银行</t>
+  </si>
+  <si>
+    <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
+  </si>
+  <si>
+    <t>石油石化-石油化工-炼油</t>
+  </si>
+  <si>
     <t>家电-黑色家电Ⅱ-黑色家电Ⅲ</t>
   </si>
   <si>
-    <t>交通运输-公交物流-物流</t>
-  </si>
-  <si>
-    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
-  </si>
-  <si>
-    <t>建筑-建筑施工Ⅱ-建筑施工Ⅲ</t>
+    <t>交通运输-航空机场-航空</t>
+  </si>
+  <si>
+    <t>机械-工程机械Ⅱ-工程机械Ⅲ</t>
+  </si>
+  <si>
+    <t>建材-其他建材-陶瓷</t>
+  </si>
+  <si>
+    <t>国防军工-其他军工Ⅱ-其他军工Ⅲ</t>
+  </si>
+  <si>
+    <t>房地产-房地产开发管理-住宅地产</t>
+  </si>
+  <si>
+    <t>电力及公用事业-发电及电网-火电</t>
+  </si>
+  <si>
+    <t>钢铁-普钢-板材</t>
+  </si>
+  <si>
+    <t>通信-通信设备制造-线缆</t>
+  </si>
+  <si>
+    <t>传媒-传媒Ⅱ-互联网</t>
+  </si>
+  <si>
+    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
+  </si>
+  <si>
+    <t>非银行金融-保险Ⅱ-保险Ⅲ</t>
+  </si>
+  <si>
+    <t>通信-通信设备制造-系统设备</t>
+  </si>
+  <si>
+    <t>综合-综合Ⅱ-综合Ⅲ</t>
+  </si>
+  <si>
+    <t>汽车-汽车零部件Ⅱ-汽车零部件Ⅲ</t>
+  </si>
+  <si>
+    <t>交通运输-航运港口-港口</t>
+  </si>
+  <si>
+    <t>房地产-房地产服务Ⅱ-房地产服务Ⅲ</t>
+  </si>
+  <si>
+    <t>银行-股份制与城商行-城商行</t>
+  </si>
+  <si>
+    <t>建材-玻璃Ⅱ-玻璃Ⅲ</t>
+  </si>
+  <si>
+    <t>食品饮料-食品-乳制品</t>
+  </si>
+  <si>
+    <t>计算机-计算机软件-行业应用软件</t>
   </si>
   <si>
     <t>有色金属-贵金属-黄金</t>
   </si>
   <si>
-    <t>通信-电信运营Ⅱ-电信运营Ⅲ</t>
-  </si>
-  <si>
-    <t>汽车-汽车零部件Ⅱ-汽车零部件Ⅲ</t>
-  </si>
-  <si>
-    <t>交通运输-航运港口-港口</t>
-  </si>
-  <si>
-    <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
-  </si>
-  <si>
-    <t>基础化工-农用化工-钾肥</t>
-  </si>
-  <si>
-    <t>电子元器件-电子设备Ⅱ-电子设备Ⅲ</t>
-  </si>
-  <si>
-    <t>房地产-房地产开发管理-住宅地产</t>
-  </si>
-  <si>
-    <t>房地产-房地产服务Ⅱ-房地产服务Ⅲ</t>
-  </si>
-  <si>
-    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
-  </si>
-  <si>
-    <t>建筑-建筑装修Ⅱ-建筑装修Ⅲ</t>
-  </si>
-  <si>
-    <t>机械-运输设备-铁路交通设备</t>
-  </si>
-  <si>
-    <t>银行-股份制与城商行-股份制银行</t>
-  </si>
-  <si>
-    <t>机械-工程机械Ⅱ-工程机械Ⅲ</t>
-  </si>
-  <si>
-    <t>汽车-商用车-客车</t>
-  </si>
-  <si>
-    <t>家电-白色家电Ⅱ-白色家电Ⅲ</t>
-  </si>
-  <si>
-    <t>钢铁-普钢-板材</t>
-  </si>
-  <si>
-    <t>石油石化-石油化工-炼油</t>
-  </si>
-  <si>
-    <t>农林牧渔-牧业-畜牧养殖</t>
-  </si>
-  <si>
-    <t>电力及公用事业-环保及公用事业-环保</t>
-  </si>
-  <si>
-    <t>石油石化-石油化工-其他石化</t>
-  </si>
-  <si>
-    <t>综合-综合Ⅱ-综合Ⅲ</t>
-  </si>
-  <si>
-    <t>商贸零售-贸易Ⅱ-贸易Ⅲ</t>
-  </si>
-  <si>
-    <t>基础化工-农用化工-氮肥</t>
-  </si>
-  <si>
-    <t>计算机-IT服务-系统集成及IT咨询</t>
-  </si>
-  <si>
-    <t>轻工制造-造纸Ⅱ-造纸Ⅲ</t>
-  </si>
-  <si>
-    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
-  </si>
-  <si>
-    <t>有色金属-工业金属-铝</t>
-  </si>
-  <si>
-    <t>建材-水泥Ⅱ-水泥Ⅲ</t>
-  </si>
-  <si>
-    <t>建材-其他建材-新型建材及非金属新材料</t>
-  </si>
-  <si>
-    <t>有色金属-工业金属-铜</t>
+    <t>交通运输-公路铁路-铁路</t>
   </si>
   <si>
     <t>京东方A</t>
   </si>
   <si>
+    <t>中国建筑</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>中国联通</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>民生银行</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>中国石化</t>
+  </si>
+  <si>
+    <t>光大银行</t>
+  </si>
+  <si>
     <t>TCL集团</t>
   </si>
   <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>东方航空</t>
+  </si>
+  <si>
+    <t>三一重工</t>
+  </si>
+  <si>
+    <t>冠福股份</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>中国重工</t>
+  </si>
+  <si>
+    <t>保利地产</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>新湖中宝</t>
+  </si>
+  <si>
+    <t>国电电力</t>
+  </si>
+  <si>
+    <t>宝钢股份</t>
+  </si>
+  <si>
+    <t>南方航空</t>
+  </si>
+  <si>
+    <t>中天科技</t>
+  </si>
+  <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>士兰微</t>
+  </si>
+  <si>
+    <t>中国平安</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
     <t>长信科技</t>
   </si>
   <si>
-    <t>华贸物流</t>
-  </si>
-  <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>中国建筑</t>
-  </si>
-  <si>
-    <t>中国银行</t>
+    <t>中信国安</t>
+  </si>
+  <si>
+    <t>潍柴动力</t>
+  </si>
+  <si>
+    <t>上港集团</t>
+  </si>
+  <si>
+    <t>世联行</t>
+  </si>
+  <si>
+    <t>浦发银行</t>
+  </si>
+  <si>
+    <t>北京银行</t>
+  </si>
+  <si>
+    <t>华天科技</t>
+  </si>
+  <si>
+    <t>中国中铁</t>
+  </si>
+  <si>
+    <t>旗滨集团</t>
+  </si>
+  <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>万科A</t>
+  </si>
+  <si>
+    <t>四川长虹</t>
+  </si>
+  <si>
+    <t>中信银行</t>
   </si>
   <si>
     <t>紫金矿业</t>
   </si>
   <si>
-    <t>中国联通</t>
-  </si>
-  <si>
-    <t>天汽模</t>
-  </si>
-  <si>
-    <t>上港集团</t>
-  </si>
-  <si>
-    <t>第一创业</t>
-  </si>
-  <si>
-    <t>四川长虹</t>
-  </si>
-  <si>
-    <t>盐湖股份</t>
-  </si>
-  <si>
-    <t>华东科技</t>
-  </si>
-  <si>
-    <t>保利地产</t>
-  </si>
-  <si>
-    <t>世联行</t>
-  </si>
-  <si>
-    <t>洛阳钼业</t>
-  </si>
-  <si>
-    <t>美丽生态</t>
-  </si>
-  <si>
-    <t>中国中车</t>
-  </si>
-  <si>
-    <t>光大银行</t>
-  </si>
-  <si>
-    <t>三一重工</t>
-  </si>
-  <si>
-    <t>安凯客车</t>
-  </si>
-  <si>
-    <t>格力电器</t>
-  </si>
-  <si>
-    <t>青岛海尔</t>
-  </si>
-  <si>
-    <t>包钢股份</t>
-  </si>
-  <si>
-    <t>中国石化</t>
+    <t>南京银行</t>
+  </si>
+  <si>
+    <t>大秦铁路</t>
   </si>
   <si>
     <t>兆驰股份</t>
   </si>
   <si>
-    <t>罗牛山</t>
-  </si>
-  <si>
-    <t>蒙草生态</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>阳光城</t>
-  </si>
-  <si>
-    <t>国创高新</t>
-  </si>
-  <si>
-    <t>中信国安</t>
-  </si>
-  <si>
-    <t>上海物贸</t>
-  </si>
-  <si>
-    <t>深天马A</t>
-  </si>
-  <si>
-    <t>鲁西化工</t>
-  </si>
-  <si>
-    <t>中远海科</t>
-  </si>
-  <si>
-    <t>交运股份</t>
-  </si>
-  <si>
-    <t>山鹰纸业</t>
-  </si>
-  <si>
-    <t>士兰微</t>
-  </si>
-  <si>
-    <t>横店东磁</t>
-  </si>
-  <si>
-    <t>云铝股份</t>
-  </si>
-  <si>
-    <t>宝钢股份</t>
-  </si>
-  <si>
-    <t>祁连山</t>
-  </si>
-  <si>
-    <t>方大炭素</t>
-  </si>
-  <si>
-    <t>长江投资</t>
-  </si>
-  <si>
-    <t>中装建设</t>
-  </si>
-  <si>
-    <t>铜陵有色</t>
+    <t>华泰证券</t>
   </si>
 </sst>
 </file>
@@ -828,22 +813,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>9820546338</v>
+        <v>14859107132</v>
       </c>
       <c r="C2">
-        <v>1803941542</v>
+        <v>2287573359</v>
       </c>
       <c r="D2">
-        <v>130668774830.88</v>
+        <v>148030360297.92</v>
       </c>
       <c r="E2">
-        <v>0.07515602982204729</v>
+        <v>0.1003787810966288</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -851,22 +836,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1539936156</v>
+        <v>6322660047</v>
       </c>
       <c r="C3">
-        <v>354117783</v>
+        <v>638889445</v>
       </c>
       <c r="D3">
-        <v>32557909309.2</v>
+        <v>128012242090.08</v>
       </c>
       <c r="E3">
-        <v>0.04729837353422613</v>
+        <v>0.04939105779079202</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -874,22 +859,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1910128265</v>
+        <v>2225047332</v>
       </c>
       <c r="C4">
-        <v>197531450</v>
+        <v>592729933</v>
       </c>
       <c r="D4">
-        <v>19659640309.9</v>
+        <v>134645364603</v>
       </c>
       <c r="E4">
-        <v>0.09715987855780439</v>
+        <v>0.01652524272603458</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -897,22 +882,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2195549889</v>
+        <v>4371989653</v>
       </c>
       <c r="C5">
-        <v>189062288</v>
+        <v>531442182</v>
       </c>
       <c r="D5">
-        <v>5197348470.03</v>
+        <v>64607660329.12</v>
       </c>
       <c r="E5">
-        <v>0.4224365369496433</v>
+        <v>0.06766983405262633</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -920,22 +905,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>632567673</v>
+        <v>2693415698</v>
       </c>
       <c r="C6">
-        <v>167610932</v>
+        <v>431869596</v>
       </c>
       <c r="D6">
-        <v>133582374882.45</v>
+        <v>134343632929.52</v>
       </c>
       <c r="E6">
-        <v>0.004735412688662316</v>
+        <v>0.02004870375519049</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -943,22 +928,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1022535463</v>
+        <v>4705770843</v>
       </c>
       <c r="C7">
-        <v>165866636</v>
+        <v>411408956</v>
       </c>
       <c r="D7">
-        <v>132834153907.84</v>
+        <v>96194098606.06</v>
       </c>
       <c r="E7">
-        <v>0.00769783548069597</v>
+        <v>0.04891953780108032</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -966,22 +951,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1374126128</v>
+        <v>1619053793</v>
       </c>
       <c r="C8">
-        <v>145105465</v>
+        <v>404924420</v>
       </c>
       <c r="D8">
-        <v>121328872021.12</v>
+        <v>89885044393.17</v>
       </c>
       <c r="E8">
-        <v>0.01132563177345622</v>
+        <v>0.01801249366822391</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -989,22 +974,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>582807013</v>
+        <v>3492335366</v>
       </c>
       <c r="C9">
-        <v>142433205</v>
+        <v>389506526</v>
       </c>
       <c r="D9">
-        <v>83410403927.73001</v>
+        <v>216571482794.42</v>
       </c>
       <c r="E9">
-        <v>0.006987222043726901</v>
+        <v>0.01612555504048098</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1012,22 +997,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>546571683</v>
+        <v>7448476308</v>
       </c>
       <c r="C10">
-        <v>137557586</v>
+        <v>380476621</v>
       </c>
       <c r="D10">
-        <v>40225828365.9</v>
+        <v>153798529974.72</v>
       </c>
       <c r="E10">
-        <v>0.01358758054721221</v>
+        <v>0.04843008778578256</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1035,22 +1020,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>847207981</v>
+        <v>1958133722</v>
       </c>
       <c r="C11">
-        <v>119502092</v>
+        <v>319451307</v>
       </c>
       <c r="D11">
-        <v>55919588646.72</v>
+        <v>60738921657.89999</v>
       </c>
       <c r="E11">
-        <v>0.01515046876242881</v>
+        <v>0.03223853286412957</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1058,22 +1043,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>987733500</v>
+        <v>1271920960</v>
       </c>
       <c r="C12">
-        <v>117753065</v>
+        <v>303673522</v>
       </c>
       <c r="D12">
-        <v>5625603867.65</v>
+        <v>110827876724.1</v>
       </c>
       <c r="E12">
-        <v>0.1755782175989951</v>
+        <v>0.01147654360613962</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1081,22 +1066,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>868346769</v>
+        <v>1375886167</v>
       </c>
       <c r="C13">
-        <v>115459215</v>
+        <v>289742770</v>
       </c>
       <c r="D13">
-        <v>23829926614.4</v>
+        <v>34925757258.96</v>
       </c>
       <c r="E13">
-        <v>0.03643933877980444</v>
+        <v>0.0393945979982159</v>
       </c>
       <c r="F13" t="s">
         <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1104,22 +1089,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1310954871</v>
+        <v>3839501153</v>
       </c>
       <c r="C14">
-        <v>110628022</v>
+        <v>257023146</v>
       </c>
       <c r="D14">
-        <v>23059757148.28</v>
+        <v>114915254938.4</v>
       </c>
       <c r="E14">
-        <v>0.05685033292285919</v>
+        <v>0.03341158800072414</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1127,22 +1112,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>402446453</v>
+        <v>1849512718</v>
       </c>
       <c r="C15">
-        <v>106048199</v>
+        <v>254149752</v>
       </c>
       <c r="D15">
-        <v>13398241536.04</v>
+        <v>31659018046.8</v>
       </c>
       <c r="E15">
-        <v>0.03003725913713804</v>
+        <v>0.05841977522063238</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1150,22 +1135,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1683161164</v>
+        <v>2215798422</v>
       </c>
       <c r="C16">
-        <v>104291320</v>
+        <v>253927071</v>
       </c>
       <c r="D16">
-        <v>19751713614.84</v>
+        <v>36021927475.8</v>
       </c>
       <c r="E16">
-        <v>0.08521595628722539</v>
+        <v>0.06151248912176068</v>
       </c>
       <c r="F16" t="s">
         <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1173,22 +1158,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>291835841</v>
+        <v>1112504683</v>
       </c>
       <c r="C17">
-        <v>99303233</v>
+        <v>226778431</v>
       </c>
       <c r="D17">
-        <v>6790286658.32</v>
+        <v>5843969849.08</v>
       </c>
       <c r="E17">
-        <v>0.04297842722772528</v>
+        <v>0.190367971042003</v>
       </c>
       <c r="F17" t="s">
         <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1196,22 +1181,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>1072989578</v>
+        <v>1404681874</v>
       </c>
       <c r="C18">
-        <v>97638654</v>
+        <v>221479655</v>
       </c>
       <c r="D18">
-        <v>76150089148.98</v>
+        <v>153530824084.82</v>
       </c>
       <c r="E18">
-        <v>0.01409045727971249</v>
+        <v>0.009149184747578545</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1219,22 +1204,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1262910607</v>
+        <v>3965821375</v>
       </c>
       <c r="C19">
-        <v>96739688</v>
+        <v>219832925</v>
       </c>
       <c r="D19">
-        <v>10445930958.24</v>
+        <v>269408357010</v>
       </c>
       <c r="E19">
-        <v>0.1208997658560806</v>
+        <v>0.01472048387442115</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1242,22 +1227,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>669391116</v>
+        <v>1398435977</v>
       </c>
       <c r="C20">
-        <v>93548501</v>
+        <v>219669457</v>
       </c>
       <c r="D20">
-        <v>18674857972.8</v>
+        <v>56017746958.05</v>
       </c>
       <c r="E20">
-        <v>0.03584450907069658</v>
+        <v>0.02496415962689907</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1265,22 +1250,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>603719935</v>
+        <v>2615151080</v>
       </c>
       <c r="C21">
-        <v>89906269</v>
+        <v>214544531</v>
       </c>
       <c r="D21">
-        <v>3503770751.58</v>
+        <v>84494343853.15001</v>
       </c>
       <c r="E21">
-        <v>0.1723057750646948</v>
+        <v>0.03095060522092575</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1288,22 +1273,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>858716670</v>
+        <v>1343957136</v>
       </c>
       <c r="C22">
-        <v>84329072</v>
+        <v>184046864</v>
       </c>
       <c r="D22">
-        <v>78984700181.3</v>
+        <v>65600928867.1</v>
       </c>
       <c r="E22">
-        <v>0.01087193681850938</v>
+        <v>0.02048686137848298</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1311,22 +1296,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>340503486</v>
+        <v>891029920</v>
       </c>
       <c r="C23">
-        <v>83720876</v>
+        <v>176335244</v>
       </c>
       <c r="D23">
-        <v>62772986075.14001</v>
+        <v>19108854576.7</v>
       </c>
       <c r="E23">
-        <v>0.005424363365356131</v>
+        <v>0.04662916431874779</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1334,22 +1319,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>673368260</v>
+        <v>518610093</v>
       </c>
       <c r="C24">
-        <v>83227554</v>
+        <v>148280132</v>
       </c>
       <c r="D24">
-        <v>32831982186.8</v>
+        <v>37459259607.22</v>
       </c>
       <c r="E24">
-        <v>0.020509521970645</v>
+        <v>0.01384464344564999</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1357,22 +1342,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>755131104</v>
+        <v>1316274242</v>
       </c>
       <c r="C25">
-        <v>79681178</v>
+        <v>145841523</v>
       </c>
       <c r="D25">
-        <v>4004008891.74</v>
+        <v>68940086392.8</v>
       </c>
       <c r="E25">
-        <v>0.1885937630053181</v>
+        <v>0.0190930170075544</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1380,22 +1365,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>3026015991</v>
+        <v>1561666453</v>
       </c>
       <c r="C26">
-        <v>72821082</v>
+        <v>144139457</v>
       </c>
       <c r="D26">
-        <v>181396231407.82</v>
+        <v>33086142605.15</v>
       </c>
       <c r="E26">
-        <v>0.01668180186277866</v>
+        <v>0.0472000157781137</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1403,22 +1388,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1191876148</v>
+        <v>2168655675</v>
       </c>
       <c r="C27">
-        <v>71011768</v>
+        <v>138154189</v>
       </c>
       <c r="D27">
-        <v>50763887361.09</v>
+        <v>29134085923.23</v>
       </c>
       <c r="E27">
-        <v>0.02347881949075399</v>
+        <v>0.07443705907624948</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1426,22 +1411,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>185123011</v>
+        <v>1874147935</v>
       </c>
       <c r="C28">
-        <v>70387903</v>
+        <v>136814648</v>
       </c>
       <c r="D28">
-        <v>29014158279.98</v>
+        <v>37381735059.13</v>
       </c>
       <c r="E28">
-        <v>0.006380437068468615</v>
+        <v>0.0501353918440515</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1449,22 +1434,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>410041878</v>
+        <v>1569865288</v>
       </c>
       <c r="C29">
-        <v>69359393</v>
+        <v>134404083</v>
       </c>
       <c r="D29">
-        <v>57711740674.95</v>
+        <v>8141516770.23</v>
       </c>
       <c r="E29">
-        <v>0.007104999315641509</v>
+        <v>0.1928222138828378</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1472,22 +1457,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>257861221</v>
+        <v>10124738589</v>
       </c>
       <c r="C30">
-        <v>69175131</v>
+        <v>129348799</v>
       </c>
       <c r="D30">
-        <v>5661524635.12</v>
+        <v>764427270920.2001</v>
       </c>
       <c r="E30">
-        <v>0.04554625081032337</v>
+        <v>0.01324486837944972</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1495,22 +1480,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>608966428</v>
+        <v>5191500870</v>
       </c>
       <c r="C31">
-        <v>68753920</v>
+        <v>129121695</v>
       </c>
       <c r="D31">
-        <v>8184330897.08</v>
+        <v>86814036174.25</v>
       </c>
       <c r="E31">
-        <v>0.07440637917233608</v>
+        <v>0.05980024773390108</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1518,22 +1503,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>991908539</v>
+        <v>1207961930</v>
       </c>
       <c r="C32">
-        <v>67149100</v>
+        <v>128768020</v>
       </c>
       <c r="D32">
-        <v>15224482730.56</v>
+        <v>17981718590.4</v>
       </c>
       <c r="E32">
-        <v>0.06515219968747764</v>
+        <v>0.06717722357444195</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1541,22 +1526,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>523242077</v>
+        <v>1347039810</v>
       </c>
       <c r="C33">
-        <v>66530877</v>
+        <v>123006807</v>
       </c>
       <c r="D33">
-        <v>20565595029.66</v>
+        <v>27121750352.73</v>
       </c>
       <c r="E33">
-        <v>0.02544259362519648</v>
+        <v>0.04966640399241087</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1564,22 +1549,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>480413005</v>
+        <v>1060072265</v>
       </c>
       <c r="C34">
-        <v>66492499</v>
+        <v>118218567</v>
       </c>
       <c r="D34">
-        <v>11056402382.55</v>
+        <v>38265670130.84</v>
       </c>
       <c r="E34">
-        <v>0.04345111442020435</v>
+        <v>0.0277029583272773</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1587,22 +1572,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>716162740</v>
+        <v>935597571</v>
       </c>
       <c r="C35">
-        <v>65698193.00000001</v>
+        <v>118034001</v>
       </c>
       <c r="D35">
-        <v>2341211598.75</v>
+        <v>24717211116</v>
       </c>
       <c r="E35">
-        <v>0.3058940680040914</v>
+        <v>0.03785206860956764</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1610,22 +1595,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>714132729</v>
+        <v>1650252020</v>
       </c>
       <c r="C36">
-        <v>65327762</v>
+        <v>117430129</v>
       </c>
       <c r="D36">
-        <v>27221371107.01</v>
+        <v>12681139748.13</v>
       </c>
       <c r="E36">
-        <v>0.02623426741410898</v>
+        <v>0.1301343611676034</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1633,22 +1618,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>953455652</v>
+        <v>1513356223</v>
       </c>
       <c r="C37">
-        <v>63517761</v>
+        <v>114576266</v>
       </c>
       <c r="D37">
-        <v>2453395199.22</v>
+        <v>203010710255.01</v>
       </c>
       <c r="E37">
-        <v>0.3886270146379716</v>
+        <v>0.007454563461696241</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1656,22 +1641,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1544581084</v>
+        <v>866688855</v>
       </c>
       <c r="C38">
-        <v>62809418.00000001</v>
+        <v>114333396</v>
       </c>
       <c r="D38">
-        <v>20453047422.79</v>
+        <v>86539296913.03999</v>
       </c>
       <c r="E38">
-        <v>0.07551838374358512</v>
+        <v>0.01001497453660737</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1679,22 +1664,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>694382425</v>
+        <v>1005611794</v>
       </c>
       <c r="C39">
-        <v>62371141</v>
+        <v>113703643</v>
       </c>
       <c r="D39">
-        <v>10640447474.85</v>
+        <v>13975591176.94</v>
       </c>
       <c r="E39">
-        <v>0.06525876159261702</v>
+        <v>0.07195486625705531</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1702,22 +1687,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1079808197</v>
+        <v>986347349</v>
       </c>
       <c r="C40">
-        <v>62116036</v>
+        <v>111066282</v>
       </c>
       <c r="D40">
-        <v>2551401092.94</v>
+        <v>55412174936.2</v>
       </c>
       <c r="E40">
-        <v>0.423221656519606</v>
+        <v>0.01780019192777855</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1725,22 +1710,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>492581852</v>
+        <v>563838252</v>
       </c>
       <c r="C41">
-        <v>61094777</v>
+        <v>106090345</v>
       </c>
       <c r="D41">
-        <v>3583670760.6</v>
+        <v>6790304262.5</v>
       </c>
       <c r="E41">
-        <v>0.1374517596358458</v>
+        <v>0.08303578605657511</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1748,22 +1733,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>298860401</v>
+        <v>3422658086</v>
       </c>
       <c r="C42">
-        <v>60176781.99999999</v>
+        <v>105652370</v>
       </c>
       <c r="D42">
-        <v>15401767259.95</v>
+        <v>173581404178.05</v>
       </c>
       <c r="E42">
-        <v>0.01940429276432075</v>
+        <v>0.01971788454072667</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1771,22 +1756,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>557217899</v>
+        <v>7590581120</v>
       </c>
       <c r="C43">
-        <v>60116375</v>
+        <v>105607994</v>
       </c>
       <c r="D43">
-        <v>6454910994.3</v>
+        <v>65236723329.62</v>
       </c>
       <c r="E43">
-        <v>0.08632464483120689</v>
+        <v>0.1163544202189196</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1794,22 +1779,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>663967205</v>
+        <v>3398210521</v>
       </c>
       <c r="C44">
-        <v>59725114</v>
+        <v>105296977</v>
       </c>
       <c r="D44">
-        <v>8258419911.000001</v>
+        <v>180059224865</v>
       </c>
       <c r="E44">
-        <v>0.08039881867905663</v>
+        <v>0.01887273769809806</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1817,22 +1802,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>722202497</v>
+        <v>413828279</v>
       </c>
       <c r="C45">
-        <v>59250157.99999999</v>
+        <v>104559388</v>
       </c>
       <c r="D45">
-        <v>11781249884</v>
+        <v>13829299752.75</v>
       </c>
       <c r="E45">
-        <v>0.06130100830649693</v>
+        <v>0.02992402264747417</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1840,22 +1825,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>453170750</v>
+        <v>668302683</v>
       </c>
       <c r="C46">
-        <v>58877707.99999999</v>
+        <v>103740646</v>
       </c>
       <c r="D46">
-        <v>58473934663.2</v>
+        <v>19280532459.5</v>
       </c>
       <c r="E46">
-        <v>0.007749961630086758</v>
+        <v>0.03466204496187088</v>
       </c>
       <c r="F46" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1863,22 +1848,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>738820226</v>
+        <v>382329051</v>
       </c>
       <c r="C47">
-        <v>58743014</v>
+        <v>103081951</v>
       </c>
       <c r="D47">
-        <v>7353601341.12</v>
+        <v>37794040253.1</v>
       </c>
       <c r="E47">
-        <v>0.1004705302514364</v>
+        <v>0.01011612011945825</v>
       </c>
       <c r="F47" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1886,22 +1871,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1505130806</v>
+        <v>846206762</v>
       </c>
       <c r="C48">
-        <v>58178362</v>
+        <v>100573624</v>
       </c>
       <c r="D48">
-        <v>25747230905.3</v>
+        <v>44934575677.2</v>
       </c>
       <c r="E48">
-        <v>0.05845796821941628</v>
+        <v>0.01883197402550235</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1909,22 +1894,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>1021901188</v>
+        <v>930883985</v>
       </c>
       <c r="C49">
-        <v>57669159</v>
+        <v>100157989</v>
       </c>
       <c r="D49">
-        <v>3442534432.04</v>
+        <v>53416266817.9</v>
       </c>
       <c r="E49">
-        <v>0.2968455968048038</v>
+        <v>0.01742697572208579</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1932,22 +1917,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>742900693</v>
+        <v>378876458</v>
       </c>
       <c r="C50">
-        <v>57537824</v>
+        <v>99102633</v>
       </c>
       <c r="D50">
-        <v>1920000000</v>
+        <v>5721753620.599999</v>
       </c>
       <c r="E50">
-        <v>0.3869274442708333</v>
+        <v>0.06621684244423477</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1955,22 +1940,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>170785261</v>
+        <v>2018055229</v>
       </c>
       <c r="C51">
-        <v>57072030.00000001</v>
+        <v>98974882</v>
       </c>
       <c r="D51">
-        <v>17339083206</v>
+        <v>61548621621.2</v>
       </c>
       <c r="E51">
-        <v>0.009849728441288154</v>
+        <v>0.03278798413098653</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G51" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/volume_top50.xlsx
+++ b/website/everyday-update/data/volume_top50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="136">
   <si>
     <t>amt</t>
   </si>
@@ -37,394 +37,391 @@
     <t>000725.SZ</t>
   </si>
   <si>
+    <t>600050.SH</t>
+  </si>
+  <si>
+    <t>601933.SH</t>
+  </si>
+  <si>
+    <t>600048.SH</t>
+  </si>
+  <si>
+    <t>601899.SH</t>
+  </si>
+  <si>
+    <t>601288.SH</t>
+  </si>
+  <si>
+    <t>600460.SH</t>
+  </si>
+  <si>
+    <t>600667.SH</t>
+  </si>
+  <si>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>600256.SH</t>
+  </si>
+  <si>
+    <t>000001.SZ</t>
+  </si>
+  <si>
+    <t>601398.SH</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>601766.SH</t>
+  </si>
+  <si>
+    <t>600352.SH</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>000100.SZ</t>
+  </si>
+  <si>
+    <t>601988.SH</t>
+  </si>
+  <si>
+    <t>000425.SZ</t>
+  </si>
+  <si>
+    <t>002797.SZ</t>
+  </si>
+  <si>
+    <t>002185.SZ</t>
+  </si>
+  <si>
+    <t>603993.SH</t>
+  </si>
+  <si>
+    <t>600115.SH</t>
+  </si>
+  <si>
+    <t>300102.SZ</t>
+  </si>
+  <si>
+    <t>000338.SZ</t>
+  </si>
+  <si>
+    <t>601318.SH</t>
+  </si>
+  <si>
+    <t>600221.SH</t>
+  </si>
+  <si>
+    <t>600029.SH</t>
+  </si>
+  <si>
+    <t>000670.SZ</t>
+  </si>
+  <si>
+    <t>600330.SH</t>
+  </si>
+  <si>
+    <t>601333.SH</t>
+  </si>
+  <si>
+    <t>600206.SH</t>
+  </si>
+  <si>
     <t>601668.SH</t>
   </si>
   <si>
-    <t>601288.SH</t>
-  </si>
-  <si>
-    <t>600050.SH</t>
-  </si>
-  <si>
-    <t>601398.SH</t>
-  </si>
-  <si>
-    <t>601766.SH</t>
-  </si>
-  <si>
-    <t>601988.SH</t>
-  </si>
-  <si>
-    <t>600016.SH</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>600028.SH</t>
+    <t>002285.SZ</t>
+  </si>
+  <si>
+    <t>600360.SH</t>
+  </si>
+  <si>
+    <t>000155.SZ</t>
+  </si>
+  <si>
+    <t>600176.SH</t>
+  </si>
+  <si>
+    <t>601939.SH</t>
+  </si>
+  <si>
+    <t>601636.SH</t>
   </si>
   <si>
     <t>601818.SH</t>
   </si>
   <si>
-    <t>000100.SZ</t>
-  </si>
-  <si>
-    <t>000001.SZ</t>
-  </si>
-  <si>
-    <t>600115.SH</t>
+    <t>600782.SH</t>
+  </si>
+  <si>
+    <t>600282.SH</t>
+  </si>
+  <si>
+    <t>601699.SH</t>
+  </si>
+  <si>
+    <t>002027.SZ</t>
+  </si>
+  <si>
+    <t>600171.SH</t>
+  </si>
+  <si>
+    <t>600522.SH</t>
+  </si>
+  <si>
+    <t>600691.SH</t>
   </si>
   <si>
     <t>600031.SH</t>
   </si>
   <si>
-    <t>002102.SZ</t>
-  </si>
-  <si>
-    <t>601328.SH</t>
-  </si>
-  <si>
-    <t>601166.SH</t>
-  </si>
-  <si>
-    <t>601989.SH</t>
-  </si>
-  <si>
-    <t>600048.SH</t>
-  </si>
-  <si>
-    <t>601939.SH</t>
-  </si>
-  <si>
-    <t>600208.SH</t>
-  </si>
-  <si>
-    <t>600795.SH</t>
-  </si>
-  <si>
-    <t>600019.SH</t>
-  </si>
-  <si>
-    <t>600029.SH</t>
-  </si>
-  <si>
-    <t>600522.SH</t>
-  </si>
-  <si>
-    <t>300059.SZ</t>
-  </si>
-  <si>
-    <t>600460.SH</t>
-  </si>
-  <si>
-    <t>601318.SH</t>
-  </si>
-  <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>300088.SZ</t>
-  </si>
-  <si>
-    <t>000839.SZ</t>
-  </si>
-  <si>
-    <t>000338.SZ</t>
-  </si>
-  <si>
-    <t>600018.SH</t>
-  </si>
-  <si>
-    <t>002285.SZ</t>
-  </si>
-  <si>
-    <t>600000.SH</t>
-  </si>
-  <si>
-    <t>601169.SH</t>
-  </si>
-  <si>
-    <t>002185.SZ</t>
-  </si>
-  <si>
-    <t>601390.SH</t>
-  </si>
-  <si>
-    <t>601636.SH</t>
-  </si>
-  <si>
-    <t>600887.SH</t>
-  </si>
-  <si>
-    <t>002230.SZ</t>
-  </si>
-  <si>
-    <t>000002.SZ</t>
-  </si>
-  <si>
-    <t>600839.SH</t>
-  </si>
-  <si>
-    <t>601998.SH</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
-    <t>601009.SH</t>
-  </si>
-  <si>
-    <t>601006.SH</t>
-  </si>
-  <si>
-    <t>002429.SZ</t>
-  </si>
-  <si>
-    <t>601688.SH</t>
+    <t>000636.SZ</t>
+  </si>
+  <si>
+    <t>000933.SZ</t>
   </si>
   <si>
     <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
   </si>
   <si>
+    <t>通信-电信运营Ⅱ-电信运营Ⅲ</t>
+  </si>
+  <si>
+    <t>商贸零售-零售-超市</t>
+  </si>
+  <si>
+    <t>房地产-房地产开发管理-住宅地产</t>
+  </si>
+  <si>
+    <t>有色金属-贵金属-黄金</t>
+  </si>
+  <si>
+    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
+  </si>
+  <si>
+    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
+  </si>
+  <si>
+    <t>电力设备-新能源设备-光伏</t>
+  </si>
+  <si>
+    <t>石油石化-石油开采Ⅱ-石油开采Ⅲ</t>
+  </si>
+  <si>
+    <t>银行-股份制与城商行-股份制银行</t>
+  </si>
+  <si>
+    <t>通信-通信设备制造-系统设备</t>
+  </si>
+  <si>
+    <t>机械-运输设备-铁路交通设备</t>
+  </si>
+  <si>
+    <t>基础化工-化学制品-印染化学品</t>
+  </si>
+  <si>
+    <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
+  </si>
+  <si>
+    <t>家电-黑色家电Ⅱ-黑色家电Ⅲ</t>
+  </si>
+  <si>
+    <t>机械-工程机械Ⅱ-工程机械Ⅲ</t>
+  </si>
+  <si>
+    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
+  </si>
+  <si>
+    <t>交通运输-航空机场-航空</t>
+  </si>
+  <si>
+    <t>汽车-汽车零部件Ⅱ-汽车零部件Ⅲ</t>
+  </si>
+  <si>
+    <t>非银行金融-保险Ⅱ-保险Ⅲ</t>
+  </si>
+  <si>
+    <t>交通运输-公路铁路-铁路</t>
+  </si>
+  <si>
     <t>建筑-建筑施工Ⅱ-建筑施工Ⅲ</t>
   </si>
   <si>
-    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
-  </si>
-  <si>
-    <t>通信-电信运营Ⅱ-电信运营Ⅲ</t>
-  </si>
-  <si>
-    <t>机械-运输设备-铁路交通设备</t>
-  </si>
-  <si>
-    <t>银行-股份制与城商行-股份制银行</t>
-  </si>
-  <si>
-    <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
-  </si>
-  <si>
-    <t>石油石化-石油化工-炼油</t>
-  </si>
-  <si>
-    <t>家电-黑色家电Ⅱ-黑色家电Ⅲ</t>
-  </si>
-  <si>
-    <t>交通运输-航空机场-航空</t>
-  </si>
-  <si>
-    <t>机械-工程机械Ⅱ-工程机械Ⅲ</t>
-  </si>
-  <si>
-    <t>建材-其他建材-陶瓷</t>
-  </si>
-  <si>
-    <t>国防军工-其他军工Ⅱ-其他军工Ⅲ</t>
-  </si>
-  <si>
-    <t>房地产-房地产开发管理-住宅地产</t>
-  </si>
-  <si>
-    <t>电力及公用事业-发电及电网-火电</t>
+    <t>房地产-房地产服务Ⅱ-房地产服务Ⅲ</t>
+  </si>
+  <si>
+    <t>基础化工-农用化工-氮肥</t>
+  </si>
+  <si>
+    <t>建材-玻璃Ⅱ-玻璃Ⅲ</t>
   </si>
   <si>
     <t>钢铁-普钢-板材</t>
   </si>
   <si>
+    <t>煤炭-煤炭开采洗选-炼焦煤</t>
+  </si>
+  <si>
+    <t>传媒-传媒Ⅱ-整合营销</t>
+  </si>
+  <si>
     <t>通信-通信设备制造-线缆</t>
   </si>
   <si>
-    <t>传媒-传媒Ⅱ-互联网</t>
-  </si>
-  <si>
-    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
-  </si>
-  <si>
-    <t>非银行金融-保险Ⅱ-保险Ⅲ</t>
-  </si>
-  <si>
-    <t>通信-通信设备制造-系统设备</t>
-  </si>
-  <si>
     <t>综合-综合Ⅱ-综合Ⅲ</t>
   </si>
   <si>
-    <t>汽车-汽车零部件Ⅱ-汽车零部件Ⅲ</t>
-  </si>
-  <si>
-    <t>交通运输-航运港口-港口</t>
-  </si>
-  <si>
-    <t>房地产-房地产服务Ⅱ-房地产服务Ⅲ</t>
-  </si>
-  <si>
-    <t>银行-股份制与城商行-城商行</t>
-  </si>
-  <si>
-    <t>建材-玻璃Ⅱ-玻璃Ⅲ</t>
-  </si>
-  <si>
-    <t>食品饮料-食品-乳制品</t>
-  </si>
-  <si>
-    <t>计算机-计算机软件-行业应用软件</t>
-  </si>
-  <si>
-    <t>有色金属-贵金属-黄金</t>
-  </si>
-  <si>
-    <t>交通运输-公路铁路-铁路</t>
-  </si>
-  <si>
     <t>京东方A</t>
   </si>
   <si>
+    <t>中国联通</t>
+  </si>
+  <si>
+    <t>永辉超市</t>
+  </si>
+  <si>
+    <t>保利地产</t>
+  </si>
+  <si>
+    <t>紫金矿业</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>士兰微</t>
+  </si>
+  <si>
+    <t>太极实业</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>广汇能源</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>浙江龙盛</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>TCL集团</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>徐工机械</t>
+  </si>
+  <si>
+    <t>第一创业</t>
+  </si>
+  <si>
+    <t>华天科技</t>
+  </si>
+  <si>
+    <t>洛阳钼业</t>
+  </si>
+  <si>
+    <t>东方航空</t>
+  </si>
+  <si>
+    <t>乾照光电</t>
+  </si>
+  <si>
+    <t>潍柴动力</t>
+  </si>
+  <si>
+    <t>中国平安</t>
+  </si>
+  <si>
+    <t>海航控股</t>
+  </si>
+  <si>
+    <t>南方航空</t>
+  </si>
+  <si>
+    <t>盈方微</t>
+  </si>
+  <si>
+    <t>天通股份</t>
+  </si>
+  <si>
+    <t>广深铁路</t>
+  </si>
+  <si>
+    <t>有研新材</t>
+  </si>
+  <si>
     <t>中国建筑</t>
   </si>
   <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>中国联通</t>
-  </si>
-  <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>中国中车</t>
-  </si>
-  <si>
-    <t>中国银行</t>
-  </si>
-  <si>
-    <t>民生银行</t>
-  </si>
-  <si>
-    <t>中信证券</t>
-  </si>
-  <si>
-    <t>中国石化</t>
+    <t>世联行</t>
+  </si>
+  <si>
+    <t>华微电子</t>
+  </si>
+  <si>
+    <t>川化股份</t>
+  </si>
+  <si>
+    <t>中国巨石</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>旗滨集团</t>
   </si>
   <si>
     <t>光大银行</t>
   </si>
   <si>
-    <t>TCL集团</t>
-  </si>
-  <si>
-    <t>平安银行</t>
-  </si>
-  <si>
-    <t>东方航空</t>
+    <t>新钢股份</t>
+  </si>
+  <si>
+    <t>南钢股份</t>
+  </si>
+  <si>
+    <t>潞安环能</t>
+  </si>
+  <si>
+    <t>分众传媒</t>
+  </si>
+  <si>
+    <t>上海贝岭</t>
+  </si>
+  <si>
+    <t>中天科技</t>
+  </si>
+  <si>
+    <t>阳煤化工</t>
   </si>
   <si>
     <t>三一重工</t>
   </si>
   <si>
-    <t>冠福股份</t>
-  </si>
-  <si>
-    <t>交通银行</t>
-  </si>
-  <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
-    <t>中国重工</t>
-  </si>
-  <si>
-    <t>保利地产</t>
-  </si>
-  <si>
-    <t>建设银行</t>
-  </si>
-  <si>
-    <t>新湖中宝</t>
-  </si>
-  <si>
-    <t>国电电力</t>
-  </si>
-  <si>
-    <t>宝钢股份</t>
-  </si>
-  <si>
-    <t>南方航空</t>
-  </si>
-  <si>
-    <t>中天科技</t>
-  </si>
-  <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>士兰微</t>
-  </si>
-  <si>
-    <t>中国平安</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>长信科技</t>
-  </si>
-  <si>
-    <t>中信国安</t>
-  </si>
-  <si>
-    <t>潍柴动力</t>
-  </si>
-  <si>
-    <t>上港集团</t>
-  </si>
-  <si>
-    <t>世联行</t>
-  </si>
-  <si>
-    <t>浦发银行</t>
-  </si>
-  <si>
-    <t>北京银行</t>
-  </si>
-  <si>
-    <t>华天科技</t>
-  </si>
-  <si>
-    <t>中国中铁</t>
-  </si>
-  <si>
-    <t>旗滨集团</t>
-  </si>
-  <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-  </si>
-  <si>
-    <t>万科A</t>
-  </si>
-  <si>
-    <t>四川长虹</t>
-  </si>
-  <si>
-    <t>中信银行</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>南京银行</t>
-  </si>
-  <si>
-    <t>大秦铁路</t>
-  </si>
-  <si>
-    <t>兆驰股份</t>
-  </si>
-  <si>
-    <t>华泰证券</t>
+    <t>风华高科</t>
+  </si>
+  <si>
+    <t>神火股份</t>
   </si>
 </sst>
 </file>
@@ -813,22 +810,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>14859107132</v>
+        <v>7757157253</v>
       </c>
       <c r="C2">
-        <v>2287573359</v>
+        <v>1336850905</v>
       </c>
       <c r="D2">
-        <v>148030360297.92</v>
+        <v>135009171197.64</v>
       </c>
       <c r="E2">
-        <v>0.1003787810966288</v>
+        <v>0.05745652079920032</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -836,22 +833,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>6322660047</v>
+        <v>1460706062</v>
       </c>
       <c r="C3">
-        <v>638889445</v>
+        <v>220312977</v>
       </c>
       <c r="D3">
-        <v>128012242090.08</v>
+        <v>52760289853.12</v>
       </c>
       <c r="E3">
-        <v>0.04939105779079202</v>
+        <v>0.02768570957563874</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -859,22 +856,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2225047332</v>
+        <v>2303215406</v>
       </c>
       <c r="C4">
-        <v>592729933</v>
+        <v>214749507</v>
       </c>
       <c r="D4">
-        <v>134645364603</v>
+        <v>38223346975.2</v>
       </c>
       <c r="E4">
-        <v>0.01652524272603458</v>
+        <v>0.06025676944236118</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -882,22 +879,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4371989653</v>
+        <v>2501603297</v>
       </c>
       <c r="C5">
-        <v>531442182</v>
+        <v>196797513</v>
       </c>
       <c r="D5">
-        <v>64607660329.12</v>
+        <v>91366083021.28999</v>
       </c>
       <c r="E5">
-        <v>0.06766983405262633</v>
+        <v>0.02737999938573573</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -905,22 +902,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>2693415698</v>
+        <v>763961786</v>
       </c>
       <c r="C6">
-        <v>431869596</v>
+        <v>189735197</v>
       </c>
       <c r="D6">
-        <v>134343632929.52</v>
+        <v>41036424403.5</v>
       </c>
       <c r="E6">
-        <v>0.02004870375519049</v>
+        <v>0.01861667523681331</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -928,22 +925,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>4705770843</v>
+        <v>670453091</v>
       </c>
       <c r="C7">
-        <v>411408956</v>
+        <v>181089656</v>
       </c>
       <c r="D7">
-        <v>96194098606.06</v>
+        <v>131102065534.5</v>
       </c>
       <c r="E7">
-        <v>0.04891953780108032</v>
+        <v>0.005113978092309826</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -951,22 +948,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1619053793</v>
+        <v>2709153358</v>
       </c>
       <c r="C8">
-        <v>404924420</v>
+        <v>177685772</v>
       </c>
       <c r="D8">
-        <v>89885044393.17</v>
+        <v>10674895816.38</v>
       </c>
       <c r="E8">
-        <v>0.01801249366822391</v>
+        <v>0.2537873347525288</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -974,22 +971,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>3492335366</v>
+        <v>1617197046</v>
       </c>
       <c r="C9">
-        <v>389506526</v>
+        <v>174869013</v>
       </c>
       <c r="D9">
-        <v>216571482794.42</v>
+        <v>7461817003.440001</v>
       </c>
       <c r="E9">
-        <v>0.01612555504048098</v>
+        <v>0.2167296578372868</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -997,22 +994,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>7448476308</v>
+        <v>2136946052</v>
       </c>
       <c r="C10">
-        <v>380476621</v>
+        <v>167262069</v>
       </c>
       <c r="D10">
-        <v>153798529974.72</v>
+        <v>20931932195.46</v>
       </c>
       <c r="E10">
-        <v>0.04843008778578256</v>
+        <v>0.102090243368144</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1020,22 +1017,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>1958133722</v>
+        <v>898505967</v>
       </c>
       <c r="C11">
-        <v>319451307</v>
+        <v>165954065</v>
       </c>
       <c r="D11">
-        <v>60738921657.89999</v>
+        <v>16349035537.52</v>
       </c>
       <c r="E11">
-        <v>0.03223853286412957</v>
+        <v>0.05495773527055989</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1043,22 +1040,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1271920960</v>
+        <v>2005617683</v>
       </c>
       <c r="C12">
-        <v>303673522</v>
+        <v>148520344</v>
       </c>
       <c r="D12">
-        <v>110827876724.1</v>
+        <v>103043215355.36</v>
       </c>
       <c r="E12">
-        <v>0.01147654360613962</v>
+        <v>0.01946384995929452</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1066,22 +1063,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1375886167</v>
+        <v>874744841</v>
       </c>
       <c r="C13">
-        <v>289742770</v>
+        <v>146581853</v>
       </c>
       <c r="D13">
-        <v>34925757258.96</v>
+        <v>128521356703.04</v>
       </c>
       <c r="E13">
-        <v>0.0393945979982159</v>
+        <v>0.006806221654049106</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1089,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>3839501153</v>
+        <v>5216019590</v>
       </c>
       <c r="C14">
-        <v>257023146</v>
+        <v>141365229</v>
       </c>
       <c r="D14">
-        <v>114915254938.4</v>
+        <v>81840878435.75</v>
       </c>
       <c r="E14">
-        <v>0.03341158800072414</v>
+        <v>0.06373367062640815</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1112,22 +1109,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1849512718</v>
+        <v>1528111451</v>
       </c>
       <c r="C15">
-        <v>254149752</v>
+        <v>131121211</v>
       </c>
       <c r="D15">
-        <v>31659018046.8</v>
+        <v>95055706906.58</v>
       </c>
       <c r="E15">
-        <v>0.05841977522063238</v>
+        <v>0.01607595693861722</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1135,22 +1132,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>2215798422</v>
+        <v>1463877562</v>
       </c>
       <c r="C16">
-        <v>253927071</v>
+        <v>123856702</v>
       </c>
       <c r="D16">
-        <v>36021927475.8</v>
+        <v>28816312466.4</v>
       </c>
       <c r="E16">
-        <v>0.06151248912176068</v>
+        <v>0.05080030846094171</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1158,22 +1155,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1112504683</v>
+        <v>2063077982</v>
       </c>
       <c r="C17">
-        <v>226778431</v>
+        <v>113695808</v>
       </c>
       <c r="D17">
-        <v>5843969849.08</v>
+        <v>142154230703.26</v>
       </c>
       <c r="E17">
-        <v>0.190367971042003</v>
+        <v>0.0145129552022027</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1181,22 +1178,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>1404681874</v>
+        <v>449646045</v>
       </c>
       <c r="C18">
-        <v>221479655</v>
+        <v>111435199</v>
       </c>
       <c r="D18">
-        <v>153530824084.82</v>
+        <v>30116066111.01</v>
       </c>
       <c r="E18">
-        <v>0.009149184747578545</v>
+        <v>0.01493043757250938</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1204,22 +1201,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>3965821375</v>
+        <v>423868764</v>
       </c>
       <c r="C19">
-        <v>219832925</v>
+        <v>108653449</v>
       </c>
       <c r="D19">
-        <v>269408357010</v>
+        <v>86985526832.09999</v>
       </c>
       <c r="E19">
-        <v>0.01472048387442115</v>
+        <v>0.004872865399989519</v>
       </c>
       <c r="F19" t="s">
         <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1227,22 +1224,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1398435977</v>
+        <v>417516230</v>
       </c>
       <c r="C20">
-        <v>219669457</v>
+        <v>103526223</v>
       </c>
       <c r="D20">
-        <v>56017746958.05</v>
+        <v>16285906639.24</v>
       </c>
       <c r="E20">
-        <v>0.02496415962689907</v>
+        <v>0.02563665869200168</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1250,22 +1247,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>2615151080</v>
+        <v>1006159569</v>
       </c>
       <c r="C21">
-        <v>214544531</v>
+        <v>100907248</v>
       </c>
       <c r="D21">
-        <v>84494343853.15001</v>
+        <v>19031014218.88</v>
       </c>
       <c r="E21">
-        <v>0.03095060522092575</v>
+        <v>0.05286946651544322</v>
       </c>
       <c r="F21" t="s">
         <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1273,22 +1270,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1343957136</v>
+        <v>868943792</v>
       </c>
       <c r="C22">
-        <v>184046864</v>
+        <v>100428417</v>
       </c>
       <c r="D22">
-        <v>65600928867.1</v>
+        <v>13723494831.02</v>
       </c>
       <c r="E22">
-        <v>0.02048686137848298</v>
+        <v>0.06331796693914124</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1296,22 +1293,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>891029920</v>
+        <v>631895908</v>
       </c>
       <c r="C23">
-        <v>176335244</v>
+        <v>97352891</v>
       </c>
       <c r="D23">
-        <v>19108854576.7</v>
+        <v>14889749543.5</v>
       </c>
       <c r="E23">
-        <v>0.04662916431874779</v>
+        <v>0.04243831678658753</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1319,22 +1316,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>518610093</v>
+        <v>763837997</v>
       </c>
       <c r="C24">
-        <v>148280132</v>
+        <v>96118716</v>
       </c>
       <c r="D24">
-        <v>37459259607.22</v>
+        <v>34012053171.9</v>
       </c>
       <c r="E24">
-        <v>0.01384464344564999</v>
+        <v>0.02245786201554765</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1342,22 +1339,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1316274242</v>
+        <v>1011114813</v>
       </c>
       <c r="C25">
-        <v>145841523</v>
+        <v>95969346</v>
       </c>
       <c r="D25">
-        <v>68940086392.8</v>
+        <v>7220711804.039999</v>
       </c>
       <c r="E25">
-        <v>0.0190930170075544</v>
+        <v>0.140029797676495</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1365,22 +1362,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1561666453</v>
+        <v>756750067</v>
       </c>
       <c r="C26">
-        <v>144139457</v>
+        <v>93879072</v>
       </c>
       <c r="D26">
-        <v>33086142605.15</v>
+        <v>35026476835.34</v>
       </c>
       <c r="E26">
-        <v>0.0472000157781137</v>
+        <v>0.02160508664795188</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1388,22 +1385,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>2168655675</v>
+        <v>6973083823</v>
       </c>
       <c r="C27">
-        <v>138154189</v>
+        <v>93470766</v>
       </c>
       <c r="D27">
-        <v>29134085923.23</v>
+        <v>739357609614.36</v>
       </c>
       <c r="E27">
-        <v>0.07443705907624948</v>
+        <v>0.00943127348974886</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1411,22 +1408,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>1874147935</v>
+        <v>268828443</v>
       </c>
       <c r="C28">
-        <v>136814648</v>
+        <v>85677009</v>
       </c>
       <c r="D28">
-        <v>37381735059.13</v>
+        <v>32569253587.56</v>
       </c>
       <c r="E28">
-        <v>0.0501353918440515</v>
+        <v>0.008254056000309458</v>
       </c>
       <c r="F28" t="s">
         <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1434,22 +1431,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>1569865288</v>
+        <v>986521379</v>
       </c>
       <c r="C29">
-        <v>134404083</v>
+        <v>84545692</v>
       </c>
       <c r="D29">
-        <v>8141516770.23</v>
+        <v>35025366472.9</v>
       </c>
       <c r="E29">
-        <v>0.1928222138828378</v>
+        <v>0.02816591169041147</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1457,22 +1454,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>10124738589</v>
+        <v>604621104</v>
       </c>
       <c r="C30">
-        <v>129348799</v>
+        <v>82889999</v>
       </c>
       <c r="D30">
-        <v>764427270920.2001</v>
+        <v>4419173870.32</v>
       </c>
       <c r="E30">
-        <v>0.01324486837944972</v>
+        <v>0.1368176771818707</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1480,22 +1477,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>5191500870</v>
+        <v>979702150</v>
       </c>
       <c r="C31">
-        <v>129121695</v>
+        <v>82178310</v>
       </c>
       <c r="D31">
-        <v>86814036174.25</v>
+        <v>8058265065.059999</v>
       </c>
       <c r="E31">
-        <v>0.05980024773390108</v>
+        <v>0.1215773050514199</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1503,22 +1500,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>1207961930</v>
+        <v>440474345</v>
       </c>
       <c r="C32">
-        <v>128768020</v>
+        <v>81998512</v>
       </c>
       <c r="D32">
-        <v>17981718590.4</v>
+        <v>16413726351</v>
       </c>
       <c r="E32">
-        <v>0.06717722357444195</v>
+        <v>0.02683573099615885</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1526,22 +1523,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1347039810</v>
+        <v>1057658207</v>
       </c>
       <c r="C33">
-        <v>123006807</v>
+        <v>80801321</v>
       </c>
       <c r="D33">
-        <v>27121750352.73</v>
+        <v>6996471751.679999</v>
       </c>
       <c r="E33">
-        <v>0.04966640399241087</v>
+        <v>0.1511702247273469</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1549,22 +1546,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>1060072265</v>
+        <v>754866322</v>
       </c>
       <c r="C34">
-        <v>118218567</v>
+        <v>80480851</v>
       </c>
       <c r="D34">
-        <v>38265670130.84</v>
+        <v>120429187588.76</v>
       </c>
       <c r="E34">
-        <v>0.0277029583272773</v>
+        <v>0.006268134304598214</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1572,22 +1569,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>935597571</v>
+        <v>955836399</v>
       </c>
       <c r="C35">
-        <v>118034001</v>
+        <v>80122609</v>
       </c>
       <c r="D35">
-        <v>24717211116</v>
+        <v>10512584534.34</v>
       </c>
       <c r="E35">
-        <v>0.03785206860956764</v>
+        <v>0.09092306424530543</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1595,22 +1592,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1650252020</v>
+        <v>700304025</v>
       </c>
       <c r="C36">
-        <v>117430129</v>
+        <v>80001523</v>
       </c>
       <c r="D36">
-        <v>12681139748.13</v>
+        <v>5054741029.299999</v>
       </c>
       <c r="E36">
-        <v>0.1301343611676034</v>
+        <v>0.1385439968023408</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1618,22 +1615,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1513356223</v>
+        <v>497513783</v>
       </c>
       <c r="C37">
-        <v>114576266</v>
+        <v>77270874</v>
       </c>
       <c r="D37">
-        <v>203010710255.01</v>
+        <v>4835577560</v>
       </c>
       <c r="E37">
-        <v>0.007454563461696241</v>
+        <v>0.1028861137737598</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1641,22 +1638,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>866688855</v>
+        <v>1184078478</v>
       </c>
       <c r="C38">
-        <v>114333396</v>
+        <v>75618091</v>
       </c>
       <c r="D38">
-        <v>86539296913.03999</v>
+        <v>26786796134.08</v>
       </c>
       <c r="E38">
-        <v>0.01001497453660737</v>
+        <v>0.04420381116402099</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1664,22 +1661,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1005611794</v>
+        <v>546744422</v>
       </c>
       <c r="C39">
-        <v>113703643</v>
+        <v>75339858</v>
       </c>
       <c r="D39">
-        <v>13975591176.94</v>
+        <v>64443789009.2</v>
       </c>
       <c r="E39">
-        <v>0.07195486625705531</v>
+        <v>0.008484051456408728</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1687,22 +1684,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>986347349</v>
+        <v>420989962</v>
       </c>
       <c r="C40">
-        <v>111066282</v>
+        <v>74899765</v>
       </c>
       <c r="D40">
-        <v>55412174936.2</v>
+        <v>7234529775</v>
       </c>
       <c r="E40">
-        <v>0.01780019192777855</v>
+        <v>0.05819175193041486</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1710,22 +1707,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>563838252</v>
+        <v>297002148</v>
       </c>
       <c r="C41">
-        <v>106090345</v>
+        <v>72813967</v>
       </c>
       <c r="D41">
-        <v>6790304262.5</v>
+        <v>106897832181.12</v>
       </c>
       <c r="E41">
-        <v>0.08303578605657511</v>
+        <v>0.00277837391030326</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1733,22 +1730,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>3422658086</v>
+        <v>436956269</v>
       </c>
       <c r="C42">
-        <v>105652370</v>
+        <v>71792403</v>
       </c>
       <c r="D42">
-        <v>173581404178.05</v>
+        <v>6312043435.599999</v>
       </c>
       <c r="E42">
-        <v>0.01971788454072667</v>
+        <v>0.06922580198601953</v>
       </c>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1756,22 +1753,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>7590581120</v>
+        <v>341214888</v>
       </c>
       <c r="C43">
-        <v>105607994</v>
+        <v>71585184</v>
       </c>
       <c r="D43">
-        <v>65236723329.62</v>
+        <v>9443503098.560001</v>
       </c>
       <c r="E43">
-        <v>0.1163544202189196</v>
+        <v>0.03613223656929073</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1779,22 +1776,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>3398210521</v>
+        <v>749898851</v>
       </c>
       <c r="C44">
-        <v>105296977</v>
+        <v>69521475</v>
       </c>
       <c r="D44">
-        <v>180059224865</v>
+        <v>12055176747.08</v>
       </c>
       <c r="E44">
-        <v>0.01887273769809806</v>
+        <v>0.06220554594370756</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1802,22 +1799,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>413828279</v>
+        <v>963837249</v>
       </c>
       <c r="C45">
-        <v>104559388</v>
+        <v>69101857</v>
       </c>
       <c r="D45">
-        <v>13829299752.75</v>
+        <v>54770690506</v>
       </c>
       <c r="E45">
-        <v>0.02992402264747417</v>
+        <v>0.01759768299606181</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1825,22 +1822,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>668302683</v>
+        <v>1215386526</v>
       </c>
       <c r="C46">
-        <v>103740646</v>
+        <v>68680218</v>
       </c>
       <c r="D46">
-        <v>19280532459.5</v>
+        <v>8737565037.99</v>
       </c>
       <c r="E46">
-        <v>0.03466204496187088</v>
+        <v>0.1390989961980974</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1848,22 +1845,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>382329051</v>
+        <v>1014207403</v>
       </c>
       <c r="C47">
-        <v>103081951</v>
+        <v>68307613</v>
       </c>
       <c r="D47">
-        <v>37794040253.1</v>
+        <v>27567737217.68</v>
       </c>
       <c r="E47">
-        <v>0.01011612011945825</v>
+        <v>0.03678964998075936</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1871,22 +1868,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>846206762</v>
+        <v>256993025</v>
       </c>
       <c r="C48">
-        <v>100573624</v>
+        <v>67440061</v>
       </c>
       <c r="D48">
-        <v>44934575677.2</v>
+        <v>4537790615.04</v>
       </c>
       <c r="E48">
-        <v>0.01883197402550235</v>
+        <v>0.05663395401017961</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1894,22 +1891,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>930883985</v>
+        <v>559379407</v>
       </c>
       <c r="C49">
-        <v>100157989</v>
+        <v>67134989</v>
       </c>
       <c r="D49">
-        <v>53416266817.9</v>
+        <v>35442247116.55</v>
       </c>
       <c r="E49">
-        <v>0.01742697572208579</v>
+        <v>0.01578284258220168</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1917,22 +1914,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>378876458</v>
+        <v>756574672</v>
       </c>
       <c r="C50">
-        <v>99102633</v>
+        <v>66514764</v>
       </c>
       <c r="D50">
-        <v>5721753620.599999</v>
+        <v>7376595042.53</v>
       </c>
       <c r="E50">
-        <v>0.06621684244423477</v>
+        <v>0.1025642139276921</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1940,22 +1937,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>2018055229</v>
+        <v>547711598</v>
       </c>
       <c r="C51">
-        <v>98974882</v>
+        <v>66087509</v>
       </c>
       <c r="D51">
-        <v>61548621621.2</v>
+        <v>8964814171.900002</v>
       </c>
       <c r="E51">
-        <v>0.03278798413098653</v>
+        <v>0.06109570008899784</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/volume_top50.xlsx
+++ b/website/everyday-update/data/volume_top50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="137">
   <si>
     <t>amt</t>
   </si>
@@ -28,400 +28,403 @@
     <t>turnover</t>
   </si>
   <si>
+    <t>sec_name</t>
+  </si>
+  <si>
     <t>industry</t>
   </si>
   <si>
-    <t>sec_name</t>
+    <t>601318.SH</t>
   </si>
   <si>
     <t>000725.SZ</t>
   </si>
   <si>
-    <t>600050.SH</t>
+    <t>600516.SH</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
   </si>
   <si>
     <t>601933.SH</t>
   </si>
   <si>
+    <t>600460.SH</t>
+  </si>
+  <si>
+    <t>600519.SH</t>
+  </si>
+  <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>002230.SZ</t>
+  </si>
+  <si>
+    <t>300077.SZ</t>
+  </si>
+  <si>
+    <t>000503.SZ</t>
+  </si>
+  <si>
+    <t>002049.SZ</t>
+  </si>
+  <si>
+    <t>601766.SH</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>002460.SZ</t>
+  </si>
+  <si>
+    <t>600171.SH</t>
+  </si>
+  <si>
+    <t>600036.SH</t>
+  </si>
+  <si>
     <t>600048.SH</t>
   </si>
   <si>
     <t>601899.SH</t>
   </si>
   <si>
-    <t>601288.SH</t>
-  </si>
-  <si>
-    <t>600460.SH</t>
+    <t>002001.SZ</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
+  </si>
+  <si>
+    <t>600887.SH</t>
+  </si>
+  <si>
+    <t>600438.SH</t>
+  </si>
+  <si>
+    <t>300038.SZ</t>
+  </si>
+  <si>
+    <t>600256.SH</t>
+  </si>
+  <si>
+    <t>000002.SZ</t>
+  </si>
+  <si>
+    <t>603799.SH</t>
+  </si>
+  <si>
+    <t>600111.SH</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>000001.SZ</t>
+  </si>
+  <si>
+    <t>600352.SH</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>601699.SH</t>
+  </si>
+  <si>
+    <t>002236.SZ</t>
   </si>
   <si>
     <t>600667.SH</t>
   </si>
   <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
-    <t>600256.SH</t>
-  </si>
-  <si>
-    <t>000001.SZ</t>
-  </si>
-  <si>
-    <t>601398.SH</t>
-  </si>
-  <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>601766.SH</t>
-  </si>
-  <si>
-    <t>600352.SH</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>000100.SZ</t>
-  </si>
-  <si>
-    <t>601988.SH</t>
-  </si>
-  <si>
-    <t>000425.SZ</t>
-  </si>
-  <si>
-    <t>002797.SZ</t>
-  </si>
-  <si>
-    <t>002185.SZ</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>600115.SH</t>
-  </si>
-  <si>
-    <t>300102.SZ</t>
-  </si>
-  <si>
-    <t>000338.SZ</t>
-  </si>
-  <si>
-    <t>601318.SH</t>
-  </si>
-  <si>
-    <t>600221.SH</t>
-  </si>
-  <si>
-    <t>600029.SH</t>
-  </si>
-  <si>
-    <t>000670.SZ</t>
-  </si>
-  <si>
-    <t>600330.SH</t>
-  </si>
-  <si>
-    <t>601333.SH</t>
+    <t>000568.SZ</t>
+  </si>
+  <si>
+    <t>600703.SH</t>
+  </si>
+  <si>
+    <t>000786.SZ</t>
+  </si>
+  <si>
+    <t>002008.SZ</t>
+  </si>
+  <si>
+    <t>600585.SH</t>
+  </si>
+  <si>
+    <t>600856.SH</t>
+  </si>
+  <si>
+    <t>600487.SH</t>
+  </si>
+  <si>
+    <t>000963.SZ</t>
   </si>
   <si>
     <t>600206.SH</t>
   </si>
   <si>
-    <t>601668.SH</t>
-  </si>
-  <si>
-    <t>002285.SZ</t>
-  </si>
-  <si>
-    <t>600360.SH</t>
-  </si>
-  <si>
-    <t>000155.SZ</t>
-  </si>
-  <si>
-    <t>600176.SH</t>
-  </si>
-  <si>
-    <t>601939.SH</t>
-  </si>
-  <si>
-    <t>601636.SH</t>
-  </si>
-  <si>
-    <t>601818.SH</t>
-  </si>
-  <si>
-    <t>600782.SH</t>
-  </si>
-  <si>
-    <t>600282.SH</t>
-  </si>
-  <si>
-    <t>601699.SH</t>
-  </si>
-  <si>
-    <t>002027.SZ</t>
-  </si>
-  <si>
-    <t>600171.SH</t>
-  </si>
-  <si>
-    <t>600522.SH</t>
-  </si>
-  <si>
-    <t>600691.SH</t>
-  </si>
-  <si>
-    <t>600031.SH</t>
-  </si>
-  <si>
-    <t>000636.SZ</t>
-  </si>
-  <si>
-    <t>000933.SZ</t>
+    <t>600392.SH</t>
+  </si>
+  <si>
+    <t>600807.SH</t>
+  </si>
+  <si>
+    <t>002110.SZ</t>
+  </si>
+  <si>
+    <t>中国平安</t>
+  </si>
+  <si>
+    <t>京东方A</t>
+  </si>
+  <si>
+    <t>方大炭素</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>永辉超市</t>
+  </si>
+  <si>
+    <t>士兰微</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>国民技术</t>
+  </si>
+  <si>
+    <t>海虹控股</t>
+  </si>
+  <si>
+    <t>紫光国芯</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>上海贝岭</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>保利地产</t>
+  </si>
+  <si>
+    <t>紫金矿业</t>
+  </si>
+  <si>
+    <t>新和成</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
+    <t>通威股份</t>
+  </si>
+  <si>
+    <t>梅泰诺</t>
+  </si>
+  <si>
+    <t>广汇能源</t>
+  </si>
+  <si>
+    <t>万科A</t>
+  </si>
+  <si>
+    <t>华友钴业</t>
+  </si>
+  <si>
+    <t>北方稀土</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>浙江龙盛</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>潞安环能</t>
+  </si>
+  <si>
+    <t>大华股份</t>
+  </si>
+  <si>
+    <t>太极实业</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>北新建材</t>
+  </si>
+  <si>
+    <t>大族激光</t>
+  </si>
+  <si>
+    <t>海螺水泥</t>
+  </si>
+  <si>
+    <t>中天能源</t>
+  </si>
+  <si>
+    <t>亨通光电</t>
+  </si>
+  <si>
+    <t>华东医药</t>
+  </si>
+  <si>
+    <t>有研新材</t>
+  </si>
+  <si>
+    <t>盛和资源</t>
+  </si>
+  <si>
+    <t>天业股份</t>
+  </si>
+  <si>
+    <t>三钢闽光</t>
+  </si>
+  <si>
+    <t>非银行金融-保险Ⅱ-保险Ⅲ</t>
   </si>
   <si>
     <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
   </si>
   <si>
-    <t>通信-电信运营Ⅱ-电信运营Ⅲ</t>
+    <t>建材-其他建材-新型建材及非金属新材料</t>
+  </si>
+  <si>
+    <t>通信-通信设备制造-系统设备</t>
+  </si>
+  <si>
+    <t>电力设备-新能源设备-光伏</t>
+  </si>
+  <si>
+    <t>食品饮料-白酒Ⅱ-白酒Ⅲ</t>
   </si>
   <si>
     <t>商贸零售-零售-超市</t>
   </si>
   <si>
+    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
+  </si>
+  <si>
+    <t>计算机-计算机软件-行业应用软件</t>
+  </si>
+  <si>
+    <t>医药-其他医药医疗-医疗服务</t>
+  </si>
+  <si>
+    <t>机械-运输设备-铁路交通设备</t>
+  </si>
+  <si>
+    <t>家电-白色家电Ⅱ-白色家电Ⅲ</t>
+  </si>
+  <si>
+    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
+  </si>
+  <si>
+    <t>银行-股份制与城商行-股份制银行</t>
+  </si>
+  <si>
     <t>房地产-房地产开发管理-住宅地产</t>
   </si>
   <si>
     <t>有色金属-贵金属-黄金</t>
   </si>
   <si>
-    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
-  </si>
-  <si>
-    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
-  </si>
-  <si>
-    <t>电力设备-新能源设备-光伏</t>
+    <t>医药-化学制药-化学原料药</t>
+  </si>
+  <si>
+    <t>食品饮料-食品-乳制品</t>
+  </si>
+  <si>
+    <t>农林牧渔-牧业-饲料</t>
+  </si>
+  <si>
+    <t>通信-通信设备制造-网络接配及塔设</t>
   </si>
   <si>
     <t>石油石化-石油开采Ⅱ-石油开采Ⅲ</t>
   </si>
   <si>
-    <t>银行-股份制与城商行-股份制银行</t>
-  </si>
-  <si>
-    <t>通信-通信设备制造-系统设备</t>
-  </si>
-  <si>
-    <t>机械-运输设备-铁路交通设备</t>
+    <t>有色金属-工业金属-镍钴</t>
+  </si>
+  <si>
+    <t>医药-化学制药-化学制剂</t>
   </si>
   <si>
     <t>基础化工-化学制品-印染化学品</t>
   </si>
   <si>
+    <t>电子元器件-电子设备Ⅱ-电子设备Ⅲ</t>
+  </si>
+  <si>
     <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
   </si>
   <si>
-    <t>家电-黑色家电Ⅱ-黑色家电Ⅲ</t>
-  </si>
-  <si>
-    <t>机械-工程机械Ⅱ-工程机械Ⅲ</t>
-  </si>
-  <si>
-    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
-  </si>
-  <si>
-    <t>交通运输-航空机场-航空</t>
-  </si>
-  <si>
-    <t>汽车-汽车零部件Ⅱ-汽车零部件Ⅲ</t>
-  </si>
-  <si>
-    <t>非银行金融-保险Ⅱ-保险Ⅲ</t>
-  </si>
-  <si>
-    <t>交通运输-公路铁路-铁路</t>
-  </si>
-  <si>
-    <t>建筑-建筑施工Ⅱ-建筑施工Ⅲ</t>
-  </si>
-  <si>
-    <t>房地产-房地产服务Ⅱ-房地产服务Ⅲ</t>
-  </si>
-  <si>
-    <t>基础化工-农用化工-氮肥</t>
-  </si>
-  <si>
-    <t>建材-玻璃Ⅱ-玻璃Ⅲ</t>
-  </si>
-  <si>
-    <t>钢铁-普钢-板材</t>
-  </si>
-  <si>
     <t>煤炭-煤炭开采洗选-炼焦煤</t>
   </si>
   <si>
-    <t>传媒-传媒Ⅱ-整合营销</t>
+    <t>建材-水泥Ⅱ-水泥Ⅲ</t>
+  </si>
+  <si>
+    <t>电力及公用事业-环保及公用事业-燃气</t>
   </si>
   <si>
     <t>通信-通信设备制造-线缆</t>
   </si>
   <si>
-    <t>综合-综合Ⅱ-综合Ⅲ</t>
-  </si>
-  <si>
-    <t>京东方A</t>
-  </si>
-  <si>
-    <t>中国联通</t>
-  </si>
-  <si>
-    <t>永辉超市</t>
-  </si>
-  <si>
-    <t>保利地产</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>士兰微</t>
-  </si>
-  <si>
-    <t>太极实业</t>
-  </si>
-  <si>
-    <t>中环股份</t>
-  </si>
-  <si>
-    <t>广汇能源</t>
-  </si>
-  <si>
-    <t>平安银行</t>
-  </si>
-  <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>中国中车</t>
-  </si>
-  <si>
-    <t>浙江龙盛</t>
-  </si>
-  <si>
-    <t>中信证券</t>
-  </si>
-  <si>
-    <t>TCL集团</t>
-  </si>
-  <si>
-    <t>中国银行</t>
-  </si>
-  <si>
-    <t>徐工机械</t>
-  </si>
-  <si>
-    <t>第一创业</t>
-  </si>
-  <si>
-    <t>华天科技</t>
-  </si>
-  <si>
-    <t>洛阳钼业</t>
-  </si>
-  <si>
-    <t>东方航空</t>
-  </si>
-  <si>
-    <t>乾照光电</t>
-  </si>
-  <si>
-    <t>潍柴动力</t>
-  </si>
-  <si>
-    <t>中国平安</t>
-  </si>
-  <si>
-    <t>海航控股</t>
-  </si>
-  <si>
-    <t>南方航空</t>
-  </si>
-  <si>
-    <t>盈方微</t>
-  </si>
-  <si>
-    <t>天通股份</t>
-  </si>
-  <si>
-    <t>广深铁路</t>
-  </si>
-  <si>
-    <t>有研新材</t>
-  </si>
-  <si>
-    <t>中国建筑</t>
-  </si>
-  <si>
-    <t>世联行</t>
-  </si>
-  <si>
-    <t>华微电子</t>
-  </si>
-  <si>
-    <t>川化股份</t>
-  </si>
-  <si>
-    <t>中国巨石</t>
-  </si>
-  <si>
-    <t>建设银行</t>
-  </si>
-  <si>
-    <t>旗滨集团</t>
-  </si>
-  <si>
-    <t>光大银行</t>
-  </si>
-  <si>
-    <t>新钢股份</t>
-  </si>
-  <si>
-    <t>南钢股份</t>
-  </si>
-  <si>
-    <t>潞安环能</t>
-  </si>
-  <si>
-    <t>分众传媒</t>
-  </si>
-  <si>
-    <t>上海贝岭</t>
-  </si>
-  <si>
-    <t>中天科技</t>
-  </si>
-  <si>
-    <t>阳煤化工</t>
-  </si>
-  <si>
-    <t>三一重工</t>
-  </si>
-  <si>
-    <t>风华高科</t>
-  </si>
-  <si>
-    <t>神火股份</t>
+    <t>钢铁-普钢-长材</t>
   </si>
 </sst>
 </file>
@@ -810,22 +813,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>7757157253</v>
+        <v>5340481047</v>
       </c>
       <c r="C2">
-        <v>1336850905</v>
+        <v>71952658</v>
       </c>
       <c r="D2">
-        <v>135009171197.64</v>
+        <v>730573358211.9199</v>
       </c>
       <c r="E2">
-        <v>0.05745652079920032</v>
+        <v>0.007309986036269979</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -833,22 +836,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1460706062</v>
+        <v>4866347335</v>
       </c>
       <c r="C3">
-        <v>220312977</v>
+        <v>821304777</v>
       </c>
       <c r="D3">
-        <v>52760289853.12</v>
+        <v>135237613111.68</v>
       </c>
       <c r="E3">
-        <v>0.02768570957563874</v>
+        <v>0.03598368252019756</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -856,22 +859,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2303215406</v>
+        <v>3907365548</v>
       </c>
       <c r="C4">
-        <v>214749507</v>
+        <v>145685839</v>
       </c>
       <c r="D4">
-        <v>38223346975.2</v>
+        <v>26607119231.12</v>
       </c>
       <c r="E4">
-        <v>0.06025676944236118</v>
+        <v>0.1468541375734469</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -879,22 +882,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2501603297</v>
+        <v>3814448883</v>
       </c>
       <c r="C5">
-        <v>196797513</v>
+        <v>100714058</v>
       </c>
       <c r="D5">
-        <v>91366083021.28999</v>
+        <v>82316571784.64999</v>
       </c>
       <c r="E5">
-        <v>0.02737999938573573</v>
+        <v>0.04633877237962551</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -902,22 +905,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>763961786</v>
+        <v>3582050882</v>
       </c>
       <c r="C6">
-        <v>189735197</v>
+        <v>302398674</v>
       </c>
       <c r="D6">
-        <v>41036424403.5</v>
+        <v>18833859737.64</v>
       </c>
       <c r="E6">
-        <v>0.01861667523681331</v>
+        <v>0.190192075968431</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -925,22 +928,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>670453091</v>
+        <v>2841150644</v>
       </c>
       <c r="C7">
-        <v>181089656</v>
+        <v>35180174</v>
       </c>
       <c r="D7">
-        <v>131102065534.5</v>
+        <v>134357444541.9</v>
       </c>
       <c r="E7">
-        <v>0.005113978092309826</v>
+        <v>0.02114620930523856</v>
       </c>
       <c r="F7" t="s">
         <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -948,22 +951,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>2709153358</v>
+        <v>2172894205</v>
       </c>
       <c r="C8">
-        <v>177685772</v>
+        <v>206350058</v>
       </c>
       <c r="D8">
-        <v>10674895816.38</v>
+        <v>37515507216.4</v>
       </c>
       <c r="E8">
-        <v>0.2537873347525288</v>
+        <v>0.05791989409782293</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -971,22 +974,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1617197046</v>
+        <v>2066027423</v>
       </c>
       <c r="C9">
-        <v>174869013</v>
+        <v>134032379</v>
       </c>
       <c r="D9">
-        <v>7461817003.440001</v>
+        <v>10723481167.95</v>
       </c>
       <c r="E9">
-        <v>0.2167296578372868</v>
+        <v>0.1926638738523528</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -994,22 +997,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>2136946052</v>
+        <v>1930315469</v>
       </c>
       <c r="C10">
-        <v>167262069</v>
+        <v>2831701</v>
       </c>
       <c r="D10">
-        <v>20931932195.46</v>
+        <v>307050226930.4399</v>
       </c>
       <c r="E10">
-        <v>0.102090243368144</v>
+        <v>0.006286644007064354</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1017,22 +1020,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>898505967</v>
+        <v>1915855102</v>
       </c>
       <c r="C11">
-        <v>165954065</v>
+        <v>49574336</v>
       </c>
       <c r="D11">
-        <v>16349035537.52</v>
+        <v>52450214914.36001</v>
       </c>
       <c r="E11">
-        <v>0.05495773527055989</v>
+        <v>0.03652711633552278</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1040,22 +1043,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>2005617683</v>
+        <v>1671151568</v>
       </c>
       <c r="C12">
-        <v>148520344</v>
+        <v>26905448</v>
       </c>
       <c r="D12">
-        <v>103043215355.36</v>
+        <v>56929773868.8</v>
       </c>
       <c r="E12">
-        <v>0.01946384995929452</v>
+        <v>0.0293546145440754</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1063,22 +1066,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>874744841</v>
+        <v>1530544262</v>
       </c>
       <c r="C13">
-        <v>146581853</v>
+        <v>132130666</v>
       </c>
       <c r="D13">
-        <v>128521356703.04</v>
+        <v>6215571207</v>
       </c>
       <c r="E13">
-        <v>0.006806221654049106</v>
+        <v>0.2462435407829123</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1086,22 +1089,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>5216019590</v>
+        <v>1516756840</v>
       </c>
       <c r="C14">
-        <v>141365229</v>
+        <v>34359869</v>
       </c>
       <c r="D14">
-        <v>81840878435.75</v>
+        <v>29895211404.68999</v>
       </c>
       <c r="E14">
-        <v>0.06373367062640815</v>
+        <v>0.05073577903389737</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1109,22 +1112,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1528111451</v>
+        <v>1503206828</v>
       </c>
       <c r="C15">
-        <v>131121211</v>
+        <v>30626141</v>
       </c>
       <c r="D15">
-        <v>95055706906.58</v>
+        <v>17219989115.46</v>
       </c>
       <c r="E15">
-        <v>0.01607595693861722</v>
+        <v>0.08729429606029369</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1132,22 +1135,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1463877562</v>
+        <v>1472444647</v>
       </c>
       <c r="C16">
-        <v>123856702</v>
+        <v>125550992</v>
       </c>
       <c r="D16">
-        <v>28816312466.4</v>
+        <v>95299647985.04001</v>
       </c>
       <c r="E16">
-        <v>0.05080030846094171</v>
+        <v>0.01545068295772868</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1155,22 +1158,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>2063077982</v>
+        <v>1448117098</v>
       </c>
       <c r="C17">
-        <v>113695808</v>
+        <v>32206075</v>
       </c>
       <c r="D17">
-        <v>142154230703.26</v>
+        <v>195523305971.54</v>
       </c>
       <c r="E17">
-        <v>0.0145129552022027</v>
+        <v>0.007406365654490238</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1178,22 +1181,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>449646045</v>
+        <v>1333838009</v>
       </c>
       <c r="C18">
-        <v>111435199</v>
+        <v>18642404</v>
       </c>
       <c r="D18">
-        <v>30116066111.01</v>
+        <v>32322174884.4</v>
       </c>
       <c r="E18">
-        <v>0.01493043757250938</v>
+        <v>0.04126696343208527</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1201,22 +1204,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>423868764</v>
+        <v>1311787070</v>
       </c>
       <c r="C19">
-        <v>108653449</v>
+        <v>77088367</v>
       </c>
       <c r="D19">
-        <v>86985526832.09999</v>
+        <v>8276649809.099999</v>
       </c>
       <c r="E19">
-        <v>0.004872865399989519</v>
+        <v>0.158492518139129</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1224,22 +1227,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>417516230</v>
+        <v>1301573567</v>
       </c>
       <c r="C20">
-        <v>103526223</v>
+        <v>44313847</v>
       </c>
       <c r="D20">
-        <v>16285906639.24</v>
+        <v>343230818059.28</v>
       </c>
       <c r="E20">
-        <v>0.02563665869200168</v>
+        <v>0.003792123255013781</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1247,22 +1250,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1006159569</v>
+        <v>1290868163</v>
       </c>
       <c r="C21">
-        <v>100907248</v>
+        <v>99055895</v>
       </c>
       <c r="D21">
-        <v>19031014218.88</v>
+        <v>91716681958.44</v>
       </c>
       <c r="E21">
-        <v>0.05286946651544322</v>
+        <v>0.01407451878367053</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1270,22 +1273,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>868943792</v>
+        <v>1256979437</v>
       </c>
       <c r="C22">
-        <v>100428417</v>
+        <v>302081104</v>
       </c>
       <c r="D22">
-        <v>13723494831.02</v>
+        <v>42150993955.2</v>
       </c>
       <c r="E22">
-        <v>0.06331796693914124</v>
+        <v>0.02982087298667204</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1293,22 +1296,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>631895908</v>
+        <v>1231580993</v>
       </c>
       <c r="C23">
-        <v>97352891</v>
+        <v>31668653</v>
       </c>
       <c r="D23">
-        <v>14889749543.5</v>
+        <v>18057495376.08</v>
       </c>
       <c r="E23">
-        <v>0.04243831678658753</v>
+        <v>0.06820331210669577</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1316,22 +1319,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>763837997</v>
+        <v>1200106860</v>
       </c>
       <c r="C24">
-        <v>96118716</v>
+        <v>21377621</v>
       </c>
       <c r="D24">
-        <v>34012053171.9</v>
+        <v>231746821192.5</v>
       </c>
       <c r="E24">
-        <v>0.02245786201554765</v>
+        <v>0.005178525659271649</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1339,22 +1342,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1011114813</v>
+        <v>1188645872</v>
       </c>
       <c r="C25">
-        <v>95969346</v>
+        <v>35851250</v>
       </c>
       <c r="D25">
-        <v>7220711804.039999</v>
+        <v>180155222614.84</v>
       </c>
       <c r="E25">
-        <v>0.140029797676495</v>
+        <v>0.006597898494129402</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1362,22 +1365,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>756750067</v>
+        <v>1148117378</v>
       </c>
       <c r="C26">
-        <v>93879072</v>
+        <v>88734962</v>
       </c>
       <c r="D26">
-        <v>35026476835.34</v>
+        <v>17711884844.25</v>
       </c>
       <c r="E26">
-        <v>0.02160508664795188</v>
+        <v>0.06482186329100517</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1385,22 +1388,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>6973083823</v>
+        <v>1112299769</v>
       </c>
       <c r="C27">
-        <v>93470766</v>
+        <v>22537256</v>
       </c>
       <c r="D27">
-        <v>739357609614.36</v>
+        <v>6671054879.64</v>
       </c>
       <c r="E27">
-        <v>0.00943127348974886</v>
+        <v>0.1667352149050263</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1408,22 +1411,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>268828443</v>
+        <v>1106972179</v>
       </c>
       <c r="C28">
-        <v>85677009</v>
+        <v>201059909</v>
       </c>
       <c r="D28">
-        <v>32569253587.56</v>
+        <v>16469915652.4</v>
       </c>
       <c r="E28">
-        <v>0.008254056000309458</v>
+        <v>0.06721176977240267</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1431,22 +1434,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>986521379</v>
+        <v>1023085433</v>
       </c>
       <c r="C29">
-        <v>84545692</v>
+        <v>34220642</v>
       </c>
       <c r="D29">
-        <v>35025366472.9</v>
+        <v>165377472683.7</v>
       </c>
       <c r="E29">
-        <v>0.02816591169041147</v>
+        <v>0.006186365146338565</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1454,22 +1457,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>604621104</v>
+        <v>1022976127</v>
       </c>
       <c r="C30">
-        <v>82889999</v>
+        <v>12462056</v>
       </c>
       <c r="D30">
-        <v>4419173870.32</v>
+        <v>26293474601.79</v>
       </c>
       <c r="E30">
-        <v>0.1368176771818707</v>
+        <v>0.03890608382850846</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1477,22 +1480,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>979702150</v>
+        <v>1022794919</v>
       </c>
       <c r="C31">
-        <v>82178310</v>
+        <v>75795814</v>
       </c>
       <c r="D31">
-        <v>8058265065.059999</v>
+        <v>29973036280.32</v>
       </c>
       <c r="E31">
-        <v>0.1215773050514199</v>
+        <v>0.03412383414994753</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1500,22 +1503,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>440474345</v>
+        <v>1018169502</v>
       </c>
       <c r="C32">
-        <v>81998512</v>
+        <v>21736920</v>
       </c>
       <c r="D32">
-        <v>16413726351</v>
+        <v>45450007905.8</v>
       </c>
       <c r="E32">
-        <v>0.02683573099615885</v>
+        <v>0.02240196534421435</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1523,22 +1526,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1057658207</v>
+        <v>1004525768</v>
       </c>
       <c r="C33">
-        <v>80801321</v>
+        <v>74290095</v>
       </c>
       <c r="D33">
-        <v>6996471751.679999</v>
+        <v>102891009719.68</v>
       </c>
       <c r="E33">
-        <v>0.1511702247273469</v>
+        <v>0.00976300816501623</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1546,22 +1549,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>754866322</v>
+        <v>994127766</v>
       </c>
       <c r="C34">
-        <v>80480851</v>
+        <v>82313086</v>
       </c>
       <c r="D34">
-        <v>120429187588.76</v>
+        <v>29007148972.8</v>
       </c>
       <c r="E34">
-        <v>0.006268134304598214</v>
+        <v>0.0342718192309142</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1569,22 +1572,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>955836399</v>
+        <v>975209405</v>
       </c>
       <c r="C35">
-        <v>80122609</v>
+        <v>24428468</v>
       </c>
       <c r="D35">
-        <v>10512584534.34</v>
+        <v>118580007203.28</v>
       </c>
       <c r="E35">
-        <v>0.09092306424530543</v>
+        <v>0.008224062622362744</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1592,22 +1595,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>700304025</v>
+        <v>962968583</v>
       </c>
       <c r="C36">
-        <v>80001523</v>
+        <v>52847665</v>
       </c>
       <c r="D36">
-        <v>5054741029.299999</v>
+        <v>142154230703.26</v>
       </c>
       <c r="E36">
-        <v>0.1385439968023408</v>
+        <v>0.006774111317236486</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1615,22 +1618,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>497513783</v>
+        <v>949674620</v>
       </c>
       <c r="C37">
-        <v>77270874</v>
+        <v>86244668</v>
       </c>
       <c r="D37">
-        <v>4835577560</v>
+        <v>12077276062.84</v>
       </c>
       <c r="E37">
-        <v>0.1028861137737598</v>
+        <v>0.07863317978811538</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1638,22 +1641,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1184078478</v>
+        <v>945368496</v>
       </c>
       <c r="C38">
-        <v>75618091</v>
+        <v>39734989</v>
       </c>
       <c r="D38">
-        <v>26786796134.08</v>
+        <v>34921565260.74</v>
       </c>
       <c r="E38">
-        <v>0.04420381116402099</v>
+        <v>0.02707119480302377</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1661,22 +1664,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>546744422</v>
+        <v>933116871</v>
       </c>
       <c r="C39">
-        <v>75339858</v>
+        <v>101356346</v>
       </c>
       <c r="D39">
-        <v>64443789009.2</v>
+        <v>7397767072.08</v>
       </c>
       <c r="E39">
-        <v>0.008484051456408728</v>
+        <v>0.1261349352998268</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1684,22 +1687,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>420989962</v>
+        <v>914161204</v>
       </c>
       <c r="C40">
-        <v>74899765</v>
+        <v>13722485</v>
       </c>
       <c r="D40">
-        <v>7234529775</v>
+        <v>43289585871.60001</v>
       </c>
       <c r="E40">
-        <v>0.05819175193041486</v>
+        <v>0.02111734694601762</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G40" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1707,22 +1710,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>297002148</v>
+        <v>906211045</v>
       </c>
       <c r="C41">
-        <v>72813967</v>
+        <v>33080752</v>
       </c>
       <c r="D41">
-        <v>106897832181.12</v>
+        <v>56759370938.75</v>
       </c>
       <c r="E41">
-        <v>0.00277837391030326</v>
+        <v>0.01596584017779034</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1730,22 +1733,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>436956269</v>
+        <v>893708357</v>
       </c>
       <c r="C42">
-        <v>71792403</v>
+        <v>39143632</v>
       </c>
       <c r="D42">
-        <v>6312043435.599999</v>
+        <v>17644830989.94</v>
       </c>
       <c r="E42">
-        <v>0.06922580198601953</v>
+        <v>0.05064986780035115</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1753,22 +1756,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>341214888</v>
+        <v>867990742</v>
       </c>
       <c r="C43">
-        <v>71585184</v>
+        <v>16068784</v>
       </c>
       <c r="D43">
-        <v>9443503098.560001</v>
+        <v>43413129900.33</v>
       </c>
       <c r="E43">
-        <v>0.03613223656929073</v>
+        <v>0.01999373793119215</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1776,22 +1779,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>749898851</v>
+        <v>865088181</v>
       </c>
       <c r="C44">
-        <v>69521475</v>
+        <v>29386735</v>
       </c>
       <c r="D44">
-        <v>12055176747.08</v>
+        <v>60799644108.4</v>
       </c>
       <c r="E44">
-        <v>0.06220554594370756</v>
+        <v>0.01422850731589201</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G44" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1799,22 +1802,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>963837249</v>
+        <v>841342376</v>
       </c>
       <c r="C45">
-        <v>69101857</v>
+        <v>72895879</v>
       </c>
       <c r="D45">
-        <v>54770690506</v>
+        <v>8334079376.700002</v>
       </c>
       <c r="E45">
-        <v>0.01759768299606181</v>
+        <v>0.1009520473673652</v>
       </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G45" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1822,22 +1825,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1215386526</v>
+        <v>814371442</v>
       </c>
       <c r="C46">
-        <v>68680218</v>
+        <v>19026886</v>
       </c>
       <c r="D46">
-        <v>8737565037.99</v>
+        <v>36586709505.39</v>
       </c>
       <c r="E46">
-        <v>0.1390989961980974</v>
+        <v>0.02225866859877152</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1845,22 +1848,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1014207403</v>
+        <v>803466137</v>
       </c>
       <c r="C47">
-        <v>68307613</v>
+        <v>15015855</v>
       </c>
       <c r="D47">
-        <v>27567737217.68</v>
+        <v>21666276364.32</v>
       </c>
       <c r="E47">
-        <v>0.03678964998075936</v>
+        <v>0.03708372050137546</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1868,22 +1871,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>256993025</v>
+        <v>797491194</v>
       </c>
       <c r="C48">
-        <v>67440061</v>
+        <v>61240701</v>
       </c>
       <c r="D48">
-        <v>4537790615.04</v>
+        <v>6863154835.679999</v>
       </c>
       <c r="E48">
-        <v>0.05663395401017961</v>
+        <v>0.1161989220837657</v>
       </c>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1891,22 +1894,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>559379407</v>
+        <v>797237318</v>
       </c>
       <c r="C49">
-        <v>67134989</v>
+        <v>49906550</v>
       </c>
       <c r="D49">
-        <v>35442247116.55</v>
+        <v>9305614199.6</v>
       </c>
       <c r="E49">
-        <v>0.01578284258220168</v>
+        <v>0.08567272411038371</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1914,22 +1917,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>756574672</v>
+        <v>778287797</v>
       </c>
       <c r="C50">
-        <v>66514764</v>
+        <v>77924328</v>
       </c>
       <c r="D50">
-        <v>7376595042.53</v>
+        <v>6034543725.21</v>
       </c>
       <c r="E50">
-        <v>0.1025642139276921</v>
+        <v>0.1289721033503516</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1937,22 +1940,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>547711598</v>
+        <v>775223806</v>
       </c>
       <c r="C51">
-        <v>66087509</v>
+        <v>39993080</v>
       </c>
       <c r="D51">
-        <v>8964814171.900002</v>
+        <v>12028475195.34</v>
       </c>
       <c r="E51">
-        <v>0.06109570008899784</v>
+        <v>0.0644490505579903</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/volume_top50.xlsx
+++ b/website/everyday-update/data/volume_top50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="135">
   <si>
     <t>amt</t>
   </si>
@@ -28,403 +28,397 @@
     <t>turnover</t>
   </si>
   <si>
+    <t>industry</t>
+  </si>
+  <si>
     <t>sec_name</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
     <t>601318.SH</t>
   </si>
   <si>
+    <t>601668.SH</t>
+  </si>
+  <si>
+    <t>601166.SH</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
     <t>000725.SZ</t>
   </si>
   <si>
+    <t>600519.SH</t>
+  </si>
+  <si>
+    <t>601398.SH</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>601288.SH</t>
+  </si>
+  <si>
+    <t>601328.SH</t>
+  </si>
+  <si>
+    <t>600048.SH</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>000001.SZ</t>
+  </si>
+  <si>
+    <t>600028.SH</t>
+  </si>
+  <si>
+    <t>600887.SH</t>
+  </si>
+  <si>
+    <t>601988.SH</t>
+  </si>
+  <si>
+    <t>601688.SH</t>
+  </si>
+  <si>
+    <t>600036.SH</t>
+  </si>
+  <si>
     <t>600516.SH</t>
   </si>
   <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>601933.SH</t>
+    <t>000732.SZ</t>
+  </si>
+  <si>
+    <t>601336.SH</t>
+  </si>
+  <si>
+    <t>601766.SH</t>
+  </si>
+  <si>
+    <t>000002.SZ</t>
+  </si>
+  <si>
+    <t>600019.SH</t>
+  </si>
+  <si>
+    <t>600050.SH</t>
+  </si>
+  <si>
+    <t>600606.SH</t>
+  </si>
+  <si>
+    <t>601939.SH</t>
+  </si>
+  <si>
+    <t>601601.SH</t>
+  </si>
+  <si>
+    <t>002146.SZ</t>
+  </si>
+  <si>
+    <t>600690.SH</t>
+  </si>
+  <si>
+    <t>601818.SH</t>
+  </si>
+  <si>
+    <t>600340.SH</t>
+  </si>
+  <si>
+    <t>600352.SH</t>
+  </si>
+  <si>
+    <t>603993.SH</t>
+  </si>
+  <si>
+    <t>600585.SH</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
+    <t>002230.SZ</t>
+  </si>
+  <si>
+    <t>000776.SZ</t>
+  </si>
+  <si>
+    <t>600000.SH</t>
+  </si>
+  <si>
+    <t>000792.SZ</t>
+  </si>
+  <si>
+    <t>600029.SH</t>
+  </si>
+  <si>
+    <t>600016.SH</t>
+  </si>
+  <si>
+    <t>001979.SZ</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
   </si>
   <si>
     <t>600460.SH</t>
   </si>
   <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>601012.SH</t>
-  </si>
-  <si>
-    <t>002230.SZ</t>
-  </si>
-  <si>
-    <t>300077.SZ</t>
-  </si>
-  <si>
-    <t>000503.SZ</t>
-  </si>
-  <si>
-    <t>002049.SZ</t>
-  </si>
-  <si>
-    <t>601766.SH</t>
-  </si>
-  <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>600171.SH</t>
-  </si>
-  <si>
-    <t>600036.SH</t>
-  </si>
-  <si>
-    <t>600048.SH</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
-    <t>002001.SZ</t>
-  </si>
-  <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>600887.SH</t>
-  </si>
-  <si>
-    <t>600438.SH</t>
-  </si>
-  <si>
-    <t>300038.SZ</t>
-  </si>
-  <si>
-    <t>600256.SH</t>
-  </si>
-  <si>
-    <t>000002.SZ</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>600111.SH</t>
-  </si>
-  <si>
-    <t>600196.SH</t>
-  </si>
-  <si>
-    <t>000001.SZ</t>
-  </si>
-  <si>
-    <t>600352.SH</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>601699.SH</t>
-  </si>
-  <si>
-    <t>002236.SZ</t>
-  </si>
-  <si>
-    <t>600667.SH</t>
-  </si>
-  <si>
-    <t>000568.SZ</t>
-  </si>
-  <si>
-    <t>600703.SH</t>
-  </si>
-  <si>
-    <t>000786.SZ</t>
-  </si>
-  <si>
-    <t>002008.SZ</t>
-  </si>
-  <si>
-    <t>600585.SH</t>
-  </si>
-  <si>
-    <t>600856.SH</t>
-  </si>
-  <si>
-    <t>600487.SH</t>
-  </si>
-  <si>
-    <t>000963.SZ</t>
-  </si>
-  <si>
-    <t>600206.SH</t>
-  </si>
-  <si>
-    <t>600392.SH</t>
-  </si>
-  <si>
-    <t>600807.SH</t>
-  </si>
-  <si>
-    <t>002110.SZ</t>
+    <t>000830.SZ</t>
+  </si>
+  <si>
+    <t>601088.SH</t>
+  </si>
+  <si>
+    <t>600031.SH</t>
+  </si>
+  <si>
+    <t>300017.SZ</t>
+  </si>
+  <si>
+    <t>非银行金融-保险Ⅱ-保险Ⅲ</t>
+  </si>
+  <si>
+    <t>建筑-建筑施工Ⅱ-建筑施工Ⅲ</t>
+  </si>
+  <si>
+    <t>银行-股份制与城商行-股份制银行</t>
+  </si>
+  <si>
+    <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
+  </si>
+  <si>
+    <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
+  </si>
+  <si>
+    <t>食品饮料-白酒Ⅱ-白酒Ⅲ</t>
+  </si>
+  <si>
+    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
+  </si>
+  <si>
+    <t>通信-通信设备制造-系统设备</t>
+  </si>
+  <si>
+    <t>房地产-房地产开发管理-住宅地产</t>
+  </si>
+  <si>
+    <t>家电-白色家电Ⅱ-白色家电Ⅲ</t>
+  </si>
+  <si>
+    <t>石油石化-石油化工-炼油</t>
+  </si>
+  <si>
+    <t>食品饮料-食品-乳制品</t>
+  </si>
+  <si>
+    <t>建材-其他建材-新型建材及非金属新材料</t>
+  </si>
+  <si>
+    <t>机械-运输设备-铁路交通设备</t>
+  </si>
+  <si>
+    <t>钢铁-普钢-板材</t>
+  </si>
+  <si>
+    <t>通信-电信运营Ⅱ-电信运营Ⅲ</t>
+  </si>
+  <si>
+    <t>基础化工-化学制品-印染化学品</t>
+  </si>
+  <si>
+    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
+  </si>
+  <si>
+    <t>建材-水泥Ⅱ-水泥Ⅲ</t>
+  </si>
+  <si>
+    <t>电子元器件-电子设备Ⅱ-电子设备Ⅲ</t>
+  </si>
+  <si>
+    <t>计算机-计算机软件-行业应用软件</t>
+  </si>
+  <si>
+    <t>基础化工-农用化工-钾肥</t>
+  </si>
+  <si>
+    <t>交通运输-航空机场-航空</t>
+  </si>
+  <si>
+    <t>房地产-房地产开发管理-园区</t>
+  </si>
+  <si>
+    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
+  </si>
+  <si>
+    <t>基础化工-农用化工-氮肥</t>
+  </si>
+  <si>
+    <t>煤炭-煤炭开采洗选-动力煤</t>
+  </si>
+  <si>
+    <t>机械-工程机械Ⅱ-工程机械Ⅲ</t>
+  </si>
+  <si>
+    <t>通信-增值服务Ⅱ-增值服务Ⅲ</t>
   </si>
   <si>
     <t>中国平安</t>
   </si>
   <si>
+    <t>中国建筑</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
     <t>京东方A</t>
   </si>
   <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>保利地产</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>中国石化</t>
+  </si>
+  <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>华泰证券</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
     <t>方大炭素</t>
   </si>
   <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>中环股份</t>
-  </si>
-  <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>永辉超市</t>
+    <t>泰禾集团</t>
+  </si>
+  <si>
+    <t>新华保险</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>万科A</t>
+  </si>
+  <si>
+    <t>宝钢股份</t>
+  </si>
+  <si>
+    <t>中国联通</t>
+  </si>
+  <si>
+    <t>绿地控股</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>中国太保</t>
+  </si>
+  <si>
+    <t>荣盛发展</t>
+  </si>
+  <si>
+    <t>青岛海尔</t>
+  </si>
+  <si>
+    <t>光大银行</t>
+  </si>
+  <si>
+    <t>华夏幸福</t>
+  </si>
+  <si>
+    <t>浙江龙盛</t>
+  </si>
+  <si>
+    <t>洛阳钼业</t>
+  </si>
+  <si>
+    <t>海螺水泥</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>广发证券</t>
+  </si>
+  <si>
+    <t>浦发银行</t>
+  </si>
+  <si>
+    <t>盐湖股份</t>
+  </si>
+  <si>
+    <t>南方航空</t>
+  </si>
+  <si>
+    <t>民生银行</t>
+  </si>
+  <si>
+    <t>招商蛇口</t>
+  </si>
+  <si>
+    <t>美的集团</t>
   </si>
   <si>
     <t>士兰微</t>
   </si>
   <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-  </si>
-  <si>
-    <t>国民技术</t>
-  </si>
-  <si>
-    <t>海虹控股</t>
-  </si>
-  <si>
-    <t>紫光国芯</t>
-  </si>
-  <si>
-    <t>中国中车</t>
-  </si>
-  <si>
-    <t>格力电器</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>上海贝岭</t>
-  </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
-    <t>保利地产</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>新和成</t>
-  </si>
-  <si>
-    <t>美的集团</t>
-  </si>
-  <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
-    <t>通威股份</t>
-  </si>
-  <si>
-    <t>梅泰诺</t>
-  </si>
-  <si>
-    <t>广汇能源</t>
-  </si>
-  <si>
-    <t>万科A</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
-    <t>复星医药</t>
-  </si>
-  <si>
-    <t>平安银行</t>
-  </si>
-  <si>
-    <t>浙江龙盛</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>中信证券</t>
-  </si>
-  <si>
-    <t>潞安环能</t>
-  </si>
-  <si>
-    <t>大华股份</t>
-  </si>
-  <si>
-    <t>太极实业</t>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>北新建材</t>
-  </si>
-  <si>
-    <t>大族激光</t>
-  </si>
-  <si>
-    <t>海螺水泥</t>
-  </si>
-  <si>
-    <t>中天能源</t>
-  </si>
-  <si>
-    <t>亨通光电</t>
-  </si>
-  <si>
-    <t>华东医药</t>
-  </si>
-  <si>
-    <t>有研新材</t>
-  </si>
-  <si>
-    <t>盛和资源</t>
-  </si>
-  <si>
-    <t>天业股份</t>
-  </si>
-  <si>
-    <t>三钢闽光</t>
-  </si>
-  <si>
-    <t>非银行金融-保险Ⅱ-保险Ⅲ</t>
-  </si>
-  <si>
-    <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
-  </si>
-  <si>
-    <t>建材-其他建材-新型建材及非金属新材料</t>
-  </si>
-  <si>
-    <t>通信-通信设备制造-系统设备</t>
-  </si>
-  <si>
-    <t>电力设备-新能源设备-光伏</t>
-  </si>
-  <si>
-    <t>食品饮料-白酒Ⅱ-白酒Ⅲ</t>
-  </si>
-  <si>
-    <t>商贸零售-零售-超市</t>
-  </si>
-  <si>
-    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
-  </si>
-  <si>
-    <t>计算机-计算机软件-行业应用软件</t>
-  </si>
-  <si>
-    <t>医药-其他医药医疗-医疗服务</t>
-  </si>
-  <si>
-    <t>机械-运输设备-铁路交通设备</t>
-  </si>
-  <si>
-    <t>家电-白色家电Ⅱ-白色家电Ⅲ</t>
-  </si>
-  <si>
-    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
-  </si>
-  <si>
-    <t>银行-股份制与城商行-股份制银行</t>
-  </si>
-  <si>
-    <t>房地产-房地产开发管理-住宅地产</t>
-  </si>
-  <si>
-    <t>有色金属-贵金属-黄金</t>
-  </si>
-  <si>
-    <t>医药-化学制药-化学原料药</t>
-  </si>
-  <si>
-    <t>食品饮料-食品-乳制品</t>
-  </si>
-  <si>
-    <t>农林牧渔-牧业-饲料</t>
-  </si>
-  <si>
-    <t>通信-通信设备制造-网络接配及塔设</t>
-  </si>
-  <si>
-    <t>石油石化-石油开采Ⅱ-石油开采Ⅲ</t>
-  </si>
-  <si>
-    <t>有色金属-工业金属-镍钴</t>
-  </si>
-  <si>
-    <t>医药-化学制药-化学制剂</t>
-  </si>
-  <si>
-    <t>基础化工-化学制品-印染化学品</t>
-  </si>
-  <si>
-    <t>电子元器件-电子设备Ⅱ-电子设备Ⅲ</t>
-  </si>
-  <si>
-    <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
-  </si>
-  <si>
-    <t>煤炭-煤炭开采洗选-炼焦煤</t>
-  </si>
-  <si>
-    <t>建材-水泥Ⅱ-水泥Ⅲ</t>
-  </si>
-  <si>
-    <t>电力及公用事业-环保及公用事业-燃气</t>
-  </si>
-  <si>
-    <t>通信-通信设备制造-线缆</t>
-  </si>
-  <si>
-    <t>钢铁-普钢-长材</t>
+    <t>鲁西化工</t>
+  </si>
+  <si>
+    <t>中国神华</t>
+  </si>
+  <si>
+    <t>三一重工</t>
+  </si>
+  <si>
+    <t>网宿科技</t>
   </si>
 </sst>
 </file>
@@ -813,22 +807,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>5340481047</v>
+        <v>16276293928</v>
       </c>
       <c r="C2">
-        <v>71952658</v>
+        <v>207447138</v>
       </c>
       <c r="D2">
-        <v>730573358211.9199</v>
+        <v>766006462183.5599</v>
       </c>
       <c r="E2">
-        <v>0.007309986036269979</v>
+        <v>0.02124824623750977</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -836,22 +830,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>4866347335</v>
+        <v>10816194595</v>
       </c>
       <c r="C3">
-        <v>821304777</v>
+        <v>1070147245</v>
       </c>
       <c r="D3">
-        <v>135237613111.68</v>
+        <v>133024769641.8</v>
       </c>
       <c r="E3">
-        <v>0.03598368252019756</v>
+        <v>0.08130962845585156</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -859,22 +853,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3907365548</v>
+        <v>7076375790</v>
       </c>
       <c r="C4">
-        <v>145685839</v>
+        <v>385046391</v>
       </c>
       <c r="D4">
-        <v>26607119231.12</v>
+        <v>275095866769.1</v>
       </c>
       <c r="E4">
-        <v>0.1468541375734469</v>
+        <v>0.02572330828924999</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -882,22 +876,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3814448883</v>
+        <v>6301946331</v>
       </c>
       <c r="C5">
-        <v>100714058</v>
+        <v>295669219</v>
       </c>
       <c r="D5">
-        <v>82316571784.64999</v>
+        <v>167318421075.14</v>
       </c>
       <c r="E5">
-        <v>0.04633877237962551</v>
+        <v>0.03766439039112075</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -905,22 +899,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>3582050882</v>
+        <v>4666993930</v>
       </c>
       <c r="C6">
-        <v>302398674</v>
+        <v>736082965</v>
       </c>
       <c r="D6">
-        <v>18833859737.64</v>
+        <v>148599436273.68</v>
       </c>
       <c r="E6">
-        <v>0.190192075968431</v>
+        <v>0.03140653859146988</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -928,22 +922,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2841150644</v>
+        <v>4443031234</v>
       </c>
       <c r="C7">
-        <v>35180174</v>
+        <v>5897851</v>
       </c>
       <c r="D7">
-        <v>134357444541.9</v>
+        <v>337543031930.1799</v>
       </c>
       <c r="E7">
-        <v>0.02114620930523856</v>
+        <v>0.01316285869861782</v>
       </c>
       <c r="F7" t="s">
         <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -951,22 +945,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>2172894205</v>
+        <v>4082204721</v>
       </c>
       <c r="C8">
-        <v>206350058</v>
+        <v>586990942</v>
       </c>
       <c r="D8">
-        <v>37515507216.4</v>
+        <v>153751220351.12</v>
       </c>
       <c r="E8">
-        <v>0.05791989409782293</v>
+        <v>0.02655071427516161</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -974,22 +968,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>2066027423</v>
+        <v>3796014055</v>
       </c>
       <c r="C9">
-        <v>134032379</v>
+        <v>103223006</v>
       </c>
       <c r="D9">
-        <v>10723481167.95</v>
+        <v>79073208042.14999</v>
       </c>
       <c r="E9">
-        <v>0.1926638738523528</v>
+        <v>0.04800632412658069</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -997,22 +991,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1930315469</v>
+        <v>3712081698</v>
       </c>
       <c r="C10">
-        <v>2831701</v>
+        <v>42970090</v>
       </c>
       <c r="D10">
-        <v>307050226930.4399</v>
+        <v>144061593552</v>
       </c>
       <c r="E10">
-        <v>0.006286644007064354</v>
+        <v>0.02576732359037872</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1020,22 +1014,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>1915855102</v>
+        <v>3480417181</v>
       </c>
       <c r="C11">
-        <v>49574336</v>
+        <v>807656817</v>
       </c>
       <c r="D11">
-        <v>52450214914.36001</v>
+        <v>154842169293.45</v>
       </c>
       <c r="E11">
-        <v>0.03652711633552278</v>
+        <v>0.02247719207810934</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1043,22 +1037,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1671151568</v>
+        <v>3385147051</v>
       </c>
       <c r="C12">
-        <v>26905448</v>
+        <v>516049363</v>
       </c>
       <c r="D12">
-        <v>56929773868.8</v>
+        <v>159797388333.18</v>
       </c>
       <c r="E12">
-        <v>0.0293546145440754</v>
+        <v>0.02118399484691149</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1066,22 +1060,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1530544262</v>
+        <v>3330767708</v>
       </c>
       <c r="C13">
-        <v>132130666</v>
+        <v>188233864</v>
       </c>
       <c r="D13">
-        <v>6215571207</v>
+        <v>123200466514.51</v>
       </c>
       <c r="E13">
-        <v>0.2462435407829123</v>
+        <v>0.02703534980208632</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1089,22 +1083,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1516756840</v>
+        <v>3179439201</v>
       </c>
       <c r="C14">
-        <v>34359869</v>
+        <v>60653125</v>
       </c>
       <c r="D14">
-        <v>29895211404.68999</v>
+        <v>226715064789.72</v>
       </c>
       <c r="E14">
-        <v>0.05073577903389737</v>
+        <v>0.01402394324324656</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1112,22 +1106,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1503206828</v>
+        <v>3120455742</v>
       </c>
       <c r="C15">
-        <v>30626141</v>
+        <v>214802680</v>
       </c>
       <c r="D15">
-        <v>17219989115.46</v>
+        <v>112023347860.48</v>
       </c>
       <c r="E15">
-        <v>0.08729429606029369</v>
+        <v>0.02785540515970283</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1135,22 +1129,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1472444647</v>
+        <v>2828445821</v>
       </c>
       <c r="C16">
-        <v>125550992</v>
+        <v>405583981</v>
       </c>
       <c r="D16">
-        <v>95299647985.04001</v>
+        <v>68355699615</v>
       </c>
       <c r="E16">
-        <v>0.01545068295772868</v>
+        <v>0.04137834645729125</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1158,22 +1152,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1448117098</v>
+        <v>2805094523</v>
       </c>
       <c r="C17">
-        <v>32206075</v>
+        <v>80371542</v>
       </c>
       <c r="D17">
-        <v>195523305971.54</v>
+        <v>186077092115.75</v>
       </c>
       <c r="E17">
-        <v>0.007406365654490238</v>
+        <v>0.01507490519711626</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1181,22 +1175,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>1333838009</v>
+        <v>2727463447</v>
       </c>
       <c r="C18">
-        <v>18642404</v>
+        <v>636379662</v>
       </c>
       <c r="D18">
-        <v>32322174884.4</v>
+        <v>97245358202.04001</v>
       </c>
       <c r="E18">
-        <v>0.04126696343208527</v>
+        <v>0.02804723533778688</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1204,22 +1198,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1311787070</v>
+        <v>2666539913</v>
       </c>
       <c r="C19">
-        <v>77088367</v>
+        <v>128218764</v>
       </c>
       <c r="D19">
-        <v>8276649809.099999</v>
+        <v>62694700381.28001</v>
       </c>
       <c r="E19">
-        <v>0.158492518139129</v>
+        <v>0.04253214221909259</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1227,22 +1221,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1301573567</v>
+        <v>2628880183</v>
       </c>
       <c r="C20">
-        <v>44313847</v>
+        <v>81103971</v>
       </c>
       <c r="D20">
-        <v>343230818059.28</v>
+        <v>378737454410.24</v>
       </c>
       <c r="E20">
-        <v>0.003792123255013781</v>
+        <v>0.006941167693841168</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1250,22 +1244,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1290868163</v>
+        <v>2579073220</v>
       </c>
       <c r="C21">
-        <v>99055895</v>
+        <v>82625934</v>
       </c>
       <c r="D21">
-        <v>91716681958.44</v>
+        <v>30886793312.5</v>
       </c>
       <c r="E21">
-        <v>0.01407451878367053</v>
+        <v>0.08350084108460167</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1273,22 +1267,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1256979437</v>
+        <v>2365325833</v>
       </c>
       <c r="C22">
-        <v>302081104</v>
+        <v>63664468.00000001</v>
       </c>
       <c r="D22">
-        <v>42150993955.2</v>
+        <v>18233940643.1</v>
       </c>
       <c r="E22">
-        <v>0.02982087298667204</v>
+        <v>0.1297210449072661</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1296,22 +1290,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1231580993</v>
+        <v>2296814376</v>
       </c>
       <c r="C23">
-        <v>31668653</v>
+        <v>35193464</v>
       </c>
       <c r="D23">
-        <v>18057495376.08</v>
+        <v>43613930281.07999</v>
       </c>
       <c r="E23">
-        <v>0.06820331210669577</v>
+        <v>0.05266240307162533</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1319,22 +1313,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1200106860</v>
+        <v>2270674138</v>
       </c>
       <c r="C24">
-        <v>21377621</v>
+        <v>185618897</v>
       </c>
       <c r="D24">
-        <v>231746821192.5</v>
+        <v>100422410632.7</v>
       </c>
       <c r="E24">
-        <v>0.005178525659271649</v>
+        <v>0.02261122914391196</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1342,22 +1336,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1188645872</v>
+        <v>2226747475</v>
       </c>
       <c r="C25">
-        <v>35851250</v>
+        <v>55884840</v>
       </c>
       <c r="D25">
-        <v>180155222614.84</v>
+        <v>220281685557.92</v>
       </c>
       <c r="E25">
-        <v>0.006597898494129402</v>
+        <v>0.01010863644592236</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1365,22 +1359,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1148117378</v>
+        <v>2126550266</v>
       </c>
       <c r="C26">
-        <v>88734962</v>
+        <v>232239693</v>
       </c>
       <c r="D26">
-        <v>17711884844.25</v>
+        <v>69926028222.40001</v>
       </c>
       <c r="E26">
-        <v>0.06482186329100517</v>
+        <v>0.03041142647536763</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1388,22 +1382,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1112299769</v>
+        <v>2087943990</v>
       </c>
       <c r="C27">
-        <v>22537256</v>
+        <v>306298215</v>
       </c>
       <c r="D27">
-        <v>6671054879.64</v>
+        <v>54102991840.39999</v>
       </c>
       <c r="E27">
-        <v>0.1667352149050263</v>
+        <v>0.03859202456232527</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G27" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1411,22 +1405,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>1106972179</v>
+        <v>2058635081</v>
       </c>
       <c r="C28">
-        <v>201059909</v>
+        <v>214058779</v>
       </c>
       <c r="D28">
-        <v>16469915652.4</v>
+        <v>28673501196.6</v>
       </c>
       <c r="E28">
-        <v>0.06721176977240267</v>
+        <v>0.07179573456638444</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1434,22 +1428,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>1023085433</v>
+        <v>1966781621</v>
       </c>
       <c r="C29">
-        <v>34220642</v>
+        <v>225922942</v>
       </c>
       <c r="D29">
-        <v>165377472683.7</v>
+        <v>79931660953.40001</v>
       </c>
       <c r="E29">
-        <v>0.006186365146338565</v>
+        <v>0.0246057894649109</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1457,22 +1451,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1022976127</v>
+        <v>1880041891</v>
       </c>
       <c r="C30">
-        <v>12462056</v>
+        <v>44905249</v>
       </c>
       <c r="D30">
-        <v>26293474601.79</v>
+        <v>136409950419.68</v>
       </c>
       <c r="E30">
-        <v>0.03890608382850846</v>
+        <v>0.01378229289883801</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1480,22 +1474,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1022794919</v>
+        <v>1862856908</v>
       </c>
       <c r="C31">
-        <v>75795814</v>
+        <v>146942332</v>
       </c>
       <c r="D31">
-        <v>29973036280.32</v>
+        <v>20363670017.84</v>
       </c>
       <c r="E31">
-        <v>0.03412383414994753</v>
+        <v>0.09147942911901474</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1503,22 +1497,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>1018169502</v>
+        <v>1828067542</v>
       </c>
       <c r="C32">
-        <v>21736920</v>
+        <v>84569166</v>
       </c>
       <c r="D32">
-        <v>45450007905.8</v>
+        <v>64358689450.14</v>
       </c>
       <c r="E32">
-        <v>0.02240196534421435</v>
+        <v>0.02840436245079604</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1526,22 +1520,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1004525768</v>
+        <v>1795367160</v>
       </c>
       <c r="C33">
-        <v>74290095</v>
+        <v>419259431</v>
       </c>
       <c r="D33">
-        <v>102891009719.68</v>
+        <v>113447944447.12</v>
       </c>
       <c r="E33">
-        <v>0.00976300816501623</v>
+        <v>0.01582547104532908</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1549,22 +1543,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>994127766</v>
+        <v>1780164354</v>
       </c>
       <c r="C34">
-        <v>82313086</v>
+        <v>42211646</v>
       </c>
       <c r="D34">
-        <v>29007148972.8</v>
+        <v>51388955280.61</v>
       </c>
       <c r="E34">
-        <v>0.0342718192309142</v>
+        <v>0.03464099132351283</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1572,22 +1566,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>975209405</v>
+        <v>1774291363</v>
       </c>
       <c r="C35">
-        <v>24428468</v>
+        <v>138719713</v>
       </c>
       <c r="D35">
-        <v>118580007203.28</v>
+        <v>31201768796.4</v>
       </c>
       <c r="E35">
-        <v>0.008224062622362744</v>
+        <v>0.05686508911009924</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1595,22 +1589,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>962968583</v>
+        <v>1701779294</v>
       </c>
       <c r="C36">
-        <v>52847665</v>
+        <v>208601144</v>
       </c>
       <c r="D36">
-        <v>142154230703.26</v>
+        <v>18509104047.92</v>
       </c>
       <c r="E36">
-        <v>0.006774111317236486</v>
+        <v>0.0919428238986663</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1618,22 +1612,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>949674620</v>
+        <v>1684802000</v>
       </c>
       <c r="C37">
-        <v>86244668</v>
+        <v>52964291</v>
       </c>
       <c r="D37">
-        <v>12077276062.84</v>
+        <v>66515141987.8</v>
       </c>
       <c r="E37">
-        <v>0.07863317978811538</v>
+        <v>0.02532960089462067</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1641,22 +1635,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>945368496</v>
+        <v>1615405122</v>
       </c>
       <c r="C38">
-        <v>39734989</v>
+        <v>39560833</v>
       </c>
       <c r="D38">
-        <v>34921565260.74</v>
+        <v>125083585006.8</v>
       </c>
       <c r="E38">
-        <v>0.02707119480302377</v>
+        <v>0.01291460523706752</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1664,22 +1658,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>933116871</v>
+        <v>1598396710</v>
       </c>
       <c r="C39">
-        <v>101356346</v>
+        <v>25971882</v>
       </c>
       <c r="D39">
-        <v>7397767072.08</v>
+        <v>56570275620.6</v>
       </c>
       <c r="E39">
-        <v>0.1261349352998268</v>
+        <v>0.0282550631487103</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1687,22 +1681,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>914161204</v>
+        <v>1504404949</v>
       </c>
       <c r="C40">
-        <v>13722485</v>
+        <v>79405779</v>
       </c>
       <c r="D40">
-        <v>43289585871.60001</v>
+        <v>51400728308.39999</v>
       </c>
       <c r="E40">
-        <v>0.02111734694601762</v>
+        <v>0.02926816406128914</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1710,22 +1704,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>906211045</v>
+        <v>1465159094</v>
       </c>
       <c r="C41">
-        <v>33080752</v>
+        <v>111608076</v>
       </c>
       <c r="D41">
-        <v>56759370938.75</v>
+        <v>203164157503.88</v>
       </c>
       <c r="E41">
-        <v>0.01596584017779034</v>
+        <v>0.007211700685796502</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1733,22 +1727,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>893708357</v>
+        <v>1444278038</v>
       </c>
       <c r="C42">
-        <v>39143632</v>
+        <v>89717885</v>
       </c>
       <c r="D42">
-        <v>17644830989.94</v>
+        <v>19889399863.2</v>
       </c>
       <c r="E42">
-        <v>0.05064986780035115</v>
+        <v>0.07261546592324533</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1756,22 +1750,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>867990742</v>
+        <v>1371925673</v>
       </c>
       <c r="C43">
-        <v>16068784</v>
+        <v>130125360</v>
       </c>
       <c r="D43">
-        <v>43413129900.33</v>
+        <v>31504929297.6</v>
       </c>
       <c r="E43">
-        <v>0.01999373793119215</v>
+        <v>0.04354638158494491</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1779,22 +1773,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>865088181</v>
+        <v>1356350569</v>
       </c>
       <c r="C44">
-        <v>29386735</v>
+        <v>151595255</v>
       </c>
       <c r="D44">
-        <v>60799644108.4</v>
+        <v>215138815874.06</v>
       </c>
       <c r="E44">
-        <v>0.01422850731589201</v>
+        <v>0.006304536740566581</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1802,22 +1796,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>841342376</v>
+        <v>1334491532</v>
       </c>
       <c r="C45">
-        <v>72895879</v>
+        <v>54910468.99999999</v>
       </c>
       <c r="D45">
-        <v>8334079376.700002</v>
+        <v>43029224469</v>
       </c>
       <c r="E45">
-        <v>0.1009520473673652</v>
+        <v>0.03101360873843826</v>
       </c>
       <c r="F45" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1825,22 +1819,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>814371442</v>
+        <v>1323941735</v>
       </c>
       <c r="C46">
-        <v>19026886</v>
+        <v>22378155</v>
       </c>
       <c r="D46">
-        <v>36586709505.39</v>
+        <v>241454137668.75</v>
       </c>
       <c r="E46">
-        <v>0.02225866859877152</v>
+        <v>0.005483201687006543</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1848,22 +1842,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>803466137</v>
+        <v>1304037268</v>
       </c>
       <c r="C47">
-        <v>15015855</v>
+        <v>81423966</v>
       </c>
       <c r="D47">
-        <v>21666276364.32</v>
+        <v>11166990570.9</v>
       </c>
       <c r="E47">
-        <v>0.03708372050137546</v>
+        <v>0.1167760695883619</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1871,22 +1865,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>797491194</v>
+        <v>1286745058</v>
       </c>
       <c r="C48">
-        <v>61240701</v>
+        <v>67414227</v>
       </c>
       <c r="D48">
-        <v>6863154835.679999</v>
+        <v>18909872863.98</v>
       </c>
       <c r="E48">
-        <v>0.1161989220837657</v>
+        <v>0.06804620354962958</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1894,22 +1888,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>797237318</v>
+        <v>1284148785</v>
       </c>
       <c r="C49">
-        <v>49906550</v>
+        <v>54528269.99999999</v>
       </c>
       <c r="D49">
-        <v>9305614199.6</v>
+        <v>46110101590.56</v>
       </c>
       <c r="E49">
-        <v>0.08567272411038371</v>
+        <v>0.02784961951293771</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1917,22 +1911,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>778287797</v>
+        <v>1283905062</v>
       </c>
       <c r="C50">
-        <v>77924328</v>
+        <v>136474673</v>
       </c>
       <c r="D50">
-        <v>6034543725.21</v>
+        <v>42811721212.54</v>
       </c>
       <c r="E50">
-        <v>0.1289721033503516</v>
+        <v>0.02998956887591641</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1940,22 +1934,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>775223806</v>
+        <v>1273766134</v>
       </c>
       <c r="C51">
-        <v>39993080</v>
+        <v>107404133</v>
       </c>
       <c r="D51">
-        <v>12028475195.34</v>
+        <v>17085238409.61</v>
       </c>
       <c r="E51">
-        <v>0.0644490505579903</v>
+        <v>0.07455360606987725</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/volume_top50.xlsx
+++ b/website/everyday-update/data/volume_top50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="139">
   <si>
     <t>amt</t>
   </si>
@@ -37,388 +37,400 @@
     <t>601318.SH</t>
   </si>
   <si>
+    <t>600887.SH</t>
+  </si>
+  <si>
+    <t>601899.SH</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>002460.SZ</t>
+  </si>
+  <si>
+    <t>603993.SH</t>
+  </si>
+  <si>
+    <t>600519.SH</t>
+  </si>
+  <si>
+    <t>603799.SH</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
+  </si>
+  <si>
+    <t>000725.SZ</t>
+  </si>
+  <si>
+    <t>601288.SH</t>
+  </si>
+  <si>
+    <t>600588.SH</t>
+  </si>
+  <si>
+    <t>600460.SH</t>
+  </si>
+  <si>
+    <t>600728.SH</t>
+  </si>
+  <si>
+    <t>000977.SZ</t>
+  </si>
+  <si>
+    <t>002230.SZ</t>
+  </si>
+  <si>
+    <t>300353.SZ</t>
+  </si>
+  <si>
+    <t>601398.SH</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>000830.SZ</t>
+  </si>
+  <si>
+    <t>002466.SZ</t>
+  </si>
+  <si>
+    <t>000401.SZ</t>
+  </si>
+  <si>
+    <t>000732.SZ</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>002340.SZ</t>
+  </si>
+  <si>
+    <t>002049.SZ</t>
+  </si>
+  <si>
+    <t>601600.SH</t>
+  </si>
+  <si>
+    <t>600036.SH</t>
+  </si>
+  <si>
+    <t>600690.SH</t>
+  </si>
+  <si>
+    <t>600516.SH</t>
+  </si>
+  <si>
+    <t>000002.SZ</t>
+  </si>
+  <si>
+    <t>600048.SH</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>600490.SH</t>
+  </si>
+  <si>
+    <t>603019.SH</t>
+  </si>
+  <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
+    <t>600340.SH</t>
+  </si>
+  <si>
+    <t>002497.SZ</t>
+  </si>
+  <si>
+    <t>601939.SH</t>
+  </si>
+  <si>
+    <t>600585.SH</t>
+  </si>
+  <si>
+    <t>300618.SZ</t>
+  </si>
+  <si>
+    <t>000025.SZ</t>
+  </si>
+  <si>
+    <t>600104.SH</t>
+  </si>
+  <si>
+    <t>300216.SZ</t>
+  </si>
+  <si>
+    <t>603986.SH</t>
+  </si>
+  <si>
     <t>601668.SH</t>
   </si>
   <si>
-    <t>601166.SH</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>000725.SZ</t>
-  </si>
-  <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>601398.SH</t>
-  </si>
-  <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>601288.SH</t>
-  </si>
-  <si>
-    <t>601328.SH</t>
-  </si>
-  <si>
-    <t>600048.SH</t>
-  </si>
-  <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
-    <t>000001.SZ</t>
-  </si>
-  <si>
-    <t>600028.SH</t>
-  </si>
-  <si>
-    <t>600887.SH</t>
-  </si>
-  <si>
-    <t>601988.SH</t>
-  </si>
-  <si>
-    <t>601688.SH</t>
-  </si>
-  <si>
-    <t>600036.SH</t>
-  </si>
-  <si>
-    <t>600516.SH</t>
-  </si>
-  <si>
-    <t>000732.SZ</t>
-  </si>
-  <si>
-    <t>601336.SH</t>
-  </si>
-  <si>
-    <t>601766.SH</t>
-  </si>
-  <si>
-    <t>000002.SZ</t>
-  </si>
-  <si>
-    <t>600019.SH</t>
-  </si>
-  <si>
-    <t>600050.SH</t>
-  </si>
-  <si>
-    <t>600606.SH</t>
-  </si>
-  <si>
-    <t>601939.SH</t>
-  </si>
-  <si>
-    <t>601601.SH</t>
-  </si>
-  <si>
     <t>002146.SZ</t>
   </si>
   <si>
-    <t>600690.SH</t>
-  </si>
-  <si>
-    <t>601818.SH</t>
-  </si>
-  <si>
-    <t>600340.SH</t>
-  </si>
-  <si>
-    <t>600352.SH</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>600585.SH</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>002230.SZ</t>
-  </si>
-  <si>
-    <t>000776.SZ</t>
-  </si>
-  <si>
-    <t>600000.SH</t>
-  </si>
-  <si>
-    <t>000792.SZ</t>
-  </si>
-  <si>
-    <t>600029.SH</t>
-  </si>
-  <si>
-    <t>600016.SH</t>
-  </si>
-  <si>
-    <t>001979.SZ</t>
-  </si>
-  <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>600460.SH</t>
-  </si>
-  <si>
-    <t>000830.SZ</t>
-  </si>
-  <si>
-    <t>601088.SH</t>
-  </si>
-  <si>
-    <t>600031.SH</t>
-  </si>
-  <si>
-    <t>300017.SZ</t>
+    <t>600093.SH</t>
   </si>
   <si>
     <t>非银行金融-保险Ⅱ-保险Ⅲ</t>
   </si>
   <si>
+    <t>食品饮料-食品-乳制品</t>
+  </si>
+  <si>
+    <t>有色金属-贵金属-黄金</t>
+  </si>
+  <si>
+    <t>食品饮料-白酒Ⅱ-白酒Ⅲ</t>
+  </si>
+  <si>
+    <t>家电-白色家电Ⅱ-白色家电Ⅲ</t>
+  </si>
+  <si>
+    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
+  </si>
+  <si>
+    <t>有色金属-工业金属-镍钴</t>
+  </si>
+  <si>
+    <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
+  </si>
+  <si>
+    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
+  </si>
+  <si>
+    <t>计算机-计算机软件-基础软件及套装软件</t>
+  </si>
+  <si>
+    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
+  </si>
+  <si>
+    <t>计算机-IT服务-系统集成及IT咨询</t>
+  </si>
+  <si>
+    <t>计算机-计算机硬件-PC及服务器硬件</t>
+  </si>
+  <si>
+    <t>计算机-计算机软件-行业应用软件</t>
+  </si>
+  <si>
+    <t>通信-通信设备制造-通信终端及配件</t>
+  </si>
+  <si>
+    <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
+  </si>
+  <si>
+    <t>基础化工-农用化工-氮肥</t>
+  </si>
+  <si>
+    <t>建材-水泥Ⅱ-水泥Ⅲ</t>
+  </si>
+  <si>
+    <t>房地产-房地产开发管理-住宅地产</t>
+  </si>
+  <si>
+    <t>通信-通信设备制造-系统设备</t>
+  </si>
+  <si>
+    <t>电力及公用事业-环保及公用事业-环保</t>
+  </si>
+  <si>
+    <t>有色金属-工业金属-铝</t>
+  </si>
+  <si>
+    <t>银行-股份制与城商行-股份制银行</t>
+  </si>
+  <si>
+    <t>建材-其他建材-新型建材及非金属新材料</t>
+  </si>
+  <si>
+    <t>医药-化学制药-化学制剂</t>
+  </si>
+  <si>
+    <t>有色金属-工业金属-铜</t>
+  </si>
+  <si>
+    <t>电子元器件-电子设备Ⅱ-电子设备Ⅲ</t>
+  </si>
+  <si>
+    <t>基础化工-化学制品-民爆用品</t>
+  </si>
+  <si>
+    <t>汽车-汽车销售及服务Ⅱ-汽车销售及服务Ⅲ</t>
+  </si>
+  <si>
+    <t>汽车-乘用车Ⅱ-乘用车Ⅲ</t>
+  </si>
+  <si>
+    <t>机械-其他专用设备-其他专用机械</t>
+  </si>
+  <si>
     <t>建筑-建筑施工Ⅱ-建筑施工Ⅲ</t>
   </si>
   <si>
-    <t>银行-股份制与城商行-股份制银行</t>
-  </si>
-  <si>
-    <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
-  </si>
-  <si>
-    <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
-  </si>
-  <si>
-    <t>食品饮料-白酒Ⅱ-白酒Ⅲ</t>
-  </si>
-  <si>
-    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
-  </si>
-  <si>
-    <t>通信-通信设备制造-系统设备</t>
-  </si>
-  <si>
-    <t>房地产-房地产开发管理-住宅地产</t>
-  </si>
-  <si>
-    <t>家电-白色家电Ⅱ-白色家电Ⅲ</t>
-  </si>
-  <si>
-    <t>石油石化-石油化工-炼油</t>
-  </si>
-  <si>
-    <t>食品饮料-食品-乳制品</t>
-  </si>
-  <si>
-    <t>建材-其他建材-新型建材及非金属新材料</t>
-  </si>
-  <si>
-    <t>机械-运输设备-铁路交通设备</t>
-  </si>
-  <si>
-    <t>钢铁-普钢-板材</t>
-  </si>
-  <si>
-    <t>通信-电信运营Ⅱ-电信运营Ⅲ</t>
-  </si>
-  <si>
-    <t>基础化工-化学制品-印染化学品</t>
-  </si>
-  <si>
-    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
-  </si>
-  <si>
-    <t>建材-水泥Ⅱ-水泥Ⅲ</t>
-  </si>
-  <si>
-    <t>电子元器件-电子设备Ⅱ-电子设备Ⅲ</t>
-  </si>
-  <si>
-    <t>计算机-计算机软件-行业应用软件</t>
-  </si>
-  <si>
-    <t>基础化工-农用化工-钾肥</t>
-  </si>
-  <si>
-    <t>交通运输-航空机场-航空</t>
-  </si>
-  <si>
-    <t>房地产-房地产开发管理-园区</t>
-  </si>
-  <si>
-    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
-  </si>
-  <si>
-    <t>基础化工-农用化工-氮肥</t>
-  </si>
-  <si>
-    <t>煤炭-煤炭开采洗选-动力煤</t>
-  </si>
-  <si>
-    <t>机械-工程机械Ⅱ-工程机械Ⅲ</t>
-  </si>
-  <si>
-    <t>通信-增值服务Ⅱ-增值服务Ⅲ</t>
+    <t>汽车-汽车零部件Ⅱ-汽车零部件Ⅲ</t>
   </si>
   <si>
     <t>中国平安</t>
   </si>
   <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
+    <t>紫金矿业</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>洛阳钼业</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>华友钴业</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
+    <t>京东方A</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>用友网络</t>
+  </si>
+  <si>
+    <t>士兰微</t>
+  </si>
+  <si>
+    <t>佳都科技</t>
+  </si>
+  <si>
+    <t>浪潮信息</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>东土科技</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>鲁西化工</t>
+  </si>
+  <si>
+    <t>天齐锂业</t>
+  </si>
+  <si>
+    <t>冀东水泥</t>
+  </si>
+  <si>
+    <t>泰禾集团</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>紫光国芯</t>
+  </si>
+  <si>
+    <t>中国铝业</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>青岛海尔</t>
+  </si>
+  <si>
+    <t>方大炭素</t>
+  </si>
+  <si>
+    <t>万科A</t>
+  </si>
+  <si>
+    <t>保利地产</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>鹏欣资源</t>
+  </si>
+  <si>
+    <t>中科曙光</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>华夏幸福</t>
+  </si>
+  <si>
+    <t>雅化集团</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>海螺水泥</t>
+  </si>
+  <si>
+    <t>寒锐钴业</t>
+  </si>
+  <si>
+    <t>特力A</t>
+  </si>
+  <si>
+    <t>上汽集团</t>
+  </si>
+  <si>
+    <t>千山药机</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
     <t>中国建筑</t>
   </si>
   <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
-    <t>中信证券</t>
-  </si>
-  <si>
-    <t>京东方A</t>
-  </si>
-  <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>交通银行</t>
-  </si>
-  <si>
-    <t>保利地产</t>
-  </si>
-  <si>
-    <t>格力电器</t>
-  </si>
-  <si>
-    <t>平安银行</t>
-  </si>
-  <si>
-    <t>中国石化</t>
-  </si>
-  <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
-    <t>中国银行</t>
-  </si>
-  <si>
-    <t>华泰证券</t>
-  </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
-    <t>方大炭素</t>
-  </si>
-  <si>
-    <t>泰禾集团</t>
-  </si>
-  <si>
-    <t>新华保险</t>
-  </si>
-  <si>
-    <t>中国中车</t>
-  </si>
-  <si>
-    <t>万科A</t>
-  </si>
-  <si>
-    <t>宝钢股份</t>
-  </si>
-  <si>
-    <t>中国联通</t>
-  </si>
-  <si>
-    <t>绿地控股</t>
-  </si>
-  <si>
-    <t>建设银行</t>
-  </si>
-  <si>
-    <t>中国太保</t>
-  </si>
-  <si>
     <t>荣盛发展</t>
   </si>
   <si>
-    <t>青岛海尔</t>
-  </si>
-  <si>
-    <t>光大银行</t>
-  </si>
-  <si>
-    <t>华夏幸福</t>
-  </si>
-  <si>
-    <t>浙江龙盛</t>
-  </si>
-  <si>
-    <t>洛阳钼业</t>
-  </si>
-  <si>
-    <t>海螺水泥</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-  </si>
-  <si>
-    <t>广发证券</t>
-  </si>
-  <si>
-    <t>浦发银行</t>
-  </si>
-  <si>
-    <t>盐湖股份</t>
-  </si>
-  <si>
-    <t>南方航空</t>
-  </si>
-  <si>
-    <t>民生银行</t>
-  </si>
-  <si>
-    <t>招商蛇口</t>
-  </si>
-  <si>
-    <t>美的集团</t>
-  </si>
-  <si>
-    <t>士兰微</t>
-  </si>
-  <si>
-    <t>鲁西化工</t>
-  </si>
-  <si>
-    <t>中国神华</t>
-  </si>
-  <si>
-    <t>三一重工</t>
-  </si>
-  <si>
-    <t>网宿科技</t>
+    <t>易见股份</t>
   </si>
 </sst>
 </file>
@@ -807,22 +819,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>16276293928</v>
+        <v>4847200944</v>
       </c>
       <c r="C2">
-        <v>207447138</v>
+        <v>69268165</v>
       </c>
       <c r="D2">
-        <v>766006462183.5599</v>
+        <v>696225948233.8401</v>
       </c>
       <c r="E2">
-        <v>0.02124824623750977</v>
+        <v>0.00696210900541153</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -830,22 +842,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>10816194595</v>
+        <v>3989439107</v>
       </c>
       <c r="C3">
-        <v>1070147245</v>
+        <v>129995866</v>
       </c>
       <c r="D3">
-        <v>133024769641.8</v>
+        <v>171136595668.5</v>
       </c>
       <c r="E3">
-        <v>0.08130962845585156</v>
+        <v>0.02331143196705712</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -853,22 +865,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>7076375790</v>
+        <v>3040178320</v>
       </c>
       <c r="C4">
-        <v>385046391</v>
+        <v>635166620</v>
       </c>
       <c r="D4">
-        <v>275095866769.1</v>
+        <v>48838411265.4</v>
       </c>
       <c r="E4">
-        <v>0.02572330828924999</v>
+        <v>0.0622497382946984</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -876,22 +888,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>6301946331</v>
+        <v>2984000307</v>
       </c>
       <c r="C5">
-        <v>295669219</v>
+        <v>39520411</v>
       </c>
       <c r="D5">
-        <v>167318421075.14</v>
+        <v>128221487779.5</v>
       </c>
       <c r="E5">
-        <v>0.03766439039112075</v>
+        <v>0.02327223274878488</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -899,22 +911,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>4666993930</v>
+        <v>2870027550</v>
       </c>
       <c r="C6">
-        <v>736082965</v>
+        <v>54830779</v>
       </c>
       <c r="D6">
-        <v>148599436273.68</v>
+        <v>230619457409.52</v>
       </c>
       <c r="E6">
-        <v>0.03140653859146988</v>
+        <v>0.01244486298874418</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -922,22 +934,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>4443031234</v>
+        <v>2832570305</v>
       </c>
       <c r="C7">
-        <v>5897851</v>
+        <v>39420830</v>
       </c>
       <c r="D7">
-        <v>337543031930.1799</v>
+        <v>32619758647.5</v>
       </c>
       <c r="E7">
-        <v>0.01316285869861782</v>
+        <v>0.08683602891148583</v>
       </c>
       <c r="F7" t="s">
         <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -945,22 +957,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>4082204721</v>
+        <v>2637520003</v>
       </c>
       <c r="C8">
-        <v>586990942</v>
+        <v>313648156</v>
       </c>
       <c r="D8">
-        <v>153751220351.12</v>
+        <v>19173415950.63</v>
       </c>
       <c r="E8">
-        <v>0.02655071427516161</v>
+        <v>0.1375612989251055</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -968,22 +980,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>3796014055</v>
+        <v>2540452000</v>
       </c>
       <c r="C9">
-        <v>103223006</v>
+        <v>3534930</v>
       </c>
       <c r="D9">
-        <v>79073208042.14999</v>
+        <v>324962839009.3199</v>
       </c>
       <c r="E9">
-        <v>0.04800632412658069</v>
+        <v>0.00781766926872257</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -991,22 +1003,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>3712081698</v>
+        <v>2343077006</v>
       </c>
       <c r="C10">
-        <v>42970090</v>
+        <v>19845781</v>
       </c>
       <c r="D10">
-        <v>144061593552</v>
+        <v>31567868563.54</v>
       </c>
       <c r="E10">
-        <v>0.02576732359037872</v>
+        <v>0.07422347825871868</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1014,22 +1026,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>3480417181</v>
+        <v>2206248601</v>
       </c>
       <c r="C11">
-        <v>807656817</v>
+        <v>38051889</v>
       </c>
       <c r="D11">
-        <v>154842169293.45</v>
+        <v>245323120061.41</v>
       </c>
       <c r="E11">
-        <v>0.02247719207810934</v>
+        <v>0.008993235535434758</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1037,22 +1049,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>3385147051</v>
+        <v>2154019969</v>
       </c>
       <c r="C12">
-        <v>516049363</v>
+        <v>379300538</v>
       </c>
       <c r="D12">
-        <v>159797388333.18</v>
+        <v>134403072134.57</v>
       </c>
       <c r="E12">
-        <v>0.02118399484691149</v>
+        <v>0.01602656795555465</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1060,22 +1072,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>3330767708</v>
+        <v>2074853609</v>
       </c>
       <c r="C13">
-        <v>188233864</v>
+        <v>514695212</v>
       </c>
       <c r="D13">
-        <v>123200466514.51</v>
+        <v>142440622553.7</v>
       </c>
       <c r="E13">
-        <v>0.02703534980208632</v>
+        <v>0.01456644580599036</v>
       </c>
       <c r="F13" t="s">
         <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1083,22 +1095,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>3179439201</v>
+        <v>2060409294</v>
       </c>
       <c r="C14">
-        <v>60653125</v>
+        <v>52065371</v>
       </c>
       <c r="D14">
-        <v>226715064789.72</v>
+        <v>26600591286.9</v>
       </c>
       <c r="E14">
-        <v>0.01402394324324656</v>
+        <v>0.07745727423039239</v>
       </c>
       <c r="F14" t="s">
         <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1106,22 +1118,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>3120455742</v>
+        <v>1701517690</v>
       </c>
       <c r="C15">
-        <v>214802680</v>
+        <v>102312637</v>
       </c>
       <c r="D15">
-        <v>112023347860.48</v>
+        <v>11763968054.25</v>
       </c>
       <c r="E15">
-        <v>0.02785540515970283</v>
+        <v>0.1446380746830818</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1129,22 +1141,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>2828445821</v>
+        <v>1699086741</v>
       </c>
       <c r="C16">
-        <v>405583981</v>
+        <v>160515512</v>
       </c>
       <c r="D16">
-        <v>68355699615</v>
+        <v>10111144155.07</v>
       </c>
       <c r="E16">
-        <v>0.04137834645729125</v>
+        <v>0.1680409966411202</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1152,22 +1164,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>2805094523</v>
+        <v>1669792317</v>
       </c>
       <c r="C17">
-        <v>80371542</v>
+        <v>79140994</v>
       </c>
       <c r="D17">
-        <v>186077092115.75</v>
+        <v>15852714614.1</v>
       </c>
       <c r="E17">
-        <v>0.01507490519711626</v>
+        <v>0.1053316329504111</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1175,22 +1187,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>2727463447</v>
+        <v>1566044686</v>
       </c>
       <c r="C18">
-        <v>636379662</v>
+        <v>27256351</v>
       </c>
       <c r="D18">
-        <v>97245358202.04001</v>
+        <v>52717191832.2</v>
       </c>
       <c r="E18">
-        <v>0.02804723533778688</v>
+        <v>0.0297065270658717</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1198,22 +1210,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>2666539913</v>
+        <v>1547411181</v>
       </c>
       <c r="C19">
-        <v>128218764</v>
+        <v>85343807</v>
       </c>
       <c r="D19">
-        <v>62694700381.28001</v>
+        <v>4874127986.07</v>
       </c>
       <c r="E19">
-        <v>0.04253214221909259</v>
+        <v>0.3174744662886201</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1221,22 +1233,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>2628880183</v>
+        <v>1517502717</v>
       </c>
       <c r="C20">
-        <v>81103971</v>
+        <v>230681757</v>
       </c>
       <c r="D20">
-        <v>378737454410.24</v>
+        <v>141244108457.2</v>
       </c>
       <c r="E20">
-        <v>0.006941167693841168</v>
+        <v>0.01074383019281711</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1244,22 +1256,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>2579073220</v>
+        <v>1461994751</v>
       </c>
       <c r="C21">
-        <v>82625934</v>
+        <v>79784363</v>
       </c>
       <c r="D21">
-        <v>30886793312.5</v>
+        <v>143717223894.06</v>
       </c>
       <c r="E21">
-        <v>0.08350084108460167</v>
+        <v>0.01017271772573131</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1267,22 +1279,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>2365325833</v>
+        <v>1452657111</v>
       </c>
       <c r="C22">
-        <v>63664468.00000001</v>
+        <v>74650085</v>
       </c>
       <c r="D22">
-        <v>18233940643.1</v>
+        <v>19152805454.73</v>
       </c>
       <c r="E22">
-        <v>0.1297210449072661</v>
+        <v>0.07584565688998057</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1290,22 +1302,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>2296814376</v>
+        <v>1431996048</v>
       </c>
       <c r="C23">
-        <v>35193464</v>
+        <v>24066568</v>
       </c>
       <c r="D23">
-        <v>43613930281.07999</v>
+        <v>39520278450.75</v>
       </c>
       <c r="E23">
-        <v>0.05266240307162533</v>
+        <v>0.03623446251231623</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1313,22 +1325,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>2270674138</v>
+        <v>1391813434</v>
       </c>
       <c r="C24">
-        <v>185618897</v>
+        <v>93117935</v>
       </c>
       <c r="D24">
-        <v>100422410632.7</v>
+        <v>13276312581.45</v>
       </c>
       <c r="E24">
-        <v>0.02261122914391196</v>
+        <v>0.1048343375060841</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1336,22 +1348,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>2226747475</v>
+        <v>1341601302</v>
       </c>
       <c r="C25">
-        <v>55884840</v>
+        <v>42553790</v>
       </c>
       <c r="D25">
-        <v>220281685557.92</v>
+        <v>15312640868.98</v>
       </c>
       <c r="E25">
-        <v>0.01010863644592236</v>
+        <v>0.08761397289201665</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1359,22 +1371,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>2126550266</v>
+        <v>1340499640</v>
       </c>
       <c r="C26">
-        <v>232239693</v>
+        <v>41137756</v>
       </c>
       <c r="D26">
-        <v>69926028222.40001</v>
+        <v>70662084736.60001</v>
       </c>
       <c r="E26">
-        <v>0.03041142647536763</v>
+        <v>0.01897056455377515</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1382,22 +1394,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>2087943990</v>
+        <v>1328791022</v>
       </c>
       <c r="C27">
-        <v>306298215</v>
+        <v>180966994</v>
       </c>
       <c r="D27">
-        <v>54102991840.39999</v>
+        <v>19053802239.14</v>
       </c>
       <c r="E27">
-        <v>0.03859202456232527</v>
+        <v>0.06973889018698955</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1405,22 +1417,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>2058635081</v>
+        <v>1307246676</v>
       </c>
       <c r="C28">
-        <v>214058779</v>
+        <v>28200149</v>
       </c>
       <c r="D28">
-        <v>28673501196.6</v>
+        <v>16397468110.15</v>
       </c>
       <c r="E28">
-        <v>0.07179573456638444</v>
+        <v>0.07972247100702193</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1428,22 +1440,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>1966781621</v>
+        <v>1288355630</v>
       </c>
       <c r="C29">
-        <v>225922942</v>
+        <v>243098494</v>
       </c>
       <c r="D29">
-        <v>79931660953.40001</v>
+        <v>30849113570.43</v>
       </c>
       <c r="E29">
-        <v>0.0246057894649109</v>
+        <v>0.04176313290359616</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1451,22 +1463,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1880041891</v>
+        <v>1247826582</v>
       </c>
       <c r="C30">
-        <v>44905249</v>
+        <v>40500723</v>
       </c>
       <c r="D30">
-        <v>136409950419.68</v>
+        <v>362331747845.44</v>
       </c>
       <c r="E30">
-        <v>0.01378229289883801</v>
+        <v>0.003443878681401901</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1474,22 +1486,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1862856908</v>
+        <v>1191742653</v>
       </c>
       <c r="C31">
-        <v>146942332</v>
+        <v>59226063</v>
       </c>
       <c r="D31">
-        <v>20363670017.84</v>
+        <v>65992632948.22001</v>
       </c>
       <c r="E31">
-        <v>0.09147942911901474</v>
+        <v>0.01805872261431182</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1497,22 +1509,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>1828067542</v>
+        <v>1186160766</v>
       </c>
       <c r="C32">
-        <v>84569166</v>
+        <v>44115307</v>
       </c>
       <c r="D32">
-        <v>64358689450.14</v>
+        <v>26626886778.84</v>
       </c>
       <c r="E32">
-        <v>0.02840436245079604</v>
+        <v>0.04454748224424887</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1520,22 +1532,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1795367160</v>
+        <v>1175142105</v>
       </c>
       <c r="C33">
-        <v>419259431</v>
+        <v>35102254</v>
       </c>
       <c r="D33">
-        <v>113447944447.12</v>
+        <v>186375148444.88</v>
       </c>
       <c r="E33">
-        <v>0.01582547104532908</v>
+        <v>0.006305251074541976</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1543,22 +1555,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>1780164354</v>
+        <v>1172861195</v>
       </c>
       <c r="C34">
-        <v>42211646</v>
+        <v>75850193</v>
       </c>
       <c r="D34">
-        <v>51388955280.61</v>
+        <v>108966149666.22</v>
       </c>
       <c r="E34">
-        <v>0.03464099132351283</v>
+        <v>0.01076353710388642</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1566,22 +1578,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>1774291363</v>
+        <v>1164810333</v>
       </c>
       <c r="C35">
-        <v>138719713</v>
+        <v>27264133</v>
       </c>
       <c r="D35">
-        <v>31201768796.4</v>
+        <v>41907437696.43999</v>
       </c>
       <c r="E35">
-        <v>0.05686508911009924</v>
+        <v>0.02779483540457426</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1589,22 +1601,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1701779294</v>
+        <v>1152659688</v>
       </c>
       <c r="C36">
-        <v>208601144</v>
+        <v>117150186</v>
       </c>
       <c r="D36">
-        <v>18509104047.92</v>
+        <v>11583584688</v>
       </c>
       <c r="E36">
-        <v>0.0919428238986663</v>
+        <v>0.09950802959934298</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1612,22 +1624,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1684802000</v>
+        <v>1128482968</v>
       </c>
       <c r="C37">
-        <v>52964291</v>
+        <v>23689947</v>
       </c>
       <c r="D37">
-        <v>66515141987.8</v>
+        <v>24032538265</v>
       </c>
       <c r="E37">
-        <v>0.02532960089462067</v>
+        <v>0.04695646192493434</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1635,22 +1647,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1615405122</v>
+        <v>1120019080</v>
       </c>
       <c r="C38">
-        <v>39560833</v>
+        <v>14365363</v>
       </c>
       <c r="D38">
-        <v>125083585006.8</v>
+        <v>131935350070.16</v>
       </c>
       <c r="E38">
-        <v>0.01291460523706752</v>
+        <v>0.008489150780320824</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1658,22 +1670,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1598396710</v>
+        <v>1104309460</v>
       </c>
       <c r="C39">
-        <v>25971882</v>
+        <v>26222903</v>
       </c>
       <c r="D39">
-        <v>56570275620.6</v>
+        <v>95903300842.36</v>
       </c>
       <c r="E39">
-        <v>0.0282550631487103</v>
+        <v>0.01151482222509939</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1681,22 +1693,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1504404949</v>
+        <v>1064456669</v>
       </c>
       <c r="C40">
-        <v>79405779</v>
+        <v>27940937</v>
       </c>
       <c r="D40">
-        <v>51400728308.39999</v>
+        <v>47372460573.95</v>
       </c>
       <c r="E40">
-        <v>0.02926816406128914</v>
+        <v>0.02246994680249609</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1704,22 +1716,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>1465159094</v>
+        <v>1062617624</v>
       </c>
       <c r="C41">
-        <v>111608076</v>
+        <v>78647622</v>
       </c>
       <c r="D41">
-        <v>203164157503.88</v>
+        <v>10088968806.1</v>
       </c>
       <c r="E41">
-        <v>0.007211700685796502</v>
+        <v>0.1053247011089497</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1727,22 +1739,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>1444278038</v>
+        <v>1023309972</v>
       </c>
       <c r="C42">
-        <v>89717885</v>
+        <v>124499222</v>
       </c>
       <c r="D42">
-        <v>19889399863.2</v>
+        <v>72810800289.39999</v>
       </c>
       <c r="E42">
-        <v>0.07261546592324533</v>
+        <v>0.01405437061442348</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G42" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1750,22 +1762,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1371925673</v>
+        <v>990138683</v>
       </c>
       <c r="C43">
-        <v>130125360</v>
+        <v>31262513</v>
       </c>
       <c r="D43">
-        <v>31504929297.6</v>
+        <v>66453017010.85001</v>
       </c>
       <c r="E43">
-        <v>0.04354638158494491</v>
+        <v>0.01489983039954885</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1773,22 +1785,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>1356350569</v>
+        <v>956097559</v>
       </c>
       <c r="C44">
-        <v>151595255</v>
+        <v>3287817</v>
       </c>
       <c r="D44">
-        <v>215138815874.06</v>
+        <v>8637000000</v>
       </c>
       <c r="E44">
-        <v>0.006304536740566581</v>
+        <v>0.1106978764617344</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G44" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1796,22 +1808,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>1334491532</v>
+        <v>952351410</v>
       </c>
       <c r="C45">
-        <v>54910468.99999999</v>
+        <v>20856693</v>
       </c>
       <c r="D45">
-        <v>43029224469</v>
+        <v>2392424292.96</v>
       </c>
       <c r="E45">
-        <v>0.03101360873843826</v>
+        <v>0.3980696119841326</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1819,22 +1831,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1323941735</v>
+        <v>946742822</v>
       </c>
       <c r="C46">
-        <v>22378155</v>
+        <v>26191008</v>
       </c>
       <c r="D46">
-        <v>241454137668.75</v>
+        <v>118668348238.58</v>
       </c>
       <c r="E46">
-        <v>0.005483201687006543</v>
+        <v>0.007978056794863237</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1842,22 +1854,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1304037268</v>
+        <v>938906424</v>
       </c>
       <c r="C47">
-        <v>81423966</v>
+        <v>78028870</v>
       </c>
       <c r="D47">
-        <v>11166990570.9</v>
+        <v>2767345139.01</v>
       </c>
       <c r="E47">
-        <v>0.1167760695883619</v>
+        <v>0.3392805656094952</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1865,22 +1877,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1286745058</v>
+        <v>934841277</v>
       </c>
       <c r="C48">
-        <v>67414227</v>
+        <v>5361468</v>
       </c>
       <c r="D48">
-        <v>18909872863.98</v>
+        <v>17416494720</v>
       </c>
       <c r="E48">
-        <v>0.06804620354962958</v>
+        <v>0.05367562715857442</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1888,22 +1900,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>1284148785</v>
+        <v>923254675</v>
       </c>
       <c r="C49">
-        <v>54528269.99999999</v>
+        <v>102372518</v>
       </c>
       <c r="D49">
-        <v>46110101590.56</v>
+        <v>116059291774.44</v>
       </c>
       <c r="E49">
-        <v>0.02784961951293771</v>
+        <v>0.007955025925837422</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1911,22 +1923,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>1283905062</v>
+        <v>889603697</v>
       </c>
       <c r="C50">
-        <v>136474673</v>
+        <v>78629073</v>
       </c>
       <c r="D50">
-        <v>42811721212.54</v>
+        <v>18584477244.24</v>
       </c>
       <c r="E50">
-        <v>0.02998956887591641</v>
+        <v>0.04786810440286773</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1934,22 +1946,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>1273766134</v>
+        <v>877317604</v>
       </c>
       <c r="C51">
-        <v>107404133</v>
+        <v>51588052</v>
       </c>
       <c r="D51">
-        <v>17085238409.61</v>
+        <v>3867297780.08</v>
       </c>
       <c r="E51">
-        <v>0.07455360606987725</v>
+        <v>0.2268554566754494</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/volume_top50.xlsx
+++ b/website/everyday-update/data/volume_top50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="136">
   <si>
     <t>amt</t>
   </si>
@@ -37,400 +37,391 @@
     <t>601318.SH</t>
   </si>
   <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
     <t>600887.SH</t>
   </si>
   <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>000725.SZ</t>
+  </si>
+  <si>
+    <t>002049.SZ</t>
+  </si>
+  <si>
+    <t>600519.SH</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>603799.SH</t>
+  </si>
+  <si>
+    <t>300383.SZ</t>
+  </si>
+  <si>
+    <t>002024.SZ</t>
+  </si>
+  <si>
+    <t>603993.SH</t>
+  </si>
+  <si>
+    <t>300059.SZ</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
+  </si>
+  <si>
+    <t>002230.SZ</t>
+  </si>
+  <si>
+    <t>601288.SH</t>
+  </si>
+  <si>
+    <t>601336.SH</t>
+  </si>
+  <si>
+    <t>600516.SH</t>
+  </si>
+  <si>
+    <t>603019.SH</t>
+  </si>
+  <si>
+    <t>600048.SH</t>
+  </si>
+  <si>
+    <t>600588.SH</t>
+  </si>
+  <si>
+    <t>002460.SZ</t>
+  </si>
+  <si>
+    <t>600036.SH</t>
+  </si>
+  <si>
+    <t>002340.SZ</t>
+  </si>
+  <si>
+    <t>600728.SH</t>
+  </si>
+  <si>
+    <t>601166.SH</t>
+  </si>
+  <si>
+    <t>603986.SH</t>
+  </si>
+  <si>
+    <t>601398.SH</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
+    <t>002742.SZ</t>
+  </si>
+  <si>
+    <t>300104.SZ</t>
+  </si>
+  <si>
+    <t>000001.SZ</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>600690.SH</t>
+  </si>
+  <si>
+    <t>600585.SH</t>
+  </si>
+  <si>
+    <t>000977.SZ</t>
+  </si>
+  <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
+    <t>002264.SZ</t>
+  </si>
+  <si>
+    <t>601601.SH</t>
+  </si>
+  <si>
+    <t>300353.SZ</t>
+  </si>
+  <si>
+    <t>600340.SH</t>
+  </si>
+  <si>
+    <t>000830.SZ</t>
+  </si>
+  <si>
+    <t>600460.SH</t>
+  </si>
+  <si>
+    <t>000935.SZ</t>
+  </si>
+  <si>
+    <t>600570.SH</t>
+  </si>
+  <si>
+    <t>000532.SZ</t>
+  </si>
+  <si>
+    <t>601933.SH</t>
+  </si>
+  <si>
     <t>601899.SH</t>
   </si>
   <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>000725.SZ</t>
-  </si>
-  <si>
-    <t>601288.SH</t>
-  </si>
-  <si>
-    <t>600588.SH</t>
-  </si>
-  <si>
-    <t>600460.SH</t>
-  </si>
-  <si>
-    <t>600728.SH</t>
-  </si>
-  <si>
-    <t>000977.SZ</t>
-  </si>
-  <si>
-    <t>002230.SZ</t>
-  </si>
-  <si>
-    <t>300353.SZ</t>
-  </si>
-  <si>
-    <t>601398.SH</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>000830.SZ</t>
-  </si>
-  <si>
-    <t>002466.SZ</t>
-  </si>
-  <si>
-    <t>000401.SZ</t>
-  </si>
-  <si>
-    <t>000732.SZ</t>
-  </si>
-  <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
-    <t>002049.SZ</t>
-  </si>
-  <si>
-    <t>601600.SH</t>
-  </si>
-  <si>
-    <t>600036.SH</t>
-  </si>
-  <si>
-    <t>600690.SH</t>
-  </si>
-  <si>
-    <t>600516.SH</t>
-  </si>
-  <si>
-    <t>000002.SZ</t>
-  </si>
-  <si>
-    <t>600048.SH</t>
-  </si>
-  <si>
-    <t>600196.SH</t>
-  </si>
-  <si>
-    <t>600490.SH</t>
-  </si>
-  <si>
-    <t>603019.SH</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>600340.SH</t>
-  </si>
-  <si>
-    <t>002497.SZ</t>
-  </si>
-  <si>
-    <t>601939.SH</t>
-  </si>
-  <si>
-    <t>600585.SH</t>
-  </si>
-  <si>
-    <t>300618.SZ</t>
-  </si>
-  <si>
-    <t>000025.SZ</t>
-  </si>
-  <si>
-    <t>600104.SH</t>
-  </si>
-  <si>
-    <t>300216.SZ</t>
-  </si>
-  <si>
-    <t>603986.SH</t>
-  </si>
-  <si>
-    <t>601668.SH</t>
-  </si>
-  <si>
-    <t>002146.SZ</t>
-  </si>
-  <si>
-    <t>600093.SH</t>
+    <t>600028.SH</t>
   </si>
   <si>
     <t>非银行金融-保险Ⅱ-保险Ⅲ</t>
   </si>
   <si>
+    <t>家电-白色家电Ⅱ-白色家电Ⅲ</t>
+  </si>
+  <si>
     <t>食品饮料-食品-乳制品</t>
   </si>
   <si>
+    <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
+  </si>
+  <si>
+    <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
+  </si>
+  <si>
+    <t>食品饮料-白酒Ⅱ-白酒Ⅲ</t>
+  </si>
+  <si>
+    <t>有色金属-工业金属-镍钴</t>
+  </si>
+  <si>
+    <t>通信-电信运营Ⅱ-电信运营Ⅲ</t>
+  </si>
+  <si>
+    <t>商贸零售-零售-连锁</t>
+  </si>
+  <si>
+    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
+  </si>
+  <si>
+    <t>传媒-传媒Ⅱ-互联网</t>
+  </si>
+  <si>
+    <t>计算机-计算机软件-行业应用软件</t>
+  </si>
+  <si>
+    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
+  </si>
+  <si>
+    <t>建材-其他建材-新型建材及非金属新材料</t>
+  </si>
+  <si>
+    <t>计算机-计算机硬件-PC及服务器硬件</t>
+  </si>
+  <si>
+    <t>房地产-房地产开发管理-住宅地产</t>
+  </si>
+  <si>
+    <t>计算机-计算机软件-基础软件及套装软件</t>
+  </si>
+  <si>
+    <t>银行-股份制与城商行-股份制银行</t>
+  </si>
+  <si>
+    <t>电力及公用事业-环保及公用事业-环保</t>
+  </si>
+  <si>
+    <t>计算机-IT服务-系统集成及IT咨询</t>
+  </si>
+  <si>
+    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
+  </si>
+  <si>
+    <t>电子元器件-电子设备Ⅱ-电子设备Ⅲ</t>
+  </si>
+  <si>
+    <t>通信-通信设备制造-系统设备</t>
+  </si>
+  <si>
+    <t>医药-化学制药-化学制剂</t>
+  </si>
+  <si>
+    <t>建材-水泥Ⅱ-水泥Ⅲ</t>
+  </si>
+  <si>
+    <t>商贸零售-零售-超市</t>
+  </si>
+  <si>
+    <t>通信-通信设备制造-通信终端及配件</t>
+  </si>
+  <si>
+    <t>基础化工-农用化工-氮肥</t>
+  </si>
+  <si>
     <t>有色金属-贵金属-黄金</t>
   </si>
   <si>
-    <t>食品饮料-白酒Ⅱ-白酒Ⅲ</t>
-  </si>
-  <si>
-    <t>家电-白色家电Ⅱ-白色家电Ⅲ</t>
-  </si>
-  <si>
-    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
-  </si>
-  <si>
-    <t>有色金属-工业金属-镍钴</t>
-  </si>
-  <si>
-    <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
-  </si>
-  <si>
-    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
-  </si>
-  <si>
-    <t>计算机-计算机软件-基础软件及套装软件</t>
-  </si>
-  <si>
-    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
-  </si>
-  <si>
-    <t>计算机-IT服务-系统集成及IT咨询</t>
-  </si>
-  <si>
-    <t>计算机-计算机硬件-PC及服务器硬件</t>
-  </si>
-  <si>
-    <t>计算机-计算机软件-行业应用软件</t>
-  </si>
-  <si>
-    <t>通信-通信设备制造-通信终端及配件</t>
-  </si>
-  <si>
-    <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
-  </si>
-  <si>
-    <t>基础化工-农用化工-氮肥</t>
-  </si>
-  <si>
-    <t>建材-水泥Ⅱ-水泥Ⅲ</t>
-  </si>
-  <si>
-    <t>房地产-房地产开发管理-住宅地产</t>
-  </si>
-  <si>
-    <t>通信-通信设备制造-系统设备</t>
-  </si>
-  <si>
-    <t>电力及公用事业-环保及公用事业-环保</t>
-  </si>
-  <si>
-    <t>有色金属-工业金属-铝</t>
-  </si>
-  <si>
-    <t>银行-股份制与城商行-股份制银行</t>
-  </si>
-  <si>
-    <t>建材-其他建材-新型建材及非金属新材料</t>
-  </si>
-  <si>
-    <t>医药-化学制药-化学制剂</t>
-  </si>
-  <si>
-    <t>有色金属-工业金属-铜</t>
-  </si>
-  <si>
-    <t>电子元器件-电子设备Ⅱ-电子设备Ⅲ</t>
-  </si>
-  <si>
-    <t>基础化工-化学制品-民爆用品</t>
-  </si>
-  <si>
-    <t>汽车-汽车销售及服务Ⅱ-汽车销售及服务Ⅲ</t>
-  </si>
-  <si>
-    <t>汽车-乘用车Ⅱ-乘用车Ⅲ</t>
-  </si>
-  <si>
-    <t>机械-其他专用设备-其他专用机械</t>
-  </si>
-  <si>
-    <t>建筑-建筑施工Ⅱ-建筑施工Ⅲ</t>
-  </si>
-  <si>
-    <t>汽车-汽车零部件Ⅱ-汽车零部件Ⅲ</t>
+    <t>石油石化-石油化工-炼油</t>
   </si>
   <si>
     <t>中国平安</t>
   </si>
   <si>
+    <t>格力电器</t>
+  </si>
+  <si>
     <t>伊利股份</t>
   </si>
   <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>京东方A</t>
+  </si>
+  <si>
+    <t>紫光国芯</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>华友钴业</t>
+  </si>
+  <si>
+    <t>光环新网</t>
+  </si>
+  <si>
+    <t>苏宁易购</t>
+  </si>
+  <si>
+    <t>洛阳钼业</t>
+  </si>
+  <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>新华保险</t>
+  </si>
+  <si>
+    <t>方大炭素</t>
+  </si>
+  <si>
+    <t>中科曙光</t>
+  </si>
+  <si>
+    <t>保利地产</t>
+  </si>
+  <si>
+    <t>用友网络</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>佳都科技</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>三圣股份</t>
+  </si>
+  <si>
+    <t>乐视网</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>青岛海尔</t>
+  </si>
+  <si>
+    <t>海螺水泥</t>
+  </si>
+  <si>
+    <t>浪潮信息</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>新华都</t>
+  </si>
+  <si>
+    <t>中国太保</t>
+  </si>
+  <si>
+    <t>东土科技</t>
+  </si>
+  <si>
+    <t>华夏幸福</t>
+  </si>
+  <si>
+    <t>鲁西化工</t>
+  </si>
+  <si>
+    <t>士兰微</t>
+  </si>
+  <si>
+    <t>四川双马</t>
+  </si>
+  <si>
+    <t>恒生电子</t>
+  </si>
+  <si>
+    <t>华金资本</t>
+  </si>
+  <si>
+    <t>永辉超市</t>
+  </si>
+  <si>
     <t>紫金矿业</t>
   </si>
   <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>格力电器</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>洛阳钼业</t>
-  </si>
-  <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>美的集团</t>
-  </si>
-  <si>
-    <t>京东方A</t>
-  </si>
-  <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>用友网络</t>
-  </si>
-  <si>
-    <t>士兰微</t>
-  </si>
-  <si>
-    <t>佳都科技</t>
-  </si>
-  <si>
-    <t>浪潮信息</t>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-  </si>
-  <si>
-    <t>东土科技</t>
-  </si>
-  <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>中信证券</t>
-  </si>
-  <si>
-    <t>鲁西化工</t>
-  </si>
-  <si>
-    <t>天齐锂业</t>
-  </si>
-  <si>
-    <t>冀东水泥</t>
-  </si>
-  <si>
-    <t>泰禾集团</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>紫光国芯</t>
-  </si>
-  <si>
-    <t>中国铝业</t>
-  </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
-    <t>青岛海尔</t>
-  </si>
-  <si>
-    <t>方大炭素</t>
-  </si>
-  <si>
-    <t>万科A</t>
-  </si>
-  <si>
-    <t>保利地产</t>
-  </si>
-  <si>
-    <t>复星医药</t>
-  </si>
-  <si>
-    <t>鹏欣资源</t>
-  </si>
-  <si>
-    <t>中科曙光</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>华夏幸福</t>
-  </si>
-  <si>
-    <t>雅化集团</t>
-  </si>
-  <si>
-    <t>建设银行</t>
-  </si>
-  <si>
-    <t>海螺水泥</t>
-  </si>
-  <si>
-    <t>寒锐钴业</t>
-  </si>
-  <si>
-    <t>特力A</t>
-  </si>
-  <si>
-    <t>上汽集团</t>
-  </si>
-  <si>
-    <t>千山药机</t>
-  </si>
-  <si>
-    <t>兆易创新</t>
-  </si>
-  <si>
-    <t>中国建筑</t>
-  </si>
-  <si>
-    <t>荣盛发展</t>
-  </si>
-  <si>
-    <t>易见股份</t>
+    <t>中国石化</t>
   </si>
 </sst>
 </file>
@@ -819,22 +810,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4847200944</v>
+        <v>6578006315</v>
       </c>
       <c r="C2">
-        <v>69268165</v>
+        <v>90287752</v>
       </c>
       <c r="D2">
-        <v>696225948233.8401</v>
+        <v>719321620460.48</v>
       </c>
       <c r="E2">
-        <v>0.00696210900541153</v>
+        <v>0.009144735995546794</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -842,22 +833,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3989439107</v>
+        <v>4246434652</v>
       </c>
       <c r="C3">
-        <v>129995866</v>
+        <v>84282065</v>
       </c>
       <c r="D3">
-        <v>171136595668.5</v>
+        <v>216476879697.8</v>
       </c>
       <c r="E3">
-        <v>0.02331143196705712</v>
+        <v>0.01961611169713823</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -865,22 +856,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3040178320</v>
+        <v>3271910148</v>
       </c>
       <c r="C4">
-        <v>635166620</v>
+        <v>111363137</v>
       </c>
       <c r="D4">
-        <v>48838411265.4</v>
+        <v>156033111987.28</v>
       </c>
       <c r="E4">
-        <v>0.0622497382946984</v>
+        <v>0.02096933212654715</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -888,22 +879,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2984000307</v>
+        <v>2844230252</v>
       </c>
       <c r="C5">
-        <v>39520411</v>
+        <v>150910291</v>
       </c>
       <c r="D5">
-        <v>128221487779.5</v>
+        <v>146608761297.04</v>
       </c>
       <c r="E5">
-        <v>0.02327223274878488</v>
+        <v>0.01940013834669391</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -911,22 +902,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>2870027550</v>
+        <v>2799489762</v>
       </c>
       <c r="C6">
-        <v>54830779</v>
+        <v>490705774</v>
       </c>
       <c r="D6">
-        <v>230619457409.52</v>
+        <v>133696926396.56</v>
       </c>
       <c r="E6">
-        <v>0.01244486298874418</v>
+        <v>0.02093907345107098</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -934,22 +925,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2832570305</v>
+        <v>2792969316</v>
       </c>
       <c r="C7">
-        <v>39420830</v>
+        <v>56434686</v>
       </c>
       <c r="D7">
-        <v>32619758647.5</v>
+        <v>17043482461.96</v>
       </c>
       <c r="E7">
-        <v>0.08683602891148583</v>
+        <v>0.1638731592697522</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -957,22 +948,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>2637520003</v>
+        <v>2748721669</v>
       </c>
       <c r="C8">
-        <v>313648156</v>
+        <v>3748697</v>
       </c>
       <c r="D8">
-        <v>19173415950.63</v>
+        <v>326455556682.56</v>
       </c>
       <c r="E8">
-        <v>0.1375612989251055</v>
+        <v>0.008419895488784133</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -980,22 +971,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>2540452000</v>
+        <v>2389981815</v>
       </c>
       <c r="C9">
-        <v>3534930</v>
+        <v>32849545</v>
       </c>
       <c r="D9">
-        <v>324962839009.3199</v>
+        <v>120268087302.15</v>
       </c>
       <c r="E9">
-        <v>0.00781766926872257</v>
+        <v>0.01987211960056901</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1003,22 +994,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>2343077006</v>
+        <v>2362028415</v>
       </c>
       <c r="C10">
-        <v>19845781</v>
+        <v>18790461</v>
       </c>
       <c r="D10">
-        <v>31567868563.54</v>
+        <v>41171565760.89</v>
       </c>
       <c r="E10">
-        <v>0.07422347825871868</v>
+        <v>0.0573703810226172</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1026,22 +1017,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>2206248601</v>
+        <v>2322874121</v>
       </c>
       <c r="C11">
-        <v>38051889</v>
+        <v>135065666</v>
       </c>
       <c r="D11">
-        <v>245323120061.41</v>
+        <v>14129986793.58</v>
       </c>
       <c r="E11">
-        <v>0.008993235535434758</v>
+        <v>0.1643932266133047</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1049,22 +1040,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>2154019969</v>
+        <v>2322652723</v>
       </c>
       <c r="C12">
-        <v>379300538</v>
+        <v>167121709</v>
       </c>
       <c r="D12">
-        <v>134403072134.57</v>
+        <v>48183546315.52</v>
       </c>
       <c r="E12">
-        <v>0.01602656795555465</v>
+        <v>0.04820427097230637</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1072,22 +1063,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>2074853609</v>
+        <v>2145507963</v>
       </c>
       <c r="C13">
-        <v>514695212</v>
+        <v>231864138</v>
       </c>
       <c r="D13">
-        <v>142440622553.7</v>
+        <v>21120537044.78</v>
       </c>
       <c r="E13">
-        <v>0.01456644580599036</v>
+        <v>0.101583968175197</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1095,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>2060409294</v>
+        <v>1990204252</v>
       </c>
       <c r="C14">
-        <v>52065371</v>
+        <v>128807954</v>
       </c>
       <c r="D14">
-        <v>26600591286.9</v>
+        <v>45146252712.95999</v>
       </c>
       <c r="E14">
-        <v>0.07745727423039239</v>
+        <v>0.04408348716456545</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1118,22 +1109,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1701517690</v>
+        <v>1886620309</v>
       </c>
       <c r="C15">
-        <v>102312637</v>
+        <v>32937831</v>
       </c>
       <c r="D15">
-        <v>11763968054.25</v>
+        <v>235911535093.7</v>
       </c>
       <c r="E15">
-        <v>0.1446380746830818</v>
+        <v>0.007997151594349411</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1141,22 +1132,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1699086741</v>
+        <v>1713673897</v>
       </c>
       <c r="C16">
-        <v>160515512</v>
+        <v>28938261</v>
       </c>
       <c r="D16">
-        <v>10111144155.07</v>
+        <v>54275017574.4</v>
       </c>
       <c r="E16">
-        <v>0.1680409966411202</v>
+        <v>0.03157389851879646</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1164,22 +1155,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1669792317</v>
+        <v>1697211574</v>
       </c>
       <c r="C17">
-        <v>79140994</v>
+        <v>418370567</v>
       </c>
       <c r="D17">
-        <v>15852714614.1</v>
+        <v>143857942181.1</v>
       </c>
       <c r="E17">
-        <v>0.1053316329504111</v>
+        <v>0.01179783019461945</v>
       </c>
       <c r="F17" t="s">
         <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1187,22 +1178,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>1566044686</v>
+        <v>1689125097</v>
       </c>
       <c r="C18">
-        <v>27256351</v>
+        <v>35511518</v>
       </c>
       <c r="D18">
-        <v>52717191832.2</v>
+        <v>33143809639.5</v>
       </c>
       <c r="E18">
-        <v>0.0297065270658717</v>
+        <v>0.05096351672823214</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1210,22 +1201,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1547411181</v>
+        <v>1677069784</v>
       </c>
       <c r="C19">
-        <v>85343807</v>
+        <v>61672705.00000001</v>
       </c>
       <c r="D19">
-        <v>4874127986.07</v>
+        <v>26972818863.94</v>
       </c>
       <c r="E19">
-        <v>0.3174744662886201</v>
+        <v>0.06217628911756335</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1233,22 +1224,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1517502717</v>
+        <v>1606021479</v>
       </c>
       <c r="C20">
-        <v>230681757</v>
+        <v>32693419</v>
       </c>
       <c r="D20">
-        <v>141244108457.2</v>
+        <v>24680151927.72</v>
       </c>
       <c r="E20">
-        <v>0.01074383019281711</v>
+        <v>0.06507340326362275</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1256,22 +1247,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1461994751</v>
+        <v>1505140366</v>
       </c>
       <c r="C21">
-        <v>79784363</v>
+        <v>109728371</v>
       </c>
       <c r="D21">
-        <v>143717223894.06</v>
+        <v>95503150479.65999</v>
       </c>
       <c r="E21">
-        <v>0.01017271772573131</v>
+        <v>0.0157601121893938</v>
       </c>
       <c r="F21" t="s">
         <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1279,22 +1270,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1452657111</v>
+        <v>1462130957</v>
       </c>
       <c r="C22">
-        <v>74650085</v>
+        <v>41206171</v>
       </c>
       <c r="D22">
-        <v>19152805454.73</v>
+        <v>23343927583.5</v>
       </c>
       <c r="E22">
-        <v>0.07584565688998057</v>
+        <v>0.06263431685906472</v>
       </c>
       <c r="F22" t="s">
         <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1302,22 +1293,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1431996048</v>
+        <v>1449605706</v>
       </c>
       <c r="C23">
-        <v>24066568</v>
+        <v>19078596</v>
       </c>
       <c r="D23">
-        <v>39520278450.75</v>
+        <v>35289285778.6</v>
       </c>
       <c r="E23">
-        <v>0.03623446251231623</v>
+        <v>0.04107778533956798</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1325,22 +1316,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1391813434</v>
+        <v>1386451117</v>
       </c>
       <c r="C24">
-        <v>93117935</v>
+        <v>44627524</v>
       </c>
       <c r="D24">
-        <v>13276312581.45</v>
+        <v>365964440013.36</v>
       </c>
       <c r="E24">
-        <v>0.1048343375060841</v>
+        <v>0.003788485889365059</v>
       </c>
       <c r="F24" t="s">
         <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1348,22 +1339,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1341601302</v>
+        <v>1323527120</v>
       </c>
       <c r="C25">
-        <v>42553790</v>
+        <v>171188656</v>
       </c>
       <c r="D25">
-        <v>15312640868.98</v>
+        <v>20070352563.8</v>
       </c>
       <c r="E25">
-        <v>0.08761397289201665</v>
+        <v>0.06594438816123176</v>
       </c>
       <c r="F25" t="s">
         <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1371,22 +1362,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1340499640</v>
+        <v>1297680630</v>
       </c>
       <c r="C26">
-        <v>41137756</v>
+        <v>120190736</v>
       </c>
       <c r="D26">
-        <v>70662084736.60001</v>
+        <v>10273764259.74</v>
       </c>
       <c r="E26">
-        <v>0.01897056455377515</v>
+        <v>0.1263101427278458</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1394,22 +1385,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1328791022</v>
+        <v>1291892397</v>
       </c>
       <c r="C27">
-        <v>180966994</v>
+        <v>74318788</v>
       </c>
       <c r="D27">
-        <v>19053802239.14</v>
+        <v>261176434990.25</v>
       </c>
       <c r="E27">
-        <v>0.06973889018698955</v>
+        <v>0.004946435527570578</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1417,22 +1408,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>1307246676</v>
+        <v>1282868543</v>
       </c>
       <c r="C28">
-        <v>28200149</v>
+        <v>6862630</v>
       </c>
       <c r="D28">
-        <v>16397468110.15</v>
+        <v>18355856588</v>
       </c>
       <c r="E28">
-        <v>0.07972247100702193</v>
+        <v>0.06988878654884814</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1440,22 +1431,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>1288355630</v>
+        <v>1259729602</v>
       </c>
       <c r="C29">
-        <v>243098494</v>
+        <v>196105509</v>
       </c>
       <c r="D29">
-        <v>30849113570.43</v>
+        <v>139518989575.28</v>
       </c>
       <c r="E29">
-        <v>0.04176313290359616</v>
+        <v>0.009029090633718288</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1463,22 +1454,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1247826582</v>
+        <v>1245667584</v>
       </c>
       <c r="C30">
-        <v>40500723</v>
+        <v>28378341</v>
       </c>
       <c r="D30">
-        <v>362331747845.44</v>
+        <v>95752885157.15999</v>
       </c>
       <c r="E30">
-        <v>0.003443878681401901</v>
+        <v>0.01300919112730103</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1486,22 +1477,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1191742653</v>
+        <v>1225895834</v>
       </c>
       <c r="C31">
-        <v>59226063</v>
+        <v>55192646</v>
       </c>
       <c r="D31">
-        <v>65992632948.22001</v>
+        <v>3302171897.85</v>
       </c>
       <c r="E31">
-        <v>0.01805872261431182</v>
+        <v>0.3712392546245592</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1509,22 +1500,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>1186160766</v>
+        <v>1215137362</v>
       </c>
       <c r="C32">
-        <v>44115307</v>
+        <v>218535320</v>
       </c>
       <c r="D32">
-        <v>26626886778.84</v>
+        <v>14965508904.92</v>
       </c>
       <c r="E32">
-        <v>0.04454748224424887</v>
+        <v>0.08119585974122914</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1532,22 +1523,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1175142105</v>
+        <v>1155741055</v>
       </c>
       <c r="C33">
-        <v>35102254</v>
+        <v>98427842</v>
       </c>
       <c r="D33">
-        <v>186375148444.88</v>
+        <v>88735885601.44</v>
       </c>
       <c r="E33">
-        <v>0.006305251074541976</v>
+        <v>0.0130245057810213</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1555,22 +1546,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>1172861195</v>
+        <v>1155649316</v>
       </c>
       <c r="C34">
-        <v>75850193</v>
+        <v>36606867</v>
       </c>
       <c r="D34">
-        <v>108966149666.22</v>
+        <v>67803966101.76</v>
       </c>
       <c r="E34">
-        <v>0.01076353710388642</v>
+        <v>0.01704397813935552</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1578,22 +1569,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>1164810333</v>
+        <v>1138462175</v>
       </c>
       <c r="C35">
-        <v>27264133</v>
+        <v>25257509</v>
       </c>
       <c r="D35">
-        <v>41907437696.43999</v>
+        <v>43591131779.45999</v>
       </c>
       <c r="E35">
-        <v>0.02779483540457426</v>
+        <v>0.02611682992677974</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1601,22 +1592,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1152659688</v>
+        <v>1108411323</v>
       </c>
       <c r="C36">
-        <v>117150186</v>
+        <v>58131218.99999999</v>
       </c>
       <c r="D36">
-        <v>11583584688</v>
+        <v>61500480166.73</v>
       </c>
       <c r="E36">
-        <v>0.09950802959934298</v>
+        <v>0.01802280762678693</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1624,22 +1615,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1128482968</v>
+        <v>1074175685</v>
       </c>
       <c r="C37">
-        <v>23689947</v>
+        <v>33066290</v>
       </c>
       <c r="D37">
-        <v>24032538265</v>
+        <v>67177808408.6</v>
       </c>
       <c r="E37">
-        <v>0.04695646192493434</v>
+        <v>0.01599003763960966</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1647,22 +1638,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1120019080</v>
+        <v>1073954342</v>
       </c>
       <c r="C38">
-        <v>14365363</v>
+        <v>49655109</v>
       </c>
       <c r="D38">
-        <v>131935350070.16</v>
+        <v>15958098282</v>
       </c>
       <c r="E38">
-        <v>0.008489150780320824</v>
+        <v>0.06729839126328549</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1670,22 +1661,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1104309460</v>
+        <v>1071927754</v>
       </c>
       <c r="C39">
-        <v>26222903</v>
+        <v>12460820</v>
       </c>
       <c r="D39">
-        <v>95903300842.36</v>
+        <v>144798456651.24</v>
       </c>
       <c r="E39">
-        <v>0.01151482222509939</v>
+        <v>0.007402894884313813</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1693,22 +1684,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1064456669</v>
+        <v>1067705173</v>
       </c>
       <c r="C40">
-        <v>27940937</v>
+        <v>91350611</v>
       </c>
       <c r="D40">
-        <v>47372460573.95</v>
+        <v>3910502635.78</v>
       </c>
       <c r="E40">
-        <v>0.02246994680249609</v>
+        <v>0.2730352776726955</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1716,22 +1707,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>1062617624</v>
+        <v>1044258602</v>
       </c>
       <c r="C41">
-        <v>78647622</v>
+        <v>26633258</v>
       </c>
       <c r="D41">
-        <v>10088968806.1</v>
+        <v>130553884151.36</v>
       </c>
       <c r="E41">
-        <v>0.1053247011089497</v>
+        <v>0.007998678927003964</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1739,22 +1730,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>1023309972</v>
+        <v>1040790937</v>
       </c>
       <c r="C42">
-        <v>124499222</v>
+        <v>58940354</v>
       </c>
       <c r="D42">
-        <v>72810800289.39999</v>
+        <v>4787271874.8</v>
       </c>
       <c r="E42">
-        <v>0.01405437061442348</v>
+        <v>0.2174079442779676</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1762,22 +1753,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>990138683</v>
+        <v>1031772765</v>
       </c>
       <c r="C43">
-        <v>31262513</v>
+        <v>30538140</v>
       </c>
       <c r="D43">
-        <v>66453017010.85001</v>
+        <v>41976065845.37</v>
       </c>
       <c r="E43">
-        <v>0.01489983039954885</v>
+        <v>0.02458002540783144</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1785,22 +1776,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>956097559</v>
+        <v>1026140416</v>
       </c>
       <c r="C44">
-        <v>3287817</v>
+        <v>59356765</v>
       </c>
       <c r="D44">
-        <v>8637000000</v>
+        <v>16810935279.9</v>
       </c>
       <c r="E44">
-        <v>0.1106978764617344</v>
+        <v>0.06104005511382256</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1808,22 +1799,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>952351410</v>
+        <v>1003125374</v>
       </c>
       <c r="C45">
-        <v>20856693</v>
+        <v>63818393.99999999</v>
       </c>
       <c r="D45">
-        <v>2392424292.96</v>
+        <v>10949269371.09</v>
       </c>
       <c r="E45">
-        <v>0.3980696119841326</v>
+        <v>0.09161573617401458</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1831,22 +1822,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>946742822</v>
+        <v>1002818040</v>
       </c>
       <c r="C46">
-        <v>26191008</v>
+        <v>47882920</v>
       </c>
       <c r="D46">
-        <v>118668348238.58</v>
+        <v>4231099660.89</v>
       </c>
       <c r="E46">
-        <v>0.007978056794863237</v>
+        <v>0.2370112075755408</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1854,22 +1845,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>938906424</v>
+        <v>993155704</v>
       </c>
       <c r="C47">
-        <v>78028870</v>
+        <v>19211363</v>
       </c>
       <c r="D47">
-        <v>2767345139.01</v>
+        <v>25278162642.72</v>
       </c>
       <c r="E47">
-        <v>0.3392805656094952</v>
+        <v>0.03928907800923673</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1877,22 +1868,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>934841277</v>
+        <v>986241770</v>
       </c>
       <c r="C48">
-        <v>5361468</v>
+        <v>59223255.00000001</v>
       </c>
       <c r="D48">
-        <v>17416494720</v>
+        <v>2800606221.7</v>
       </c>
       <c r="E48">
-        <v>0.05367562715857442</v>
+        <v>0.3521529597264624</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1900,22 +1891,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>923254675</v>
+        <v>964557979</v>
       </c>
       <c r="C49">
-        <v>102372518</v>
+        <v>93394515</v>
       </c>
       <c r="D49">
-        <v>116059291774.44</v>
+        <v>38018862910.44</v>
       </c>
       <c r="E49">
-        <v>0.007955025925837422</v>
+        <v>0.02537051098219804</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1923,22 +1914,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>889603697</v>
+        <v>961274662</v>
       </c>
       <c r="C50">
-        <v>78629073</v>
+        <v>209454663</v>
       </c>
       <c r="D50">
-        <v>18584477244.24</v>
+        <v>46305298647.9</v>
       </c>
       <c r="E50">
-        <v>0.04786810440286773</v>
+        <v>0.02075949599870672</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1946,22 +1937,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>877317604</v>
+        <v>951133867</v>
       </c>
       <c r="C51">
-        <v>51588052</v>
+        <v>138413911</v>
       </c>
       <c r="D51">
-        <v>3867297780.08</v>
+        <v>66793283623.8</v>
       </c>
       <c r="E51">
-        <v>0.2268554566754494</v>
+        <v>0.01423996269381026</v>
       </c>
       <c r="F51" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/volume_top50.xlsx
+++ b/website/everyday-update/data/volume_top50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="135">
   <si>
     <t>amt</t>
   </si>
@@ -37,391 +37,388 @@
     <t>601318.SH</t>
   </si>
   <si>
+    <t>600519.SH</t>
+  </si>
+  <si>
     <t>000651.SZ</t>
   </si>
   <si>
+    <t>600048.SH</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>000002.SZ</t>
+  </si>
+  <si>
+    <t>000725.SZ</t>
+  </si>
+  <si>
+    <t>601398.SH</t>
+  </si>
+  <si>
     <t>600887.SH</t>
   </si>
   <si>
     <t>600030.SH</t>
   </si>
   <si>
-    <t>000725.SZ</t>
+    <t>300059.SZ</t>
+  </si>
+  <si>
+    <t>603799.SH</t>
+  </si>
+  <si>
+    <t>600703.SH</t>
+  </si>
+  <si>
+    <t>002460.SZ</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
   </si>
   <si>
     <t>002049.SZ</t>
   </si>
   <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
+    <t>600570.SH</t>
+  </si>
+  <si>
+    <t>600036.SH</t>
+  </si>
+  <si>
+    <t>601288.SH</t>
+  </si>
+  <si>
+    <t>000977.SZ</t>
+  </si>
+  <si>
+    <t>000830.SZ</t>
+  </si>
+  <si>
+    <t>002230.SZ</t>
+  </si>
+  <si>
+    <t>601939.SH</t>
+  </si>
+  <si>
+    <t>600585.SH</t>
+  </si>
+  <si>
+    <t>603019.SH</t>
+  </si>
+  <si>
+    <t>601601.SH</t>
+  </si>
+  <si>
+    <t>603993.SH</t>
+  </si>
+  <si>
+    <t>600029.SH</t>
+  </si>
+  <si>
+    <t>600340.SH</t>
+  </si>
+  <si>
+    <t>600516.SH</t>
   </si>
   <si>
     <t>300383.SZ</t>
   </si>
   <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>000001.SZ</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>601336.SH</t>
+  </si>
+  <si>
+    <t>600690.SH</t>
+  </si>
+  <si>
+    <t>300104.SZ</t>
+  </si>
+  <si>
+    <t>601166.SH</t>
+  </si>
+  <si>
     <t>002024.SZ</t>
   </si>
   <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>300059.SZ</t>
-  </si>
-  <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>002230.SZ</t>
-  </si>
-  <si>
-    <t>601288.SH</t>
-  </si>
-  <si>
-    <t>601336.SH</t>
-  </si>
-  <si>
-    <t>600516.SH</t>
-  </si>
-  <si>
-    <t>603019.SH</t>
-  </si>
-  <si>
-    <t>600048.SH</t>
+    <t>600271.SH</t>
+  </si>
+  <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
+    <t>601899.SH</t>
+  </si>
+  <si>
+    <t>601155.SH</t>
   </si>
   <si>
     <t>600588.SH</t>
   </si>
   <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>600036.SH</t>
-  </si>
-  <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
-    <t>600728.SH</t>
-  </si>
-  <si>
-    <t>601166.SH</t>
-  </si>
-  <si>
-    <t>603986.SH</t>
-  </si>
-  <si>
-    <t>601398.SH</t>
-  </si>
-  <si>
     <t>002415.SZ</t>
   </si>
   <si>
-    <t>002742.SZ</t>
-  </si>
-  <si>
-    <t>300104.SZ</t>
-  </si>
-  <si>
-    <t>000001.SZ</t>
-  </si>
-  <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>600196.SH</t>
-  </si>
-  <si>
-    <t>600690.SH</t>
-  </si>
-  <si>
-    <t>600585.SH</t>
-  </si>
-  <si>
-    <t>000977.SZ</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>002264.SZ</t>
-  </si>
-  <si>
-    <t>601601.SH</t>
-  </si>
-  <si>
-    <t>300353.SZ</t>
-  </si>
-  <si>
-    <t>600340.SH</t>
-  </si>
-  <si>
-    <t>000830.SZ</t>
-  </si>
-  <si>
-    <t>600460.SH</t>
-  </si>
-  <si>
-    <t>000935.SZ</t>
-  </si>
-  <si>
-    <t>600570.SH</t>
-  </si>
-  <si>
-    <t>000532.SZ</t>
-  </si>
-  <si>
-    <t>601933.SH</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
     <t>600028.SH</t>
   </si>
   <si>
+    <t>002405.SZ</t>
+  </si>
+  <si>
+    <t>001979.SZ</t>
+  </si>
+  <si>
+    <t>000732.SZ</t>
+  </si>
+  <si>
+    <t>601111.SH</t>
+  </si>
+  <si>
     <t>非银行金融-保险Ⅱ-保险Ⅲ</t>
   </si>
   <si>
+    <t>食品饮料-白酒Ⅱ-白酒Ⅲ</t>
+  </si>
+  <si>
     <t>家电-白色家电Ⅱ-白色家电Ⅲ</t>
   </si>
   <si>
+    <t>房地产-房地产开发管理-住宅地产</t>
+  </si>
+  <si>
+    <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
+  </si>
+  <si>
+    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
+  </si>
+  <si>
     <t>食品饮料-食品-乳制品</t>
   </si>
   <si>
     <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
   </si>
   <si>
-    <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
-  </si>
-  <si>
-    <t>食品饮料-白酒Ⅱ-白酒Ⅲ</t>
+    <t>传媒-传媒Ⅱ-互联网</t>
   </si>
   <si>
     <t>有色金属-工业金属-镍钴</t>
   </si>
   <si>
+    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
+  </si>
+  <si>
+    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
+  </si>
+  <si>
+    <t>计算机-计算机软件-行业应用软件</t>
+  </si>
+  <si>
+    <t>银行-股份制与城商行-股份制银行</t>
+  </si>
+  <si>
+    <t>计算机-计算机硬件-PC及服务器硬件</t>
+  </si>
+  <si>
+    <t>基础化工-农用化工-氮肥</t>
+  </si>
+  <si>
+    <t>建材-水泥Ⅱ-水泥Ⅲ</t>
+  </si>
+  <si>
+    <t>交通运输-航空机场-航空</t>
+  </si>
+  <si>
+    <t>建材-其他建材-新型建材及非金属新材料</t>
+  </si>
+  <si>
     <t>通信-电信运营Ⅱ-电信运营Ⅲ</t>
   </si>
   <si>
+    <t>通信-通信设备制造-系统设备</t>
+  </si>
+  <si>
+    <t>医药-化学制药-化学制剂</t>
+  </si>
+  <si>
     <t>商贸零售-零售-连锁</t>
   </si>
   <si>
-    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
-  </si>
-  <si>
-    <t>传媒-传媒Ⅱ-互联网</t>
-  </si>
-  <si>
-    <t>计算机-计算机软件-行业应用软件</t>
-  </si>
-  <si>
-    <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
-  </si>
-  <si>
-    <t>建材-其他建材-新型建材及非金属新材料</t>
-  </si>
-  <si>
-    <t>计算机-计算机硬件-PC及服务器硬件</t>
-  </si>
-  <si>
-    <t>房地产-房地产开发管理-住宅地产</t>
+    <t>计算机-IT服务-系统集成及IT咨询</t>
+  </si>
+  <si>
+    <t>有色金属-贵金属-黄金</t>
   </si>
   <si>
     <t>计算机-计算机软件-基础软件及套装软件</t>
   </si>
   <si>
-    <t>银行-股份制与城商行-股份制银行</t>
-  </si>
-  <si>
-    <t>电力及公用事业-环保及公用事业-环保</t>
-  </si>
-  <si>
-    <t>计算机-IT服务-系统集成及IT咨询</t>
-  </si>
-  <si>
-    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
-  </si>
-  <si>
     <t>电子元器件-电子设备Ⅱ-电子设备Ⅲ</t>
   </si>
   <si>
-    <t>通信-通信设备制造-系统设备</t>
-  </si>
-  <si>
-    <t>医药-化学制药-化学制剂</t>
-  </si>
-  <si>
-    <t>建材-水泥Ⅱ-水泥Ⅲ</t>
-  </si>
-  <si>
-    <t>商贸零售-零售-超市</t>
-  </si>
-  <si>
-    <t>通信-通信设备制造-通信终端及配件</t>
-  </si>
-  <si>
-    <t>基础化工-农用化工-氮肥</t>
-  </si>
-  <si>
-    <t>有色金属-贵金属-黄金</t>
-  </si>
-  <si>
     <t>石油石化-石油化工-炼油</t>
   </si>
   <si>
+    <t>房地产-房地产开发管理-园区</t>
+  </si>
+  <si>
     <t>中国平安</t>
   </si>
   <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
     <t>格力电器</t>
   </si>
   <si>
+    <t>保利地产</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>万科A</t>
+  </si>
+  <si>
+    <t>京东方A</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
     <t>伊利股份</t>
   </si>
   <si>
     <t>中信证券</t>
   </si>
   <si>
-    <t>京东方A</t>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>华友钴业</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>美的集团</t>
   </si>
   <si>
     <t>紫光国芯</t>
   </si>
   <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
+    <t>恒生电子</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>浪潮信息</t>
+  </si>
+  <si>
+    <t>鲁西化工</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>海螺水泥</t>
+  </si>
+  <si>
+    <t>中科曙光</t>
+  </si>
+  <si>
+    <t>中国太保</t>
+  </si>
+  <si>
+    <t>洛阳钼业</t>
+  </si>
+  <si>
+    <t>南方航空</t>
+  </si>
+  <si>
+    <t>华夏幸福</t>
+  </si>
+  <si>
+    <t>方大炭素</t>
   </si>
   <si>
     <t>光环新网</t>
   </si>
   <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>新华保险</t>
+  </si>
+  <si>
+    <t>青岛海尔</t>
+  </si>
+  <si>
+    <t>乐视网</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
     <t>苏宁易购</t>
   </si>
   <si>
-    <t>洛阳钼业</t>
-  </si>
-  <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>美的集团</t>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-  </si>
-  <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>新华保险</t>
-  </si>
-  <si>
-    <t>方大炭素</t>
-  </si>
-  <si>
-    <t>中科曙光</t>
-  </si>
-  <si>
-    <t>保利地产</t>
+    <t>航天信息</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>紫金矿业</t>
+  </si>
+  <si>
+    <t>新城控股</t>
   </si>
   <si>
     <t>用友网络</t>
   </si>
   <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>佳都科技</t>
-  </si>
-  <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
-    <t>兆易创新</t>
-  </si>
-  <si>
-    <t>工商银行</t>
-  </si>
-  <si>
     <t>海康威视</t>
   </si>
   <si>
-    <t>三圣股份</t>
-  </si>
-  <si>
-    <t>乐视网</t>
-  </si>
-  <si>
-    <t>平安银行</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>复星医药</t>
-  </si>
-  <si>
-    <t>青岛海尔</t>
-  </si>
-  <si>
-    <t>海螺水泥</t>
-  </si>
-  <si>
-    <t>浪潮信息</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>新华都</t>
-  </si>
-  <si>
-    <t>中国太保</t>
-  </si>
-  <si>
-    <t>东土科技</t>
-  </si>
-  <si>
-    <t>华夏幸福</t>
-  </si>
-  <si>
-    <t>鲁西化工</t>
-  </si>
-  <si>
-    <t>士兰微</t>
-  </si>
-  <si>
-    <t>四川双马</t>
-  </si>
-  <si>
-    <t>恒生电子</t>
-  </si>
-  <si>
-    <t>华金资本</t>
-  </si>
-  <si>
-    <t>永辉超市</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
     <t>中国石化</t>
+  </si>
+  <si>
+    <t>四维图新</t>
+  </si>
+  <si>
+    <t>招商蛇口</t>
+  </si>
+  <si>
+    <t>泰禾集团</t>
+  </si>
+  <si>
+    <t>中国国航</t>
   </si>
 </sst>
 </file>
@@ -810,22 +807,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>6578006315</v>
+        <v>9514381379</v>
       </c>
       <c r="C2">
-        <v>90287752</v>
+        <v>146254573</v>
       </c>
       <c r="D2">
-        <v>719321620460.48</v>
+        <v>655265674840.4401</v>
       </c>
       <c r="E2">
-        <v>0.009144735995546794</v>
+        <v>0.01451988368125156</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -833,22 +830,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>4246434652</v>
+        <v>5362890034</v>
       </c>
       <c r="C3">
-        <v>84282065</v>
+        <v>7908196.000000001</v>
       </c>
       <c r="D3">
-        <v>216476879697.8</v>
+        <v>309828839948.7</v>
       </c>
       <c r="E3">
-        <v>0.01961611169713823</v>
+        <v>0.01730920218688474</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -856,22 +853,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3271910148</v>
+        <v>3905497643</v>
       </c>
       <c r="C4">
-        <v>111363137</v>
+        <v>84705533</v>
       </c>
       <c r="D4">
-        <v>156033111987.28</v>
+        <v>204329880436.2</v>
       </c>
       <c r="E4">
-        <v>0.02096933212654715</v>
+        <v>0.01911368829004651</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -879,22 +876,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2844230252</v>
+        <v>3753174268</v>
       </c>
       <c r="C5">
-        <v>150910291</v>
+        <v>280695694</v>
       </c>
       <c r="D5">
-        <v>146608761297.04</v>
+        <v>96484827503.67999</v>
       </c>
       <c r="E5">
-        <v>0.01940013834669391</v>
+        <v>0.0388991136234021</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -902,22 +899,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>2799489762</v>
+        <v>3444044172</v>
       </c>
       <c r="C6">
-        <v>490705774</v>
+        <v>52291220</v>
       </c>
       <c r="D6">
-        <v>133696926396.56</v>
+        <v>112548119962.5</v>
       </c>
       <c r="E6">
-        <v>0.02093907345107098</v>
+        <v>0.03060063707103703</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -925,22 +922,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2792969316</v>
+        <v>3311802728</v>
       </c>
       <c r="C7">
-        <v>56434686</v>
+        <v>99970072</v>
       </c>
       <c r="D7">
-        <v>17043482461.96</v>
+        <v>189461224724.8</v>
       </c>
       <c r="E7">
-        <v>0.1638731592697522</v>
+        <v>0.01748010830612188</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -948,22 +945,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>2748721669</v>
+        <v>2974675803</v>
       </c>
       <c r="C8">
-        <v>3748697</v>
+        <v>558912175</v>
       </c>
       <c r="D8">
-        <v>326455556682.56</v>
+        <v>126400087103.79</v>
       </c>
       <c r="E8">
-        <v>0.008419895488784133</v>
+        <v>0.02353381133794177</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -971,22 +968,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>2389981815</v>
+        <v>2858443177</v>
       </c>
       <c r="C9">
-        <v>32849545</v>
+        <v>470474062</v>
       </c>
       <c r="D9">
-        <v>120268087302.15</v>
+        <v>131324674886.16</v>
       </c>
       <c r="E9">
-        <v>0.01987211960056901</v>
+        <v>0.02176623075197306</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -994,22 +991,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>2362028415</v>
+        <v>2673074101</v>
       </c>
       <c r="C10">
-        <v>18790461</v>
+        <v>96659264</v>
       </c>
       <c r="D10">
-        <v>41171565760.89</v>
+        <v>152012760216.02</v>
       </c>
       <c r="E10">
-        <v>0.0573703810226172</v>
+        <v>0.01758453762171931</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1017,22 +1014,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>2322874121</v>
+        <v>2628208077</v>
       </c>
       <c r="C11">
-        <v>135065666</v>
+        <v>144453451</v>
       </c>
       <c r="D11">
-        <v>14129986793.58</v>
+        <v>143092026617.74</v>
       </c>
       <c r="E11">
-        <v>0.1643932266133047</v>
+        <v>0.01836725734565957</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1040,22 +1037,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>2322652723</v>
+        <v>2534246373</v>
       </c>
       <c r="C12">
-        <v>167121709</v>
+        <v>156044240</v>
       </c>
       <c r="D12">
-        <v>48183546315.52</v>
+        <v>47909109324.3</v>
       </c>
       <c r="E12">
-        <v>0.04820427097230637</v>
+        <v>0.05289696278520886</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1063,22 +1060,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>2145507963</v>
+        <v>2478362300</v>
       </c>
       <c r="C13">
-        <v>231864138</v>
+        <v>21544886</v>
       </c>
       <c r="D13">
-        <v>21120537044.78</v>
+        <v>38207988617.3</v>
       </c>
       <c r="E13">
-        <v>0.101583968175197</v>
+        <v>0.06486502926976467</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1086,22 +1083,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1990204252</v>
+        <v>2165867724</v>
       </c>
       <c r="C14">
-        <v>128807954</v>
+        <v>94467663</v>
       </c>
       <c r="D14">
-        <v>45146252712.95999</v>
+        <v>48281916270.1</v>
       </c>
       <c r="E14">
-        <v>0.04408348716456545</v>
+        <v>0.04485877718447719</v>
       </c>
       <c r="F14" t="s">
         <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1109,22 +1106,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1886620309</v>
+        <v>2112419102</v>
       </c>
       <c r="C15">
-        <v>32937831</v>
+        <v>26945212</v>
       </c>
       <c r="D15">
-        <v>235911535093.7</v>
+        <v>36191174471.5</v>
       </c>
       <c r="E15">
-        <v>0.007997151594349411</v>
+        <v>0.05836834899247324</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1132,22 +1129,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1713673897</v>
+        <v>2098813873</v>
       </c>
       <c r="C16">
-        <v>28938261</v>
+        <v>38594720</v>
       </c>
       <c r="D16">
-        <v>54275017574.4</v>
+        <v>229277818816.9</v>
       </c>
       <c r="E16">
-        <v>0.03157389851879646</v>
+        <v>0.009154020584416415</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1155,22 +1152,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1697211574</v>
+        <v>2053541951</v>
       </c>
       <c r="C17">
-        <v>418370567</v>
+        <v>40127746</v>
       </c>
       <c r="D17">
-        <v>143857942181.1</v>
+        <v>17968377326.3</v>
       </c>
       <c r="E17">
-        <v>0.01179783019461945</v>
+        <v>0.1142864441072409</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1178,22 +1175,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>1689125097</v>
+        <v>2004754508</v>
       </c>
       <c r="C18">
-        <v>35511518</v>
+        <v>34574658</v>
       </c>
       <c r="D18">
-        <v>33143809639.5</v>
+        <v>28226710193.76</v>
       </c>
       <c r="E18">
-        <v>0.05096351672823214</v>
+        <v>0.07102331423812845</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1201,22 +1198,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1677069784</v>
+        <v>1972338359</v>
       </c>
       <c r="C19">
-        <v>61672705.00000001</v>
+        <v>67949417</v>
       </c>
       <c r="D19">
-        <v>26972818863.94</v>
+        <v>343465185295.92</v>
       </c>
       <c r="E19">
-        <v>0.06217628911756335</v>
+        <v>0.005742469523659839</v>
       </c>
       <c r="F19" t="s">
         <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1224,22 +1221,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1606021479</v>
+        <v>1951364916</v>
       </c>
       <c r="C20">
-        <v>32693419</v>
+        <v>500473017</v>
       </c>
       <c r="D20">
-        <v>24680151927.72</v>
+        <v>140314643112.6</v>
       </c>
       <c r="E20">
-        <v>0.06507340326362275</v>
+        <v>0.0139070653832905</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1247,22 +1244,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1505140366</v>
+        <v>1807933117</v>
       </c>
       <c r="C21">
-        <v>109728371</v>
+        <v>75749624</v>
       </c>
       <c r="D21">
-        <v>95503150479.65999</v>
+        <v>18005552401.2</v>
       </c>
       <c r="E21">
-        <v>0.0157601121893938</v>
+        <v>0.1004097556529012</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1270,22 +1267,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1462130957</v>
+        <v>1800874343</v>
       </c>
       <c r="C22">
-        <v>41206171</v>
+        <v>106266183</v>
       </c>
       <c r="D22">
-        <v>23343927583.5</v>
+        <v>17024715959.76</v>
       </c>
       <c r="E22">
-        <v>0.06263431685906472</v>
+        <v>0.1057799934669446</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1293,22 +1290,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1449605706</v>
+        <v>1787031110</v>
       </c>
       <c r="C23">
-        <v>19078596</v>
+        <v>30165253</v>
       </c>
       <c r="D23">
-        <v>35289285778.6</v>
+        <v>55313685320.77</v>
       </c>
       <c r="E23">
-        <v>0.04107778533956798</v>
+        <v>0.03230721474508189</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1316,22 +1313,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1386451117</v>
+        <v>1730821176</v>
       </c>
       <c r="C24">
-        <v>44627524</v>
+        <v>227998009</v>
       </c>
       <c r="D24">
-        <v>365964440013.36</v>
+        <v>68271251616.1</v>
       </c>
       <c r="E24">
-        <v>0.003788485889365059</v>
+        <v>0.02535212311226811</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1339,22 +1336,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1323527120</v>
+        <v>1680603013</v>
       </c>
       <c r="C25">
-        <v>171188656</v>
+        <v>53124609</v>
       </c>
       <c r="D25">
-        <v>20070352563.8</v>
+        <v>66453017010.85001</v>
       </c>
       <c r="E25">
-        <v>0.06594438816123176</v>
+        <v>0.02529009349155061</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1362,22 +1359,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1297680630</v>
+        <v>1660676171</v>
       </c>
       <c r="C26">
-        <v>120190736</v>
+        <v>31240078</v>
       </c>
       <c r="D26">
-        <v>10273764259.74</v>
+        <v>25316922068.64</v>
       </c>
       <c r="E26">
-        <v>0.1263101427278458</v>
+        <v>0.06559550037313086</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1385,22 +1382,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1291892397</v>
+        <v>1597825775</v>
       </c>
       <c r="C27">
-        <v>74318788</v>
+        <v>46553652</v>
       </c>
       <c r="D27">
-        <v>261176434990.25</v>
+        <v>116327282482.56</v>
       </c>
       <c r="E27">
-        <v>0.004946435527570578</v>
+        <v>0.01373560647941337</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1408,22 +1405,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>1282868543</v>
+        <v>1590702426</v>
       </c>
       <c r="C28">
-        <v>6862630</v>
+        <v>190755329</v>
       </c>
       <c r="D28">
-        <v>18355856588</v>
+        <v>19471210941.5</v>
       </c>
       <c r="E28">
-        <v>0.06988878654884814</v>
+        <v>0.08169509491624137</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1431,22 +1428,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>1259729602</v>
+        <v>1566602119</v>
       </c>
       <c r="C29">
-        <v>196105509</v>
+        <v>156500745</v>
       </c>
       <c r="D29">
-        <v>139518989575.28</v>
+        <v>30162389696.85</v>
       </c>
       <c r="E29">
-        <v>0.009029090633718288</v>
+        <v>0.05193892575307479</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1454,22 +1451,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1245667584</v>
+        <v>1557766081</v>
       </c>
       <c r="C30">
-        <v>28378341</v>
+        <v>47705811</v>
       </c>
       <c r="D30">
-        <v>95752885157.15999</v>
+        <v>41372359585.78</v>
       </c>
       <c r="E30">
-        <v>0.01300919112730103</v>
+        <v>0.03765233833884148</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1477,22 +1474,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1225895834</v>
+        <v>1495272657</v>
       </c>
       <c r="C31">
-        <v>55192646</v>
+        <v>57133047</v>
       </c>
       <c r="D31">
-        <v>3302171897.85</v>
+        <v>26122814311.98</v>
       </c>
       <c r="E31">
-        <v>0.3712392546245592</v>
+        <v>0.05724010587612161</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1500,22 +1497,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>1215137362</v>
+        <v>1460167373</v>
       </c>
       <c r="C32">
-        <v>218535320</v>
+        <v>81231835</v>
       </c>
       <c r="D32">
-        <v>14965508904.92</v>
+        <v>15444601411.23</v>
       </c>
       <c r="E32">
-        <v>0.08119585974122914</v>
+        <v>0.09454225033857401</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1523,22 +1520,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1155741055</v>
+        <v>1445480924</v>
       </c>
       <c r="C33">
-        <v>98427842</v>
+        <v>49090966</v>
       </c>
       <c r="D33">
-        <v>88735885601.44</v>
+        <v>64517549377.44</v>
       </c>
       <c r="E33">
-        <v>0.0130245057810213</v>
+        <v>0.02240446107994059</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1546,22 +1543,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>1155649316</v>
+        <v>1445281829</v>
       </c>
       <c r="C34">
-        <v>36606867</v>
+        <v>133060238</v>
       </c>
       <c r="D34">
-        <v>67803966101.76</v>
+        <v>84093613713.20001</v>
       </c>
       <c r="E34">
-        <v>0.01704397813935552</v>
+        <v>0.01718658249042682</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1569,22 +1566,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>1138462175</v>
+        <v>1429226922</v>
       </c>
       <c r="C35">
-        <v>25257509</v>
+        <v>34087446</v>
       </c>
       <c r="D35">
-        <v>43591131779.45999</v>
+        <v>40914739450.95999</v>
       </c>
       <c r="E35">
-        <v>0.02611682992677974</v>
+        <v>0.03493183486388952</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1592,22 +1589,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1108411323</v>
+        <v>1429164076</v>
       </c>
       <c r="C36">
-        <v>58131218.99999999</v>
+        <v>30968502</v>
       </c>
       <c r="D36">
-        <v>61500480166.73</v>
+        <v>32982235323.75</v>
       </c>
       <c r="E36">
-        <v>0.01802280762678693</v>
+        <v>0.04333132857647404</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1615,22 +1612,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1074175685</v>
+        <v>1392467813</v>
       </c>
       <c r="C37">
-        <v>33066290</v>
+        <v>80261855</v>
       </c>
       <c r="D37">
-        <v>67177808408.6</v>
+        <v>57783950887.07999</v>
       </c>
       <c r="E37">
-        <v>0.01599003763960966</v>
+        <v>0.02409782978877868</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1638,22 +1635,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1073954342</v>
+        <v>1390914767</v>
       </c>
       <c r="C38">
-        <v>49655109</v>
+        <v>288949639</v>
       </c>
       <c r="D38">
-        <v>15958098282</v>
+        <v>12912478802.44</v>
       </c>
       <c r="E38">
-        <v>0.06729839126328549</v>
+        <v>0.1077186486251707</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1661,22 +1658,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1071927754</v>
+        <v>1357460151</v>
       </c>
       <c r="C39">
-        <v>12460820</v>
+        <v>81049546</v>
       </c>
       <c r="D39">
-        <v>144798456651.24</v>
+        <v>253094184279.95</v>
       </c>
       <c r="E39">
-        <v>0.007402894884313813</v>
+        <v>0.005363458488238116</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1684,22 +1681,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1067705173</v>
+        <v>1348357254</v>
       </c>
       <c r="C40">
-        <v>91350611</v>
+        <v>96773403</v>
       </c>
       <c r="D40">
-        <v>3910502635.78</v>
+        <v>48080882509.45</v>
       </c>
       <c r="E40">
-        <v>0.2730352776726955</v>
+        <v>0.02804352132544549</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1707,22 +1704,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>1044258602</v>
+        <v>1321514365</v>
       </c>
       <c r="C41">
-        <v>26633258</v>
+        <v>57209928</v>
       </c>
       <c r="D41">
-        <v>130553884151.36</v>
+        <v>22427561903.67</v>
       </c>
       <c r="E41">
-        <v>0.007998678927003964</v>
+        <v>0.05892367483706511</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1730,22 +1727,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>1040790937</v>
+        <v>1321190440</v>
       </c>
       <c r="C42">
-        <v>58940354</v>
+        <v>16124481</v>
       </c>
       <c r="D42">
-        <v>4787271874.8</v>
+        <v>139589151364.8</v>
       </c>
       <c r="E42">
-        <v>0.2174079442779676</v>
+        <v>0.009464850434882455</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1753,22 +1750,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1031772765</v>
+        <v>1310933147</v>
       </c>
       <c r="C43">
-        <v>30538140</v>
+        <v>298277948</v>
       </c>
       <c r="D43">
-        <v>41976065845.37</v>
+        <v>44582782068</v>
       </c>
       <c r="E43">
-        <v>0.02458002540783144</v>
+        <v>0.02940447155138268</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1776,22 +1773,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>1026140416</v>
+        <v>1275179321</v>
       </c>
       <c r="C44">
-        <v>59356765</v>
+        <v>38177893</v>
       </c>
       <c r="D44">
-        <v>16810935279.9</v>
+        <v>25166157626.28</v>
       </c>
       <c r="E44">
-        <v>0.06104005511382256</v>
+        <v>0.05067040189195914</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1799,22 +1796,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>1003125374</v>
+        <v>1261711159</v>
       </c>
       <c r="C45">
-        <v>63818393.99999999</v>
+        <v>33631183</v>
       </c>
       <c r="D45">
-        <v>10949269371.09</v>
+        <v>25269548238</v>
       </c>
       <c r="E45">
-        <v>0.09161573617401458</v>
+        <v>0.04993010350310324</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1822,22 +1819,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1002818040</v>
+        <v>1240884756</v>
       </c>
       <c r="C46">
-        <v>47882920</v>
+        <v>30268106</v>
       </c>
       <c r="D46">
-        <v>4231099660.89</v>
+        <v>91774947165</v>
       </c>
       <c r="E46">
-        <v>0.2370112075755408</v>
+        <v>0.01352095309593633</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1845,22 +1842,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>993155704</v>
+        <v>1239068797</v>
       </c>
       <c r="C47">
-        <v>19211363</v>
+        <v>190152396</v>
       </c>
       <c r="D47">
-        <v>25278162642.72</v>
+        <v>64644961635.9</v>
       </c>
       <c r="E47">
-        <v>0.03928907800923673</v>
+        <v>0.01916729108725922</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1868,22 +1865,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>986241770</v>
+        <v>1237953266</v>
       </c>
       <c r="C48">
-        <v>59223255.00000001</v>
+        <v>50177776</v>
       </c>
       <c r="D48">
-        <v>2800606221.7</v>
+        <v>19314204898.97</v>
       </c>
       <c r="E48">
-        <v>0.3521529597264624</v>
+        <v>0.06409548166624339</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1891,22 +1888,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>964557979</v>
+        <v>1225371570</v>
       </c>
       <c r="C49">
-        <v>93394515</v>
+        <v>56640475</v>
       </c>
       <c r="D49">
-        <v>38018862910.44</v>
+        <v>39107841965.64001</v>
       </c>
       <c r="E49">
-        <v>0.02537051098219804</v>
+        <v>0.03133314211192238</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1914,22 +1911,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>961274662</v>
+        <v>1212022363</v>
       </c>
       <c r="C50">
-        <v>209454663</v>
+        <v>44419296</v>
       </c>
       <c r="D50">
-        <v>46305298647.9</v>
+        <v>13760095790.35</v>
       </c>
       <c r="E50">
-        <v>0.02075949599870672</v>
+        <v>0.08808240738047733</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1937,22 +1934,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>951133867</v>
+        <v>1194558076</v>
       </c>
       <c r="C51">
-        <v>138413911</v>
+        <v>105428758</v>
       </c>
       <c r="D51">
-        <v>66793283623.8</v>
+        <v>30468950881.52</v>
       </c>
       <c r="E51">
-        <v>0.01423996269381026</v>
+        <v>0.0392057501633416</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/volume_top50.xlsx
+++ b/website/everyday-update/data/volume_top50.xlsx
@@ -34,391 +34,391 @@
     <t>sec_name</t>
   </si>
   <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
     <t>601318.SH</t>
   </si>
   <si>
+    <t>000725.SZ</t>
+  </si>
+  <si>
+    <t>002049.SZ</t>
+  </si>
+  <si>
+    <t>600703.SH</t>
+  </si>
+  <si>
     <t>600519.SH</t>
   </si>
   <si>
-    <t>000651.SZ</t>
+    <t>000002.SZ</t>
+  </si>
+  <si>
+    <t>600756.SH</t>
+  </si>
+  <si>
+    <t>600460.SH</t>
+  </si>
+  <si>
+    <t>002230.SZ</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>300059.SZ</t>
+  </si>
+  <si>
+    <t>603019.SH</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>000977.SZ</t>
+  </si>
+  <si>
+    <t>002460.SZ</t>
+  </si>
+  <si>
+    <t>603799.SH</t>
+  </si>
+  <si>
+    <t>002195.SZ</t>
+  </si>
+  <si>
+    <t>002405.SZ</t>
+  </si>
+  <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
+    <t>600887.SH</t>
+  </si>
+  <si>
+    <t>000830.SZ</t>
+  </si>
+  <si>
+    <t>600584.SH</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
+    <t>300077.SZ</t>
+  </si>
+  <si>
+    <t>600522.SH</t>
+  </si>
+  <si>
+    <t>601398.SH</t>
+  </si>
+  <si>
+    <t>002371.SZ</t>
+  </si>
+  <si>
+    <t>600797.SH</t>
+  </si>
+  <si>
+    <t>600029.SH</t>
+  </si>
+  <si>
+    <t>600585.SH</t>
+  </si>
+  <si>
+    <t>300333.SZ</t>
+  </si>
+  <si>
+    <t>600487.SH</t>
+  </si>
+  <si>
+    <t>603986.SH</t>
   </si>
   <si>
     <t>600048.SH</t>
   </si>
   <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>000002.SZ</t>
-  </si>
-  <si>
-    <t>000725.SZ</t>
-  </si>
-  <si>
-    <t>601398.SH</t>
-  </si>
-  <si>
-    <t>600887.SH</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>300059.SZ</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>600703.SH</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>002049.SZ</t>
-  </si>
-  <si>
-    <t>600570.SH</t>
+    <t>002422.SZ</t>
+  </si>
+  <si>
+    <t>300496.SZ</t>
+  </si>
+  <si>
+    <t>601166.SH</t>
+  </si>
+  <si>
+    <t>600050.SH</t>
+  </si>
+  <si>
+    <t>002456.SZ</t>
+  </si>
+  <si>
+    <t>000066.SZ</t>
+  </si>
+  <si>
+    <t>600516.SH</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>000001.SZ</t>
+  </si>
+  <si>
+    <t>002027.SZ</t>
   </si>
   <si>
     <t>600036.SH</t>
   </si>
   <si>
-    <t>601288.SH</t>
-  </si>
-  <si>
-    <t>000977.SZ</t>
-  </si>
-  <si>
-    <t>000830.SZ</t>
-  </si>
-  <si>
-    <t>002230.SZ</t>
-  </si>
-  <si>
-    <t>601939.SH</t>
-  </si>
-  <si>
-    <t>600585.SH</t>
-  </si>
-  <si>
-    <t>603019.SH</t>
-  </si>
-  <si>
-    <t>601601.SH</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>600029.SH</t>
-  </si>
-  <si>
-    <t>600340.SH</t>
-  </si>
-  <si>
-    <t>600516.SH</t>
-  </si>
-  <si>
-    <t>300383.SZ</t>
-  </si>
-  <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>000001.SZ</t>
-  </si>
-  <si>
-    <t>600196.SH</t>
-  </si>
-  <si>
-    <t>601336.SH</t>
-  </si>
-  <si>
-    <t>600690.SH</t>
-  </si>
-  <si>
-    <t>300104.SZ</t>
-  </si>
-  <si>
-    <t>601166.SH</t>
-  </si>
-  <si>
-    <t>002024.SZ</t>
-  </si>
-  <si>
-    <t>600271.SH</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
-    <t>601155.SH</t>
-  </si>
-  <si>
-    <t>600588.SH</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>600028.SH</t>
-  </si>
-  <si>
-    <t>002405.SZ</t>
-  </si>
-  <si>
-    <t>001979.SZ</t>
-  </si>
-  <si>
-    <t>000732.SZ</t>
-  </si>
-  <si>
-    <t>601111.SH</t>
+    <t>600031.SH</t>
+  </si>
+  <si>
+    <t>600718.SH</t>
+  </si>
+  <si>
+    <t>000568.SZ</t>
+  </si>
+  <si>
+    <t>家电-白色家电Ⅱ-白色家电Ⅲ</t>
   </si>
   <si>
     <t>非银行金融-保险Ⅱ-保险Ⅲ</t>
   </si>
   <si>
+    <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
+  </si>
+  <si>
+    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
+  </si>
+  <si>
     <t>食品饮料-白酒Ⅱ-白酒Ⅲ</t>
   </si>
   <si>
-    <t>家电-白色家电Ⅱ-白色家电Ⅲ</t>
-  </si>
-  <si>
     <t>房地产-房地产开发管理-住宅地产</t>
   </si>
   <si>
-    <t>电子元器件-其他元器件Ⅱ-其他元器件Ⅲ</t>
+    <t>计算机-计算机软件-基础软件及套装软件</t>
+  </si>
+  <si>
+    <t>计算机-计算机软件-行业应用软件</t>
+  </si>
+  <si>
+    <t>传媒-传媒Ⅱ-互联网</t>
+  </si>
+  <si>
+    <t>计算机-计算机硬件-PC及服务器硬件</t>
+  </si>
+  <si>
+    <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
+  </si>
+  <si>
+    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
+  </si>
+  <si>
+    <t>有色金属-工业金属-镍钴</t>
+  </si>
+  <si>
+    <t>计算机-IT服务-IT外包服务</t>
+  </si>
+  <si>
+    <t>医药-化学制药-化学制剂</t>
+  </si>
+  <si>
+    <t>食品饮料-食品-乳制品</t>
+  </si>
+  <si>
+    <t>基础化工-农用化工-氮肥</t>
+  </si>
+  <si>
+    <t>电子元器件-电子设备Ⅱ-电子设备Ⅲ</t>
+  </si>
+  <si>
+    <t>通信-通信设备制造-线缆</t>
   </si>
   <si>
     <t>银行-国有银行Ⅱ-国有银行Ⅲ</t>
   </si>
   <si>
-    <t>食品饮料-食品-乳制品</t>
-  </si>
-  <si>
-    <t>非银行金融-证券Ⅱ-证券Ⅲ</t>
-  </si>
-  <si>
-    <t>传媒-传媒Ⅱ-互联网</t>
-  </si>
-  <si>
-    <t>有色金属-工业金属-镍钴</t>
-  </si>
-  <si>
-    <t>电子元器件-半导体Ⅱ-半导体Ⅲ</t>
-  </si>
-  <si>
-    <t>有色金属-稀有金属Ⅱ-稀有金属Ⅲ</t>
-  </si>
-  <si>
-    <t>计算机-计算机软件-行业应用软件</t>
+    <t>通信-通信设备制造-通信终端及配件</t>
+  </si>
+  <si>
+    <t>交通运输-航空机场-航空</t>
+  </si>
+  <si>
+    <t>建材-水泥Ⅱ-水泥Ⅲ</t>
+  </si>
+  <si>
+    <t>计算机-IT服务-系统集成及IT咨询</t>
   </si>
   <si>
     <t>银行-股份制与城商行-股份制银行</t>
   </si>
   <si>
-    <t>计算机-计算机硬件-PC及服务器硬件</t>
-  </si>
-  <si>
-    <t>基础化工-农用化工-氮肥</t>
-  </si>
-  <si>
-    <t>建材-水泥Ⅱ-水泥Ⅲ</t>
-  </si>
-  <si>
-    <t>交通运输-航空机场-航空</t>
+    <t>通信-电信运营Ⅱ-电信运营Ⅲ</t>
   </si>
   <si>
     <t>建材-其他建材-新型建材及非金属新材料</t>
   </si>
   <si>
-    <t>通信-电信运营Ⅱ-电信运营Ⅲ</t>
-  </si>
-  <si>
-    <t>通信-通信设备制造-系统设备</t>
-  </si>
-  <si>
-    <t>医药-化学制药-化学制剂</t>
-  </si>
-  <si>
-    <t>商贸零售-零售-连锁</t>
-  </si>
-  <si>
-    <t>计算机-IT服务-系统集成及IT咨询</t>
-  </si>
-  <si>
-    <t>有色金属-贵金属-黄金</t>
-  </si>
-  <si>
-    <t>计算机-计算机软件-基础软件及套装软件</t>
-  </si>
-  <si>
-    <t>电子元器件-电子设备Ⅱ-电子设备Ⅲ</t>
-  </si>
-  <si>
-    <t>石油石化-石油化工-炼油</t>
-  </si>
-  <si>
-    <t>房地产-房地产开发管理-园区</t>
+    <t>传媒-传媒Ⅱ-整合营销</t>
+  </si>
+  <si>
+    <t>机械-工程机械Ⅱ-工程机械Ⅲ</t>
+  </si>
+  <si>
+    <t>格力电器</t>
   </si>
   <si>
     <t>中国平安</t>
   </si>
   <si>
+    <t>京东方A</t>
+  </si>
+  <si>
+    <t>紫光国芯</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
     <t>贵州茅台</t>
   </si>
   <si>
-    <t>格力电器</t>
+    <t>万科A</t>
+  </si>
+  <si>
+    <t>浪潮软件</t>
+  </si>
+  <si>
+    <t>士兰微</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>中科曙光</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>浪潮信息</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>华友钴业</t>
+  </si>
+  <si>
+    <t>二三四五</t>
+  </si>
+  <si>
+    <t>四维图新</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
+    <t>鲁西化工</t>
+  </si>
+  <si>
+    <t>长电科技</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>国民技术</t>
+  </si>
+  <si>
+    <t>中天科技</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>北方华创</t>
+  </si>
+  <si>
+    <t>浙大网新</t>
+  </si>
+  <si>
+    <t>南方航空</t>
+  </si>
+  <si>
+    <t>海螺水泥</t>
+  </si>
+  <si>
+    <t>兆日科技</t>
+  </si>
+  <si>
+    <t>亨通光电</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
   </si>
   <si>
     <t>保利地产</t>
   </si>
   <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>万科A</t>
-  </si>
-  <si>
-    <t>京东方A</t>
-  </si>
-  <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
-    <t>中信证券</t>
-  </si>
-  <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>美的集团</t>
-  </si>
-  <si>
-    <t>紫光国芯</t>
-  </si>
-  <si>
-    <t>恒生电子</t>
+    <t>科伦药业</t>
+  </si>
+  <si>
+    <t>中科创达</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>中国联通</t>
+  </si>
+  <si>
+    <t>欧菲科技</t>
+  </si>
+  <si>
+    <t>中国长城</t>
+  </si>
+  <si>
+    <t>方大炭素</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>分众传媒</t>
   </si>
   <si>
     <t>招商银行</t>
   </si>
   <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>浪潮信息</t>
-  </si>
-  <si>
-    <t>鲁西化工</t>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-  </si>
-  <si>
-    <t>建设银行</t>
-  </si>
-  <si>
-    <t>海螺水泥</t>
-  </si>
-  <si>
-    <t>中科曙光</t>
-  </si>
-  <si>
-    <t>中国太保</t>
-  </si>
-  <si>
-    <t>洛阳钼业</t>
-  </si>
-  <si>
-    <t>南方航空</t>
-  </si>
-  <si>
-    <t>华夏幸福</t>
-  </si>
-  <si>
-    <t>方大炭素</t>
-  </si>
-  <si>
-    <t>光环新网</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>平安银行</t>
-  </si>
-  <si>
-    <t>复星医药</t>
-  </si>
-  <si>
-    <t>新华保险</t>
-  </si>
-  <si>
-    <t>青岛海尔</t>
-  </si>
-  <si>
-    <t>乐视网</t>
-  </si>
-  <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
-    <t>苏宁易购</t>
-  </si>
-  <si>
-    <t>航天信息</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>新城控股</t>
-  </si>
-  <si>
-    <t>用友网络</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>中国石化</t>
-  </si>
-  <si>
-    <t>四维图新</t>
-  </si>
-  <si>
-    <t>招商蛇口</t>
-  </si>
-  <si>
-    <t>泰禾集团</t>
-  </si>
-  <si>
-    <t>中国国航</t>
+    <t>三一重工</t>
+  </si>
+  <si>
+    <t>东软集团</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
   </si>
 </sst>
 </file>
@@ -807,16 +807,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>9514381379</v>
+        <v>17120544884</v>
       </c>
       <c r="C2">
-        <v>146254573</v>
+        <v>374562478</v>
       </c>
       <c r="D2">
-        <v>655265674840.4401</v>
+        <v>197735795122.76</v>
       </c>
       <c r="E2">
-        <v>0.01451988368125156</v>
+        <v>0.08658293190350831</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -830,16 +830,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>5362890034</v>
+        <v>5364614954</v>
       </c>
       <c r="C3">
-        <v>7908196.000000001</v>
+        <v>84155382</v>
       </c>
       <c r="D3">
-        <v>309828839948.7</v>
+        <v>622990953395.52</v>
       </c>
       <c r="E3">
-        <v>0.01730920218688474</v>
+        <v>0.008611063972535974</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
@@ -853,16 +853,16 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3905497643</v>
+        <v>3727814501</v>
       </c>
       <c r="C4">
-        <v>84705533</v>
+        <v>860380202.9999999</v>
       </c>
       <c r="D4">
-        <v>204329880436.2</v>
+        <v>100508076710.09</v>
       </c>
       <c r="E4">
-        <v>0.01911368829004651</v>
+        <v>0.03708970087799685</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
@@ -876,19 +876,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3753174268</v>
+        <v>3103882225</v>
       </c>
       <c r="C5">
-        <v>280695694</v>
+        <v>53581299</v>
       </c>
       <c r="D5">
-        <v>96484827503.67999</v>
+        <v>20840549651.2</v>
       </c>
       <c r="E5">
-        <v>0.0388991136234021</v>
+        <v>0.1489347582932525</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
         <v>88</v>
@@ -899,19 +899,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>3444044172</v>
+        <v>2879993063</v>
       </c>
       <c r="C6">
-        <v>52291220</v>
+        <v>149482739</v>
       </c>
       <c r="D6">
-        <v>112548119962.5</v>
+        <v>40096069378.75</v>
       </c>
       <c r="E6">
-        <v>0.03060063707103703</v>
+        <v>0.07182731643332427</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>89</v>
@@ -922,19 +922,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>3311802728</v>
+        <v>2378744475</v>
       </c>
       <c r="C7">
-        <v>99970072</v>
+        <v>3504790</v>
       </c>
       <c r="D7">
-        <v>189461224724.8</v>
+        <v>304941538410.11</v>
       </c>
       <c r="E7">
-        <v>0.01748010830612188</v>
+        <v>0.007800657422410168</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>90</v>
@@ -945,19 +945,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>2974675803</v>
+        <v>2348260646</v>
       </c>
       <c r="C8">
-        <v>558912175</v>
+        <v>81226255</v>
       </c>
       <c r="D8">
-        <v>126400087103.79</v>
+        <v>158069230230</v>
       </c>
       <c r="E8">
-        <v>0.02353381133794177</v>
+        <v>0.01485589980151825</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
         <v>91</v>
@@ -968,19 +968,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>2858443177</v>
+        <v>2258591355</v>
       </c>
       <c r="C9">
-        <v>470474062</v>
+        <v>97063514</v>
       </c>
       <c r="D9">
-        <v>131324674886.16</v>
+        <v>6112295822.429999</v>
       </c>
       <c r="E9">
-        <v>0.02176623075197306</v>
+        <v>0.3695160412085677</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
         <v>92</v>
@@ -991,19 +991,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>2673074101</v>
+        <v>2080776157</v>
       </c>
       <c r="C10">
-        <v>96659264</v>
+        <v>125351527</v>
       </c>
       <c r="D10">
-        <v>152012760216.02</v>
+        <v>11553270118.95</v>
       </c>
       <c r="E10">
-        <v>0.01758453762171931</v>
+        <v>0.1801027878320833</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
         <v>93</v>
@@ -1014,16 +1014,16 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>2628208077</v>
+        <v>2077955242</v>
       </c>
       <c r="C11">
-        <v>144453451</v>
+        <v>37156103</v>
       </c>
       <c r="D11">
-        <v>143092026617.74</v>
+        <v>51438263862.3</v>
       </c>
       <c r="E11">
-        <v>0.01836725734565957</v>
+        <v>0.04039707186779625</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1037,19 +1037,19 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>2534246373</v>
+        <v>1975528198</v>
       </c>
       <c r="C12">
-        <v>156044240</v>
+        <v>28351699</v>
       </c>
       <c r="D12">
-        <v>47909109324.3</v>
+        <v>115217309250.5</v>
       </c>
       <c r="E12">
-        <v>0.05289696278520886</v>
+        <v>0.01714610600482694</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
         <v>95</v>
@@ -1060,19 +1060,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>2478362300</v>
+        <v>1928297974</v>
       </c>
       <c r="C13">
-        <v>21544886</v>
+        <v>136951199</v>
       </c>
       <c r="D13">
-        <v>38207988617.3</v>
+        <v>49359811580.15</v>
       </c>
       <c r="E13">
-        <v>0.06486502926976467</v>
+        <v>0.03906615346107729</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
         <v>96</v>
@@ -1083,19 +1083,19 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>2165867724</v>
+        <v>1721248535</v>
       </c>
       <c r="C14">
-        <v>94467663</v>
+        <v>32465258</v>
       </c>
       <c r="D14">
-        <v>48281916270.1</v>
+        <v>24600540572.64</v>
       </c>
       <c r="E14">
-        <v>0.04485877718447719</v>
+        <v>0.06996791513249601</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -1106,19 +1106,19 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>2112419102</v>
+        <v>1707726691</v>
       </c>
       <c r="C15">
-        <v>26945212</v>
+        <v>33110245</v>
       </c>
       <c r="D15">
-        <v>36191174471.5</v>
+        <v>213108135392.2</v>
       </c>
       <c r="E15">
-        <v>0.05836834899247324</v>
+        <v>0.00801342796161739</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>98</v>
@@ -1129,19 +1129,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>2098813873</v>
+        <v>1695980251</v>
       </c>
       <c r="C16">
-        <v>38594720</v>
+        <v>89661840</v>
       </c>
       <c r="D16">
-        <v>229277818816.9</v>
+        <v>146452461977.96</v>
       </c>
       <c r="E16">
-        <v>0.009154020584416415</v>
+        <v>0.01158041475093285</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
         <v>99</v>
@@ -1152,19 +1152,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>2053541951</v>
+        <v>1610258812</v>
       </c>
       <c r="C17">
-        <v>40127746</v>
+        <v>68443764</v>
       </c>
       <c r="D17">
-        <v>17968377326.3</v>
+        <v>17456051847.15</v>
       </c>
       <c r="E17">
-        <v>0.1142864441072409</v>
+        <v>0.09224644989026555</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
         <v>100</v>
@@ -1175,19 +1175,19 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>2004754508</v>
+        <v>1597986735</v>
       </c>
       <c r="C18">
-        <v>34574658</v>
+        <v>25420056</v>
       </c>
       <c r="D18">
-        <v>28226710193.76</v>
+        <v>28582933959.6</v>
       </c>
       <c r="E18">
-        <v>0.07102331423812845</v>
+        <v>0.05590702260511968</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
         <v>101</v>
@@ -1198,19 +1198,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1972338359</v>
+        <v>1516087760</v>
       </c>
       <c r="C19">
-        <v>67949417</v>
+        <v>14094363</v>
       </c>
       <c r="D19">
-        <v>343465185295.92</v>
+        <v>34971430068.05</v>
       </c>
       <c r="E19">
-        <v>0.005742469523659839</v>
+        <v>0.04335218082445825</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
         <v>102</v>
@@ -1221,19 +1221,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1951364916</v>
+        <v>1411385700</v>
       </c>
       <c r="C20">
-        <v>500473017</v>
+        <v>189517358</v>
       </c>
       <c r="D20">
-        <v>140314643112.6</v>
+        <v>16055763848.05</v>
       </c>
       <c r="E20">
-        <v>0.0139070653832905</v>
+        <v>0.08790523536327519</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
         <v>103</v>
@@ -1244,19 +1244,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1807933117</v>
+        <v>1404036101</v>
       </c>
       <c r="C21">
-        <v>75749624</v>
+        <v>52038215</v>
       </c>
       <c r="D21">
-        <v>18005552401.2</v>
+        <v>20607532052.35</v>
       </c>
       <c r="E21">
-        <v>0.1004097556529012</v>
+        <v>0.06813218086635899</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
         <v>104</v>
@@ -1267,19 +1267,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1800874343</v>
+        <v>1341218387</v>
       </c>
       <c r="C22">
-        <v>106266183</v>
+        <v>15784879</v>
       </c>
       <c r="D22">
-        <v>17024715959.76</v>
+        <v>141224434901.32</v>
       </c>
       <c r="E22">
-        <v>0.1057799934669446</v>
+        <v>0.009497070304704499</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
         <v>105</v>
@@ -1290,19 +1290,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1787031110</v>
+        <v>1316572244</v>
       </c>
       <c r="C23">
-        <v>30165253</v>
+        <v>45142997</v>
       </c>
       <c r="D23">
-        <v>55313685320.77</v>
+        <v>158640907730.8</v>
       </c>
       <c r="E23">
-        <v>0.03230721474508189</v>
+        <v>0.008299071549906346</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
         <v>106</v>
@@ -1313,19 +1313,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1730821176</v>
+        <v>1315370883</v>
       </c>
       <c r="C24">
-        <v>227998009</v>
+        <v>76066938</v>
       </c>
       <c r="D24">
-        <v>68271251616.1</v>
+        <v>16597154600.04</v>
       </c>
       <c r="E24">
-        <v>0.02535212311226811</v>
+        <v>0.07925279451194783</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
         <v>107</v>
@@ -1336,19 +1336,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1680603013</v>
+        <v>1300378510</v>
       </c>
       <c r="C25">
-        <v>53124609</v>
+        <v>55275422</v>
       </c>
       <c r="D25">
-        <v>66453017010.85001</v>
+        <v>19804417305.35</v>
       </c>
       <c r="E25">
-        <v>0.02529009349155061</v>
+        <v>0.06566103359419283</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G25" t="s">
         <v>108</v>
@@ -1359,19 +1359,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1660676171</v>
+        <v>1297749159</v>
       </c>
       <c r="C26">
-        <v>31240078</v>
+        <v>33814171</v>
       </c>
       <c r="D26">
-        <v>25316922068.64</v>
+        <v>120744970474</v>
       </c>
       <c r="E26">
-        <v>0.06559550037313086</v>
+        <v>0.01074785271722307</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
         <v>109</v>
@@ -1382,19 +1382,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1597825775</v>
+        <v>1264052810</v>
       </c>
       <c r="C27">
-        <v>46553652</v>
+        <v>99764439</v>
       </c>
       <c r="D27">
-        <v>116327282482.56</v>
+        <v>6796481251</v>
       </c>
       <c r="E27">
-        <v>0.01373560647941337</v>
+        <v>0.1859863601939627</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
         <v>110</v>
@@ -1405,19 +1405,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>1590702426</v>
+        <v>1251663349</v>
       </c>
       <c r="C28">
-        <v>190755329</v>
+        <v>124529002</v>
       </c>
       <c r="D28">
-        <v>19471210941.5</v>
+        <v>22566994745.16</v>
       </c>
       <c r="E28">
-        <v>0.08169509491624137</v>
+        <v>0.05546433466815281</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
         <v>111</v>
@@ -1428,19 +1428,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>1566602119</v>
+        <v>1218654222</v>
       </c>
       <c r="C29">
-        <v>156500745</v>
+        <v>205401705</v>
       </c>
       <c r="D29">
-        <v>30162389696.85</v>
+        <v>128305716842.8</v>
       </c>
       <c r="E29">
-        <v>0.05193892575307479</v>
+        <v>0.009498050842840413</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
         <v>112</v>
@@ -1451,19 +1451,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1557766081</v>
+        <v>1202516436</v>
       </c>
       <c r="C30">
-        <v>47705811</v>
+        <v>22911790</v>
       </c>
       <c r="D30">
-        <v>41372359585.78</v>
+        <v>9547297960.41</v>
       </c>
       <c r="E30">
-        <v>0.03765233833884148</v>
+        <v>0.1259535882284708</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s">
         <v>113</v>
@@ -1474,19 +1474,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1495272657</v>
+        <v>1199566196</v>
       </c>
       <c r="C31">
-        <v>57133047</v>
+        <v>84952781</v>
       </c>
       <c r="D31">
-        <v>26122814311.98</v>
+        <v>9832604728.200001</v>
       </c>
       <c r="E31">
-        <v>0.05724010587612161</v>
+        <v>0.1219988222001473</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
         <v>114</v>
@@ -1497,19 +1497,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>1460167373</v>
+        <v>1179398611</v>
       </c>
       <c r="C32">
-        <v>81231835</v>
+        <v>113759341</v>
       </c>
       <c r="D32">
-        <v>15444601411.23</v>
+        <v>30580068683.75</v>
       </c>
       <c r="E32">
-        <v>0.09454225033857401</v>
+        <v>0.03856755925557234</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
         <v>115</v>
@@ -1520,19 +1520,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1445480924</v>
+        <v>1172318020</v>
       </c>
       <c r="C33">
-        <v>49090966</v>
+        <v>35065574</v>
       </c>
       <c r="D33">
-        <v>64517549377.44</v>
+        <v>69517849207.05</v>
       </c>
       <c r="E33">
-        <v>0.02240446107994059</v>
+        <v>0.01686355422919373</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s">
         <v>116</v>
@@ -1543,19 +1543,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>1445281829</v>
+        <v>1153410391</v>
       </c>
       <c r="C34">
-        <v>133060238</v>
+        <v>87762946</v>
       </c>
       <c r="D34">
-        <v>84093613713.20001</v>
+        <v>3256468704.36</v>
       </c>
       <c r="E34">
-        <v>0.01718658249042682</v>
+        <v>0.3541905345062058</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s">
         <v>117</v>
@@ -1566,19 +1566,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>1429226922</v>
+        <v>1145306581</v>
       </c>
       <c r="C35">
-        <v>34087446</v>
+        <v>35786801</v>
       </c>
       <c r="D35">
-        <v>40914739450.95999</v>
+        <v>26949151154.31</v>
       </c>
       <c r="E35">
-        <v>0.03493183486388952</v>
+        <v>0.04249879984872288</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
         <v>118</v>
@@ -1589,19 +1589,19 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1429164076</v>
+        <v>1097701072</v>
       </c>
       <c r="C36">
-        <v>30968502</v>
+        <v>5911682</v>
       </c>
       <c r="D36">
-        <v>32982235323.75</v>
+        <v>18633469816.08</v>
       </c>
       <c r="E36">
-        <v>0.04333132857647404</v>
+        <v>0.05891018059624752</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G36" t="s">
         <v>119</v>
@@ -1612,19 +1612,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1392467813</v>
+        <v>1072104518</v>
       </c>
       <c r="C37">
-        <v>80261855</v>
+        <v>78722246</v>
       </c>
       <c r="D37">
-        <v>57783950887.07999</v>
+        <v>95292791117.37</v>
       </c>
       <c r="E37">
-        <v>0.02409782978877868</v>
+        <v>0.01125063612293099</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
         <v>120</v>
@@ -1635,19 +1635,19 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1390914767</v>
+        <v>1067996063</v>
       </c>
       <c r="C38">
-        <v>288949639</v>
+        <v>33104233</v>
       </c>
       <c r="D38">
-        <v>12912478802.44</v>
+        <v>26141846078.49</v>
       </c>
       <c r="E38">
-        <v>0.1077186486251707</v>
+        <v>0.04085388842828384</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
         <v>121</v>
@@ -1658,19 +1658,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1357460151</v>
+        <v>1067761487</v>
       </c>
       <c r="C39">
-        <v>81049546</v>
+        <v>26631120</v>
       </c>
       <c r="D39">
-        <v>253094184279.95</v>
+        <v>7757453694.240001</v>
       </c>
       <c r="E39">
-        <v>0.005363458488238116</v>
+        <v>0.1376432949632461</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s">
         <v>122</v>
@@ -1681,19 +1681,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1348357254</v>
+        <v>1065420286</v>
       </c>
       <c r="C40">
-        <v>96773403</v>
+        <v>66326494.99999999</v>
       </c>
       <c r="D40">
-        <v>48080882509.45</v>
+        <v>241120479523.95</v>
       </c>
       <c r="E40">
-        <v>0.02804352132544549</v>
+        <v>0.004418622126596152</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s">
         <v>123</v>
@@ -1704,19 +1704,19 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>1321514365</v>
+        <v>1062161796</v>
       </c>
       <c r="C41">
-        <v>57209928</v>
+        <v>186882334</v>
       </c>
       <c r="D41">
-        <v>22427561903.67</v>
+        <v>55646233954</v>
       </c>
       <c r="E41">
-        <v>0.05892367483706511</v>
+        <v>0.01908775707764944</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s">
         <v>124</v>
@@ -1727,19 +1727,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>1321190440</v>
+        <v>1051254467</v>
       </c>
       <c r="C42">
-        <v>16124481</v>
+        <v>64161025</v>
       </c>
       <c r="D42">
-        <v>139589151364.8</v>
+        <v>29175278487.58</v>
       </c>
       <c r="E42">
-        <v>0.009464850434882455</v>
+        <v>0.03603237129158928</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s">
         <v>125</v>
@@ -1750,19 +1750,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1310933147</v>
+        <v>1047611278</v>
       </c>
       <c r="C43">
-        <v>298277948</v>
+        <v>111704571</v>
       </c>
       <c r="D43">
-        <v>44582782068</v>
+        <v>16104661310.18</v>
       </c>
       <c r="E43">
-        <v>0.02940447155138268</v>
+        <v>0.06505018999299222</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
         <v>126</v>
@@ -1773,19 +1773,19 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>1275179321</v>
+        <v>1040666309</v>
       </c>
       <c r="C44">
-        <v>38177893</v>
+        <v>40104557</v>
       </c>
       <c r="D44">
-        <v>25166157626.28</v>
+        <v>25341996177.04</v>
       </c>
       <c r="E44">
-        <v>0.05067040189195914</v>
+        <v>0.04106489093163268</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s">
         <v>127</v>
@@ -1796,19 +1796,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>1261711159</v>
+        <v>1035704685</v>
       </c>
       <c r="C45">
-        <v>33631183</v>
+        <v>27406953</v>
       </c>
       <c r="D45">
-        <v>25269548238</v>
+        <v>36554653039.43999</v>
       </c>
       <c r="E45">
-        <v>0.04993010350310324</v>
+        <v>0.02833304651756768</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
         <v>128</v>
@@ -1819,19 +1819,19 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1240884756</v>
+        <v>1002483154</v>
       </c>
       <c r="C46">
-        <v>30268106</v>
+        <v>87423591</v>
       </c>
       <c r="D46">
-        <v>91774947165</v>
+        <v>86909417973.28</v>
       </c>
       <c r="E46">
-        <v>0.01352095309593633</v>
+        <v>0.01153480459745122</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s">
         <v>129</v>
@@ -1842,16 +1842,16 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1239068797</v>
+        <v>998791110</v>
       </c>
       <c r="C47">
-        <v>190152396</v>
+        <v>89646270</v>
       </c>
       <c r="D47">
-        <v>64644961635.9</v>
+        <v>56650129254.37</v>
       </c>
       <c r="E47">
-        <v>0.01916729108725922</v>
+        <v>0.01763087080552342</v>
       </c>
       <c r="F47" t="s">
         <v>83</v>
@@ -1865,19 +1865,19 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1237953266</v>
+        <v>975939725</v>
       </c>
       <c r="C48">
-        <v>50177776</v>
+        <v>33960749</v>
       </c>
       <c r="D48">
-        <v>19314204898.97</v>
+        <v>337488820761.6</v>
       </c>
       <c r="E48">
-        <v>0.06409548166624339</v>
+        <v>0.002891769045260903</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s">
         <v>131</v>
@@ -1888,16 +1888,16 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>1225371570</v>
+        <v>962365665</v>
       </c>
       <c r="C49">
-        <v>56640475</v>
+        <v>109888676</v>
       </c>
       <c r="D49">
-        <v>39107841965.64001</v>
+        <v>40328319908.16</v>
       </c>
       <c r="E49">
-        <v>0.03133314211192238</v>
+        <v>0.02386327194367638</v>
       </c>
       <c r="F49" t="s">
         <v>84</v>
@@ -1911,19 +1911,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>1212022363</v>
+        <v>956973213</v>
       </c>
       <c r="C50">
-        <v>44419296</v>
+        <v>57949210</v>
       </c>
       <c r="D50">
-        <v>13760095790.35</v>
+        <v>14094149852.75</v>
       </c>
       <c r="E50">
-        <v>0.08808240738047733</v>
+        <v>0.06789861204812427</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
         <v>133</v>
@@ -1934,19 +1934,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>1194558076</v>
+        <v>951410785</v>
       </c>
       <c r="C51">
-        <v>105428758</v>
+        <v>15774262</v>
       </c>
       <c r="D51">
-        <v>30468950881.52</v>
+        <v>39367858415.9</v>
       </c>
       <c r="E51">
-        <v>0.0392057501633416</v>
+        <v>0.02416719687794197</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
         <v>134</v>

--- a/website/everyday-update/data/volume_top50.xlsx
+++ b/website/everyday-update/data/volume_top50.xlsx
@@ -25,154 +25,154 @@
     <t>mkt_freeshares</t>
   </si>
   <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>002049.SZ</t>
+  </si>
+  <si>
     <t>601318.SH</t>
   </si>
   <si>
-    <t>000651.SZ</t>
+    <t>600519.SH</t>
+  </si>
+  <si>
+    <t>600516.SH</t>
+  </si>
+  <si>
+    <t>000725.SZ</t>
+  </si>
+  <si>
+    <t>300059.SZ</t>
   </si>
   <si>
     <t>600887.SH</t>
   </si>
   <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>002049.SZ</t>
-  </si>
-  <si>
-    <t>300059.SZ</t>
+    <t>603799.SH</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>000830.SZ</t>
+  </si>
+  <si>
+    <t>600536.SH</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
+  </si>
+  <si>
+    <t>000977.SZ</t>
+  </si>
+  <si>
+    <t>600050.SH</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>603019.SH</t>
+  </si>
+  <si>
+    <t>600585.SH</t>
+  </si>
+  <si>
+    <t>002460.SZ</t>
+  </si>
+  <si>
+    <t>002001.SZ</t>
+  </si>
+  <si>
+    <t>000002.SZ</t>
+  </si>
+  <si>
+    <t>600703.SH</t>
+  </si>
+  <si>
+    <t>600584.SH</t>
+  </si>
+  <si>
+    <t>002230.SZ</t>
+  </si>
+  <si>
+    <t>600588.SH</t>
+  </si>
+  <si>
+    <t>300077.SZ</t>
+  </si>
+  <si>
+    <t>601688.SH</t>
+  </si>
+  <si>
+    <t>002450.SZ</t>
+  </si>
+  <si>
+    <t>600570.SH</t>
+  </si>
+  <si>
+    <t>600036.SH</t>
+  </si>
+  <si>
+    <t>002195.SZ</t>
+  </si>
+  <si>
+    <t>300348.SZ</t>
+  </si>
+  <si>
+    <t>600332.SH</t>
+  </si>
+  <si>
+    <t>600048.SH</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>600460.SH</t>
+  </si>
+  <si>
+    <t>002371.SZ</t>
+  </si>
+  <si>
+    <t>002466.SZ</t>
+  </si>
+  <si>
+    <t>603986.SH</t>
+  </si>
+  <si>
+    <t>000789.SZ</t>
+  </si>
+  <si>
+    <t>601336.SH</t>
+  </si>
+  <si>
+    <t>600756.SH</t>
+  </si>
+  <si>
+    <t>002023.SZ</t>
+  </si>
+  <si>
+    <t>002863.SZ</t>
+  </si>
+  <si>
+    <t>600271.SH</t>
+  </si>
+  <si>
+    <t>601398.SH</t>
+  </si>
+  <si>
+    <t>000661.SZ</t>
   </si>
   <si>
     <t>000001.SZ</t>
   </si>
   <si>
-    <t>000725.SZ</t>
-  </si>
-  <si>
-    <t>600048.SH</t>
-  </si>
-  <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>002230.SZ</t>
-  </si>
-  <si>
-    <t>002450.SZ</t>
-  </si>
-  <si>
-    <t>002023.SZ</t>
-  </si>
-  <si>
-    <t>603019.SH</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>600036.SH</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>600703.SH</t>
-  </si>
-  <si>
-    <t>002027.SZ</t>
-  </si>
-  <si>
-    <t>600756.SH</t>
-  </si>
-  <si>
-    <t>601336.SH</t>
-  </si>
-  <si>
-    <t>600460.SH</t>
-  </si>
-  <si>
-    <t>601398.SH</t>
-  </si>
-  <si>
-    <t>600585.SH</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>600332.SH</t>
-  </si>
-  <si>
-    <t>600570.SH</t>
-  </si>
-  <si>
-    <t>300077.SZ</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>000977.SZ</t>
-  </si>
-  <si>
-    <t>603986.SH</t>
-  </si>
-  <si>
-    <t>002371.SZ</t>
-  </si>
-  <si>
-    <t>600196.SH</t>
-  </si>
-  <si>
-    <t>000002.SZ</t>
-  </si>
-  <si>
-    <t>601601.SH</t>
-  </si>
-  <si>
-    <t>600028.SH</t>
-  </si>
-  <si>
-    <t>300496.SZ</t>
-  </si>
-  <si>
-    <t>601166.SH</t>
-  </si>
-  <si>
-    <t>600487.SH</t>
-  </si>
-  <si>
-    <t>600584.SH</t>
-  </si>
-  <si>
-    <t>002195.SZ</t>
-  </si>
-  <si>
-    <t>002405.SZ</t>
-  </si>
-  <si>
     <t>002415.SZ</t>
   </si>
   <si>
-    <t>300104.SZ</t>
-  </si>
-  <si>
-    <t>600436.SH</t>
-  </si>
-  <si>
-    <t>601688.SH</t>
-  </si>
-  <si>
-    <t>600498.SH</t>
-  </si>
-  <si>
-    <t>600050.SH</t>
-  </si>
-  <si>
-    <t>600797.SH</t>
-  </si>
-  <si>
-    <t>601939.SH</t>
+    <t>601888.SH</t>
   </si>
 </sst>
 </file>
@@ -552,13 +552,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>15747812239</v>
+        <v>4005374116</v>
       </c>
       <c r="C2">
-        <v>260286257</v>
+        <v>86575306</v>
       </c>
       <c r="D2">
-        <v>600980975162.4401</v>
+        <v>198994886855.36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -566,13 +566,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>10364328132</v>
+        <v>3366741680</v>
       </c>
       <c r="C3">
-        <v>229328728</v>
+        <v>60430590</v>
       </c>
       <c r="D3">
-        <v>191228474089.76</v>
+        <v>20504411753.6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>6006176680</v>
+        <v>2694568405</v>
       </c>
       <c r="C4">
-        <v>226844414</v>
+        <v>44158675</v>
       </c>
       <c r="D4">
-        <v>142776816957.72</v>
+        <v>555817133733.29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -594,13 +594,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3866680412</v>
+        <v>2492610223</v>
       </c>
       <c r="C5">
-        <v>5791521</v>
+        <v>3737584</v>
       </c>
       <c r="D5">
-        <v>297882602425.21</v>
+        <v>298035471102.59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -608,13 +608,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3511204446</v>
+        <v>2419117297</v>
       </c>
       <c r="C6">
-        <v>64588868.99999999</v>
+        <v>83821881</v>
       </c>
       <c r="D6">
-        <v>19419270932</v>
+        <v>28583874003.12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3128022793</v>
+        <v>2400756081</v>
       </c>
       <c r="C7">
-        <v>218137000</v>
+        <v>541875935</v>
       </c>
       <c r="D7">
-        <v>50559406715.05</v>
+        <v>103803423487.47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -636,13 +636,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2958464277</v>
+        <v>2078623338</v>
       </c>
       <c r="C8">
-        <v>270979568</v>
+        <v>139213438</v>
       </c>
       <c r="D8">
-        <v>82571557356.39999</v>
+        <v>52429363837.1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -650,13 +650,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2620556382</v>
+        <v>1827374529</v>
       </c>
       <c r="C9">
-        <v>609883726</v>
+        <v>73104906</v>
       </c>
       <c r="D9">
-        <v>101684986273.44</v>
+        <v>136436711732.88</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -664,13 +664,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>2280147351</v>
+        <v>1806382577</v>
       </c>
       <c r="C10">
-        <v>176921615</v>
+        <v>17972154</v>
       </c>
       <c r="D10">
-        <v>92067280895.59001</v>
+        <v>33135720449.86</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -678,13 +678,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>2075967214</v>
+        <v>1780944315</v>
       </c>
       <c r="C11">
-        <v>40346569</v>
+        <v>91499439</v>
       </c>
       <c r="D11">
-        <v>214269035740.64</v>
+        <v>151375890528.98</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -692,13 +692,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1877397982</v>
+        <v>1699648278</v>
       </c>
       <c r="C12">
-        <v>35126719</v>
+        <v>93811051</v>
       </c>
       <c r="D12">
-        <v>49406943888.12</v>
+        <v>17666057999.34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -706,13 +706,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1868922345</v>
+        <v>1642534046</v>
       </c>
       <c r="C13">
-        <v>90095518</v>
+        <v>67410853</v>
       </c>
       <c r="D13">
-        <v>42447360241.26</v>
+        <v>6396250673.52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -720,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1797413035</v>
+        <v>1561168880</v>
       </c>
       <c r="C14">
-        <v>137814262</v>
+        <v>30284288</v>
       </c>
       <c r="D14">
-        <v>6908819804.44</v>
+        <v>212302515406.1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -734,13 +734,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1792928857</v>
+        <v>1523410319</v>
       </c>
       <c r="C15">
-        <v>35954389</v>
+        <v>60088610</v>
       </c>
       <c r="D15">
-        <v>23879383200</v>
+        <v>18780875100.75</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -748,13 +748,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1714807646</v>
+        <v>1500132495</v>
       </c>
       <c r="C16">
-        <v>90460996</v>
+        <v>257490642</v>
       </c>
       <c r="D16">
-        <v>148406203466.46</v>
+        <v>57311702223.75</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -762,13 +762,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>1664707507</v>
+        <v>1455358587</v>
       </c>
       <c r="C17">
-        <v>57507931.99999999</v>
+        <v>19882975</v>
       </c>
       <c r="D17">
-        <v>343699552532.56</v>
+        <v>121553427559.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -776,13 +776,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>1607040276</v>
+        <v>1426835887</v>
       </c>
       <c r="C18">
-        <v>23621586</v>
+        <v>26739260</v>
       </c>
       <c r="D18">
-        <v>113349821748.9</v>
+        <v>24934851937.44</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -790,13 +790,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>1549487462</v>
+        <v>1361159751</v>
       </c>
       <c r="C19">
-        <v>81171187</v>
+        <v>39088725</v>
       </c>
       <c r="D19">
-        <v>40575139298.6</v>
+        <v>71982139959.39999</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -804,13 +804,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>1478238487</v>
+        <v>1247038097</v>
       </c>
       <c r="C20">
-        <v>133030075</v>
+        <v>19514368</v>
       </c>
       <c r="D20">
-        <v>43933918170.17</v>
+        <v>29480197582.28</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -818,13 +818,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1463873287</v>
+        <v>1222906169</v>
       </c>
       <c r="C21">
-        <v>66651593.00000001</v>
+        <v>34152512</v>
       </c>
       <c r="D21">
-        <v>5621948624.320001</v>
+        <v>16531335934.32</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -832,13 +832,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1408356276</v>
+        <v>1154814762</v>
       </c>
       <c r="C22">
-        <v>33134651</v>
+        <v>42538360</v>
       </c>
       <c r="D22">
-        <v>30418121182.5</v>
+        <v>149250631069.8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -846,13 +846,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1329368056</v>
+        <v>1143981195</v>
       </c>
       <c r="C23">
-        <v>82936255</v>
+        <v>54517075</v>
       </c>
       <c r="D23">
-        <v>11166990570.9</v>
+        <v>43105117308.25</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -860,13 +860,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>1307657116</v>
+        <v>1059930908</v>
       </c>
       <c r="C24">
-        <v>219741616</v>
+        <v>52587647</v>
       </c>
       <c r="D24">
-        <v>129383916144</v>
+        <v>17160976723.34</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -874,13 +874,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>1267760221</v>
+        <v>1025782725</v>
       </c>
       <c r="C25">
-        <v>37317218</v>
+        <v>18785406</v>
       </c>
       <c r="D25">
-        <v>70284057256.09999</v>
+        <v>50736194746.8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -888,13 +888,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>1266648945</v>
+        <v>1012186658</v>
       </c>
       <c r="C26">
-        <v>15268734</v>
+        <v>35228451</v>
       </c>
       <c r="D26">
-        <v>140735535699.68</v>
+        <v>25085769676.8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -902,13 +902,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>1254284269</v>
+        <v>1000607103</v>
       </c>
       <c r="C27">
-        <v>35782356</v>
+        <v>86564364</v>
       </c>
       <c r="D27">
-        <v>17164500391.22</v>
+        <v>6140157044</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -916,13 +916,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>1248371036</v>
+        <v>987654222</v>
       </c>
       <c r="C28">
-        <v>20832802</v>
+        <v>52125767</v>
       </c>
       <c r="D28">
-        <v>29818534037.76</v>
+        <v>58103790341.34</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -930,13 +930,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>1238367473</v>
+        <v>980624338</v>
       </c>
       <c r="C29">
-        <v>106288446</v>
+        <v>45904299</v>
       </c>
       <c r="D29">
-        <v>6167277879</v>
+        <v>43147268218.08</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -944,13 +944,13 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>1211789468</v>
+        <v>978779969</v>
       </c>
       <c r="C30">
-        <v>11223707</v>
+        <v>15649775</v>
       </c>
       <c r="D30">
-        <v>36179745259.77</v>
+        <v>30220163438.4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -958,13 +958,13 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>1204073096</v>
+        <v>975938248</v>
       </c>
       <c r="C31">
-        <v>53184377</v>
+        <v>33769717</v>
       </c>
       <c r="D31">
-        <v>17425942227.75</v>
+        <v>356801698202.04</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -972,13 +972,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>1192514475</v>
+        <v>970729544</v>
       </c>
       <c r="C32">
-        <v>6809531</v>
+        <v>141286231</v>
       </c>
       <c r="D32">
-        <v>17950766954.64</v>
+        <v>14973600947.7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -986,13 +986,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>1141307362</v>
+        <v>962238394</v>
       </c>
       <c r="C33">
-        <v>22904893</v>
+        <v>31904069</v>
       </c>
       <c r="D33">
-        <v>9005024582.280001</v>
+        <v>4904422478.2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1000,13 +1000,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>1117438958</v>
+        <v>954575967</v>
       </c>
       <c r="C34">
-        <v>29198809</v>
+        <v>25084828</v>
       </c>
       <c r="D34">
-        <v>37430563256.03999</v>
+        <v>18621266107.08</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1014,13 +1014,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>1071392412</v>
+        <v>947919449</v>
       </c>
       <c r="C35">
-        <v>38195829</v>
+        <v>71978718</v>
       </c>
       <c r="D35">
-        <v>157514601352</v>
+        <v>91366083021.28999</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1028,13 +1028,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>1071383886</v>
+        <v>943908946</v>
       </c>
       <c r="C36">
-        <v>34243368</v>
+        <v>22807213</v>
       </c>
       <c r="D36">
-        <v>102374318044.4</v>
+        <v>40554643028.57999</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1042,13 +1042,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>1062821670</v>
+        <v>941061150</v>
       </c>
       <c r="C37">
-        <v>155236578</v>
+        <v>59927976</v>
       </c>
       <c r="D37">
-        <v>67476840619.95</v>
+        <v>10907129784.03</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1056,13 +1056,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>1058927857</v>
+        <v>897171163</v>
       </c>
       <c r="C38">
-        <v>29186366</v>
+        <v>17466304</v>
       </c>
       <c r="D38">
-        <v>6982489145.52</v>
+        <v>9280725862.07</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1070,13 +1070,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>1046608490</v>
+        <v>861807931</v>
       </c>
       <c r="C39">
-        <v>65127691</v>
+        <v>15964533</v>
       </c>
       <c r="D39">
-        <v>241120479523.95</v>
+        <v>31353971881.8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1084,13 +1084,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>1043198528</v>
+        <v>861008205</v>
       </c>
       <c r="C40">
-        <v>33786612</v>
+        <v>4989869</v>
       </c>
       <c r="D40">
-        <v>26649049248.36</v>
+        <v>17805795413.28</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1098,13 +1098,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>1032113785</v>
+        <v>831859059</v>
       </c>
       <c r="C41">
-        <v>45815739</v>
+        <v>62821935</v>
       </c>
       <c r="D41">
-        <v>19154250689.71</v>
+        <v>4226673101.44</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1112,13 +1112,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>1027349915</v>
+        <v>825441095</v>
       </c>
       <c r="C42">
-        <v>140222184</v>
+        <v>18643255</v>
       </c>
       <c r="D42">
-        <v>16232443505.25</v>
+        <v>30923919040.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1126,13 +1126,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>1001485053</v>
+        <v>824331607</v>
       </c>
       <c r="C43">
-        <v>37763536</v>
+        <v>40442437</v>
       </c>
       <c r="D43">
-        <v>20638696562.07</v>
+        <v>5244355060</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1140,13 +1140,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>981825507</v>
+        <v>806651732</v>
       </c>
       <c r="C44">
-        <v>25504586</v>
+        <v>66194988</v>
       </c>
       <c r="D44">
-        <v>122333720085.5</v>
+        <v>6839846561.8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1154,13 +1154,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>981624164</v>
+        <v>804537541</v>
       </c>
       <c r="C45">
-        <v>212134662</v>
+        <v>64009052</v>
       </c>
       <c r="D45">
-        <v>12399221276.82</v>
+        <v>1393164552</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1168,13 +1168,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>973173865</v>
+        <v>785107001</v>
       </c>
       <c r="C46">
-        <v>10353823</v>
+        <v>31297927</v>
       </c>
       <c r="D46">
-        <v>23443847342.08</v>
+        <v>24771535343.72</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1182,13 +1182,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>957718187</v>
+        <v>778490615</v>
       </c>
       <c r="C47">
-        <v>52571472</v>
+        <v>131596952</v>
       </c>
       <c r="D47">
-        <v>55979724249.28</v>
+        <v>127443157401.84</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1196,13 +1196,13 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>947539316</v>
+        <v>769171703</v>
       </c>
       <c r="C48">
-        <v>33685322</v>
+        <v>3686974</v>
       </c>
       <c r="D48">
-        <v>14490654780.8</v>
+        <v>27632028934.84</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1210,13 +1210,13 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>945646701</v>
+        <v>761302468</v>
       </c>
       <c r="C49">
-        <v>165252806</v>
+        <v>71050952</v>
       </c>
       <c r="D49">
-        <v>55940140119.25</v>
+        <v>81277809453.12</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1224,13 +1224,13 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>901003996</v>
+        <v>752644204</v>
       </c>
       <c r="C50">
-        <v>67088743.00000001</v>
+        <v>19169148</v>
       </c>
       <c r="D50">
-        <v>9519101389.039999</v>
+        <v>124653294518.29</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1238,13 +1238,13 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>897778208</v>
+        <v>751191812</v>
       </c>
       <c r="C51">
-        <v>121154691</v>
+        <v>12890194</v>
       </c>
       <c r="D51">
-        <v>66580047208.4</v>
+        <v>50656345285.76001</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/volume_top50.xlsx
+++ b/website/everyday-update/data/volume_top50.xlsx
@@ -25,154 +25,154 @@
     <t>mkt_freeshares</t>
   </si>
   <si>
+    <t>600887.SH</t>
+  </si>
+  <si>
+    <t>000735.SZ</t>
+  </si>
+  <si>
+    <t>601318.SH</t>
+  </si>
+  <si>
+    <t>600519.SH</t>
+  </si>
+  <si>
+    <t>300059.SZ</t>
+  </si>
+  <si>
+    <t>000725.SZ</t>
+  </si>
+  <si>
+    <t>600436.SH</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
     <t>000651.SZ</t>
   </si>
   <si>
+    <t>002065.SZ</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
     <t>002049.SZ</t>
   </si>
   <si>
-    <t>601318.SH</t>
-  </si>
-  <si>
-    <t>600519.SH</t>
+    <t>002024.SZ</t>
+  </si>
+  <si>
+    <t>603799.SH</t>
   </si>
   <si>
     <t>600516.SH</t>
   </si>
   <si>
-    <t>000725.SZ</t>
-  </si>
-  <si>
-    <t>300059.SZ</t>
-  </si>
-  <si>
-    <t>600887.SH</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
+    <t>000333.SZ</t>
+  </si>
+  <si>
+    <t>000002.SZ</t>
+  </si>
+  <si>
+    <t>002460.SZ</t>
+  </si>
+  <si>
+    <t>600703.SH</t>
+  </si>
+  <si>
+    <t>600487.SH</t>
+  </si>
+  <si>
+    <t>600547.SH</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>000001.SZ</t>
+  </si>
+  <si>
+    <t>600332.SH</t>
+  </si>
+  <si>
+    <t>002596.SZ</t>
+  </si>
+  <si>
+    <t>300015.SZ</t>
   </si>
   <si>
     <t>000830.SZ</t>
   </si>
   <si>
-    <t>600536.SH</t>
-  </si>
-  <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>000977.SZ</t>
-  </si>
-  <si>
-    <t>600050.SH</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>603019.SH</t>
+    <t>002023.SZ</t>
+  </si>
+  <si>
+    <t>002168.SZ</t>
+  </si>
+  <si>
+    <t>600570.SH</t>
+  </si>
+  <si>
+    <t>002230.SZ</t>
+  </si>
+  <si>
+    <t>300122.SZ</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
+    <t>600352.SH</t>
+  </si>
+  <si>
+    <t>603993.SH</t>
+  </si>
+  <si>
+    <t>300253.SZ</t>
+  </si>
+  <si>
+    <t>600036.SH</t>
+  </si>
+  <si>
+    <t>601939.SH</t>
+  </si>
+  <si>
+    <t>002466.SZ</t>
+  </si>
+  <si>
+    <t>600711.SH</t>
+  </si>
+  <si>
+    <t>600690.SH</t>
+  </si>
+  <si>
+    <t>002264.SZ</t>
+  </si>
+  <si>
+    <t>002237.SZ</t>
+  </si>
+  <si>
+    <t>601166.SH</t>
+  </si>
+  <si>
+    <t>300162.SZ</t>
+  </si>
+  <si>
+    <t>002366.SZ</t>
+  </si>
+  <si>
+    <t>002161.SZ</t>
   </si>
   <si>
     <t>600585.SH</t>
   </si>
   <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>002001.SZ</t>
-  </si>
-  <si>
-    <t>000002.SZ</t>
-  </si>
-  <si>
-    <t>600703.SH</t>
-  </si>
-  <si>
-    <t>600584.SH</t>
-  </si>
-  <si>
-    <t>002230.SZ</t>
-  </si>
-  <si>
-    <t>600588.SH</t>
-  </si>
-  <si>
-    <t>300077.SZ</t>
-  </si>
-  <si>
-    <t>601688.SH</t>
-  </si>
-  <si>
-    <t>002450.SZ</t>
-  </si>
-  <si>
-    <t>600570.SH</t>
-  </si>
-  <si>
-    <t>600036.SH</t>
-  </si>
-  <si>
-    <t>002195.SZ</t>
-  </si>
-  <si>
-    <t>300348.SZ</t>
-  </si>
-  <si>
-    <t>600332.SH</t>
-  </si>
-  <si>
-    <t>600048.SH</t>
-  </si>
-  <si>
-    <t>600196.SH</t>
-  </si>
-  <si>
-    <t>600460.SH</t>
-  </si>
-  <si>
-    <t>002371.SZ</t>
-  </si>
-  <si>
-    <t>002466.SZ</t>
-  </si>
-  <si>
-    <t>603986.SH</t>
-  </si>
-  <si>
-    <t>000789.SZ</t>
-  </si>
-  <si>
-    <t>601336.SH</t>
-  </si>
-  <si>
-    <t>600756.SH</t>
-  </si>
-  <si>
-    <t>002023.SZ</t>
-  </si>
-  <si>
-    <t>002863.SZ</t>
-  </si>
-  <si>
-    <t>600271.SH</t>
-  </si>
-  <si>
-    <t>601398.SH</t>
-  </si>
-  <si>
-    <t>000661.SZ</t>
-  </si>
-  <si>
-    <t>000001.SZ</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>601888.SH</t>
+    <t>601069.SH</t>
   </si>
 </sst>
 </file>
@@ -552,13 +552,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4005374116</v>
+        <v>4241062218</v>
       </c>
       <c r="C2">
-        <v>86575306</v>
+        <v>151429928</v>
       </c>
       <c r="D2">
-        <v>198994886855.36</v>
+        <v>155064196741.92</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -566,13 +566,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3366741680</v>
+        <v>3628760328</v>
       </c>
       <c r="C3">
-        <v>60430590</v>
+        <v>222983691</v>
       </c>
       <c r="D3">
-        <v>20504411753.6</v>
+        <v>15311172021.6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2694568405</v>
+        <v>2998177225</v>
       </c>
       <c r="C4">
-        <v>44158675</v>
+        <v>49083664</v>
       </c>
       <c r="D4">
-        <v>555817133733.29</v>
+        <v>555267816849.35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -594,13 +594,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2492610223</v>
+        <v>2706486799</v>
       </c>
       <c r="C5">
-        <v>3737584</v>
+        <v>3714710</v>
       </c>
       <c r="D5">
-        <v>298035471102.59</v>
+        <v>326361137793.59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -608,13 +608,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2419117297</v>
+        <v>2270847000</v>
       </c>
       <c r="C6">
-        <v>83821881</v>
+        <v>168890510</v>
       </c>
       <c r="D6">
-        <v>28583874003.12</v>
+        <v>46219694903.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2400756081</v>
+        <v>2203367965</v>
       </c>
       <c r="C7">
-        <v>541875935</v>
+        <v>555596763</v>
       </c>
       <c r="D7">
-        <v>103803423487.47</v>
+        <v>92269709766.64</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -636,13 +636,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2078623338</v>
+        <v>2130657899</v>
       </c>
       <c r="C8">
-        <v>139213438</v>
+        <v>19409456</v>
       </c>
       <c r="D8">
-        <v>52429363837.1</v>
+        <v>27166367078.4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -650,13 +650,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1827374529</v>
+        <v>2045859932</v>
       </c>
       <c r="C9">
-        <v>73104906</v>
+        <v>26765570</v>
       </c>
       <c r="D9">
-        <v>136436711732.88</v>
+        <v>128056285824</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -664,13 +664,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1806382577</v>
+        <v>2012561662</v>
       </c>
       <c r="C10">
-        <v>17972154</v>
+        <v>44397400</v>
       </c>
       <c r="D10">
-        <v>33135720449.86</v>
+        <v>196609377095.76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -678,13 +678,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1780944315</v>
+        <v>1992009496</v>
       </c>
       <c r="C11">
-        <v>91499439</v>
+        <v>192151314</v>
       </c>
       <c r="D11">
-        <v>151375890528.98</v>
+        <v>18260176753.98</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -692,13 +692,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1699648278</v>
+        <v>1919403868</v>
       </c>
       <c r="C12">
-        <v>93811051</v>
+        <v>104448679</v>
       </c>
       <c r="D12">
-        <v>17666057999.34</v>
+        <v>141607183086.48</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -706,13 +706,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1642534046</v>
+        <v>1688995326</v>
       </c>
       <c r="C13">
-        <v>67410853</v>
+        <v>22828618</v>
       </c>
       <c r="D13">
-        <v>6396250673.52</v>
+        <v>163319307037.2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -720,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1561168880</v>
+        <v>1672456450</v>
       </c>
       <c r="C14">
-        <v>30284288</v>
+        <v>33259036</v>
       </c>
       <c r="D14">
-        <v>212302515406.1</v>
+        <v>18082026687.2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -734,13 +734,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1523410319</v>
+        <v>1647772450</v>
       </c>
       <c r="C15">
-        <v>60088610</v>
+        <v>110382224</v>
       </c>
       <c r="D15">
-        <v>18780875100.75</v>
+        <v>48266140924.08</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -748,13 +748,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1500132495</v>
+        <v>1408745328</v>
       </c>
       <c r="C16">
-        <v>257490642</v>
+        <v>13451475</v>
       </c>
       <c r="D16">
-        <v>57311702223.75</v>
+        <v>34651959288.66</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -762,13 +762,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>1455358587</v>
+        <v>1360018267</v>
       </c>
       <c r="C17">
-        <v>19882975</v>
+        <v>52273428</v>
       </c>
       <c r="D17">
-        <v>121553427559.5</v>
+        <v>25322228629.32</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -776,13 +776,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>1426835887</v>
+        <v>1359774128</v>
       </c>
       <c r="C18">
-        <v>26739260</v>
+        <v>26919428</v>
       </c>
       <c r="D18">
-        <v>24934851937.44</v>
+        <v>210969367513.85</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -790,13 +790,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>1361159751</v>
+        <v>1342440709</v>
       </c>
       <c r="C19">
-        <v>39088725</v>
+        <v>54016881.99999999</v>
       </c>
       <c r="D19">
-        <v>71982139959.39999</v>
+        <v>136660555539.2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -804,13 +804,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>1247038097</v>
+        <v>1332596483</v>
       </c>
       <c r="C20">
-        <v>19514368</v>
+        <v>31651805</v>
       </c>
       <c r="D20">
-        <v>29480197582.28</v>
+        <v>28700562975.21</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -818,13 +818,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1222906169</v>
+        <v>1218771251</v>
       </c>
       <c r="C21">
-        <v>34152512</v>
+        <v>60330325</v>
       </c>
       <c r="D21">
-        <v>16531335934.32</v>
+        <v>42876608252.64</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -832,13 +832,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1154814762</v>
+        <v>1167505212</v>
       </c>
       <c r="C22">
-        <v>42538360</v>
+        <v>35527948</v>
       </c>
       <c r="D22">
-        <v>149250631069.8</v>
+        <v>27498112771.36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -846,13 +846,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1143981195</v>
+        <v>1166930231</v>
       </c>
       <c r="C23">
-        <v>54517075</v>
+        <v>41569715</v>
       </c>
       <c r="D23">
-        <v>43105117308.25</v>
+        <v>20594757839.82</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -860,13 +860,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>1059930908</v>
+        <v>1155247008</v>
       </c>
       <c r="C24">
-        <v>52587647</v>
+        <v>26071524</v>
       </c>
       <c r="D24">
-        <v>17160976723.34</v>
+        <v>43201838349.85999</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -874,13 +874,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>1025782725</v>
+        <v>1139918753</v>
       </c>
       <c r="C25">
-        <v>18785406</v>
+        <v>112444704</v>
       </c>
       <c r="D25">
-        <v>50736194746.8</v>
+        <v>76711732503.84</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -888,13 +888,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>1012186658</v>
+        <v>1091815567</v>
       </c>
       <c r="C26">
-        <v>35228451</v>
+        <v>26094047</v>
       </c>
       <c r="D26">
-        <v>25085769676.8</v>
+        <v>20360615139.06</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -902,13 +902,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>1000607103</v>
+        <v>1091708430</v>
       </c>
       <c r="C27">
-        <v>86564364</v>
+        <v>92497530</v>
       </c>
       <c r="D27">
-        <v>6140157044</v>
+        <v>6284950257.960001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -916,13 +916,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>987654222</v>
+        <v>1086835113</v>
       </c>
       <c r="C28">
-        <v>52125767</v>
+        <v>35365443</v>
       </c>
       <c r="D28">
-        <v>58103790341.34</v>
+        <v>23176861162.8</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -930,13 +930,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>980624338</v>
+        <v>1082764472</v>
       </c>
       <c r="C29">
-        <v>45904299</v>
+        <v>56830677</v>
       </c>
       <c r="D29">
-        <v>43147268218.08</v>
+        <v>18171357788.1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -944,13 +944,13 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>978779969</v>
+        <v>1074649684</v>
       </c>
       <c r="C30">
-        <v>15649775</v>
+        <v>77978381</v>
       </c>
       <c r="D30">
-        <v>30220163438.4</v>
+        <v>7621543311.72</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -958,13 +958,13 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>975938248</v>
+        <v>1063489881</v>
       </c>
       <c r="C31">
-        <v>33769717</v>
+        <v>104548610</v>
       </c>
       <c r="D31">
-        <v>356801698202.04</v>
+        <v>7682777073.04</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -972,13 +972,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>970729544</v>
+        <v>1058030406</v>
       </c>
       <c r="C32">
-        <v>141286231</v>
+        <v>18246995</v>
       </c>
       <c r="D32">
-        <v>14973600947.7</v>
+        <v>27947528781.12</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -986,13 +986,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>962238394</v>
+        <v>1057597798</v>
       </c>
       <c r="C33">
-        <v>31904069</v>
+        <v>29896594</v>
       </c>
       <c r="D33">
-        <v>4904422478.2</v>
+        <v>49648508536</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1000,13 +1000,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>954575967</v>
+        <v>1038623363</v>
       </c>
       <c r="C34">
-        <v>25084828</v>
+        <v>22674500</v>
       </c>
       <c r="D34">
-        <v>18621266107.08</v>
+        <v>19061520354.15</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1014,13 +1014,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>947919449</v>
+        <v>1036132456</v>
       </c>
       <c r="C35">
-        <v>71978718</v>
+        <v>27162218</v>
       </c>
       <c r="D35">
-        <v>91366083021.28999</v>
+        <v>120681420489.54</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1028,13 +1028,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>943908946</v>
+        <v>1026320004</v>
       </c>
       <c r="C36">
-        <v>22807213</v>
+        <v>81769963</v>
       </c>
       <c r="D36">
-        <v>40554643028.57999</v>
+        <v>31315912745.2</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1042,13 +1042,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>941061150</v>
+        <v>1008053774</v>
       </c>
       <c r="C37">
-        <v>59927976</v>
+        <v>141948954</v>
       </c>
       <c r="D37">
-        <v>10907129784.03</v>
+        <v>16058019395.99</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1056,13 +1056,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>897171163</v>
+        <v>1007738423</v>
       </c>
       <c r="C38">
-        <v>17466304</v>
+        <v>77014197</v>
       </c>
       <c r="D38">
-        <v>9280725862.07</v>
+        <v>13720262482.71</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1070,13 +1070,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>861807931</v>
+        <v>966502631</v>
       </c>
       <c r="C39">
-        <v>15964533</v>
+        <v>33958888</v>
       </c>
       <c r="D39">
-        <v>31353971881.8</v>
+        <v>351339180901.8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1084,13 +1084,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>861008205</v>
+        <v>934859311</v>
       </c>
       <c r="C40">
-        <v>4989869</v>
+        <v>131976544</v>
       </c>
       <c r="D40">
-        <v>17805795413.28</v>
+        <v>62752584601.5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1098,13 +1098,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>831859059</v>
+        <v>891300944</v>
       </c>
       <c r="C41">
-        <v>62821935</v>
+        <v>15955004</v>
       </c>
       <c r="D41">
-        <v>4226673101.44</v>
+        <v>31964310600.3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1112,13 +1112,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>825441095</v>
+        <v>884446397</v>
       </c>
       <c r="C42">
-        <v>18643255</v>
+        <v>82086015</v>
       </c>
       <c r="D42">
-        <v>30923919040.5</v>
+        <v>13644225565.71</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1126,13 +1126,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>824331607</v>
+        <v>880744642</v>
       </c>
       <c r="C43">
-        <v>40442437</v>
+        <v>46738346</v>
       </c>
       <c r="D43">
-        <v>5244355060</v>
+        <v>61931577965.53001</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1140,13 +1140,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>806651732</v>
+        <v>865168371</v>
       </c>
       <c r="C44">
-        <v>66194988</v>
+        <v>79330661</v>
       </c>
       <c r="D44">
-        <v>6839846561.8</v>
+        <v>2808307692.3</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1154,13 +1154,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>804537541</v>
+        <v>857286726</v>
       </c>
       <c r="C45">
-        <v>64009052</v>
+        <v>76740624</v>
       </c>
       <c r="D45">
-        <v>1393164552</v>
+        <v>5295335195.64</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1168,13 +1168,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>785107001</v>
+        <v>846488203</v>
       </c>
       <c r="C46">
-        <v>31297927</v>
+        <v>53289111</v>
       </c>
       <c r="D46">
-        <v>24771535343.72</v>
+        <v>229650162000.45</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1182,13 +1182,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>778490615</v>
+        <v>842055664</v>
       </c>
       <c r="C47">
-        <v>131596952</v>
+        <v>75340164</v>
       </c>
       <c r="D47">
-        <v>127443157401.84</v>
+        <v>1606666691.6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1196,13 +1196,13 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>769171703</v>
+        <v>832328696</v>
       </c>
       <c r="C48">
-        <v>3686974</v>
+        <v>50116247</v>
       </c>
       <c r="D48">
-        <v>27632028934.84</v>
+        <v>7986787448.400001</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1210,13 +1210,13 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>761302468</v>
+        <v>832298152</v>
       </c>
       <c r="C49">
-        <v>71050952</v>
+        <v>90120009</v>
       </c>
       <c r="D49">
-        <v>81277809453.12</v>
+        <v>4771847175.839999</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1224,13 +1224,13 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>752644204</v>
+        <v>829413118</v>
       </c>
       <c r="C50">
-        <v>19169148</v>
+        <v>25107967</v>
       </c>
       <c r="D50">
-        <v>124653294518.29</v>
+        <v>67654099898.55</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1238,13 +1238,13 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>751191812</v>
+        <v>827963958</v>
       </c>
       <c r="C51">
-        <v>12890194</v>
+        <v>44091396</v>
       </c>
       <c r="D51">
-        <v>50656345285.76001</v>
+        <v>3899284500</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/volume_top50.xlsx
+++ b/website/everyday-update/data/volume_top50.xlsx
@@ -25,154 +25,154 @@
     <t>mkt_freeshares</t>
   </si>
   <si>
+    <t>603799.SH</t>
+  </si>
+  <si>
+    <t>601318.SH</t>
+  </si>
+  <si>
+    <t>000636.SZ</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>002460.SZ</t>
+  </si>
+  <si>
+    <t>600519.SH</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
+  </si>
+  <si>
+    <t>300059.SZ</t>
+  </si>
+  <si>
+    <t>600536.SH</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>002049.SZ</t>
+  </si>
+  <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>000725.SZ</t>
+  </si>
+  <si>
+    <t>000735.SZ</t>
+  </si>
+  <si>
+    <t>300618.SZ</t>
+  </si>
+  <si>
+    <t>002371.SZ</t>
+  </si>
+  <si>
+    <t>600309.SH</t>
+  </si>
+  <si>
+    <t>603993.SH</t>
+  </si>
+  <si>
+    <t>002466.SZ</t>
+  </si>
+  <si>
+    <t>000977.SZ</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>600516.SH</t>
+  </si>
+  <si>
     <t>600887.SH</t>
   </si>
   <si>
-    <t>000735.SZ</t>
-  </si>
-  <si>
-    <t>601318.SH</t>
-  </si>
-  <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>300059.SZ</t>
-  </si>
-  <si>
-    <t>000725.SZ</t>
+    <t>002607.SZ</t>
+  </si>
+  <si>
+    <t>603019.SH</t>
+  </si>
+  <si>
+    <t>600596.SH</t>
+  </si>
+  <si>
+    <t>601939.SH</t>
+  </si>
+  <si>
+    <t>600884.SH</t>
+  </si>
+  <si>
+    <t>600352.SH</t>
+  </si>
+  <si>
+    <t>600810.SH</t>
+  </si>
+  <si>
+    <t>000830.SZ</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
+    <t>600585.SH</t>
+  </si>
+  <si>
+    <t>600048.SH</t>
   </si>
   <si>
     <t>600436.SH</t>
   </si>
   <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
-    <t>002065.SZ</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>002049.SZ</t>
-  </si>
-  <si>
-    <t>002024.SZ</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>600516.SH</t>
-  </si>
-  <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>000002.SZ</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>600703.SH</t>
-  </si>
-  <si>
-    <t>600487.SH</t>
-  </si>
-  <si>
-    <t>600547.SH</t>
-  </si>
-  <si>
-    <t>600196.SH</t>
+    <t>600036.SH</t>
+  </si>
+  <si>
+    <t>601398.SH</t>
+  </si>
+  <si>
+    <t>600029.SH</t>
+  </si>
+  <si>
+    <t>002230.SZ</t>
+  </si>
+  <si>
+    <t>300139.SZ</t>
+  </si>
+  <si>
+    <t>601069.SH</t>
+  </si>
+  <si>
+    <t>000661.SZ</t>
+  </si>
+  <si>
+    <t>300122.SZ</t>
+  </si>
+  <si>
+    <t>002110.SZ</t>
+  </si>
+  <si>
+    <t>600176.SH</t>
   </si>
   <si>
     <t>000001.SZ</t>
   </si>
   <si>
-    <t>600332.SH</t>
-  </si>
-  <si>
-    <t>002596.SZ</t>
-  </si>
-  <si>
-    <t>300015.SZ</t>
-  </si>
-  <si>
-    <t>000830.SZ</t>
-  </si>
-  <si>
-    <t>002023.SZ</t>
-  </si>
-  <si>
-    <t>002168.SZ</t>
-  </si>
-  <si>
-    <t>600570.SH</t>
-  </si>
-  <si>
-    <t>002230.SZ</t>
-  </si>
-  <si>
-    <t>300122.SZ</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>600352.SH</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>300253.SZ</t>
-  </si>
-  <si>
-    <t>600036.SH</t>
-  </si>
-  <si>
-    <t>601939.SH</t>
-  </si>
-  <si>
-    <t>002466.SZ</t>
-  </si>
-  <si>
-    <t>600711.SH</t>
+    <t>300647.SZ</t>
   </si>
   <si>
     <t>600690.SH</t>
   </si>
   <si>
-    <t>002264.SZ</t>
-  </si>
-  <si>
-    <t>002237.SZ</t>
-  </si>
-  <si>
-    <t>601166.SH</t>
-  </si>
-  <si>
-    <t>300162.SZ</t>
-  </si>
-  <si>
-    <t>002366.SZ</t>
-  </si>
-  <si>
-    <t>002161.SZ</t>
-  </si>
-  <si>
-    <t>600585.SH</t>
-  </si>
-  <si>
-    <t>601069.SH</t>
+    <t>300077.SZ</t>
   </si>
 </sst>
 </file>
@@ -552,13 +552,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4241062218</v>
+        <v>2962525713</v>
       </c>
       <c r="C2">
-        <v>151429928</v>
+        <v>40740492</v>
       </c>
       <c r="D2">
-        <v>155064196741.92</v>
+        <v>34434078025.28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -566,13 +566,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3628760328</v>
+        <v>2701645194</v>
       </c>
       <c r="C3">
-        <v>222983691</v>
+        <v>47378185</v>
       </c>
       <c r="D3">
-        <v>15311172021.6</v>
+        <v>522675015068.91</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2998177225</v>
+        <v>2069674264</v>
       </c>
       <c r="C4">
-        <v>49083664</v>
+        <v>108944444</v>
       </c>
       <c r="D4">
-        <v>555267816849.35</v>
+        <v>13033342909.63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -594,13 +594,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2706486799</v>
+        <v>2007374503</v>
       </c>
       <c r="C5">
-        <v>3714710</v>
+        <v>165374267</v>
       </c>
       <c r="D5">
-        <v>326361137793.59</v>
+        <v>26161606818.6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -608,13 +608,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2270847000</v>
+        <v>1817200188</v>
       </c>
       <c r="C6">
-        <v>168890510</v>
+        <v>46555164</v>
       </c>
       <c r="D6">
-        <v>46219694903.5</v>
+        <v>27229818084.75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2203367965</v>
+        <v>1736875980</v>
       </c>
       <c r="C7">
-        <v>555596763</v>
+        <v>2427845</v>
       </c>
       <c r="D7">
-        <v>92269709766.64</v>
+        <v>323533067262.06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -636,13 +636,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2130657899</v>
+        <v>1708613018</v>
       </c>
       <c r="C8">
-        <v>19409456</v>
+        <v>36314578</v>
       </c>
       <c r="D8">
-        <v>27166367078.4</v>
+        <v>201252101653.6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -650,13 +650,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2045859932</v>
+        <v>1639750519</v>
       </c>
       <c r="C9">
-        <v>26765570</v>
+        <v>129553165</v>
       </c>
       <c r="D9">
-        <v>128056285824</v>
+        <v>44844619371.04</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -664,13 +664,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>2012561662</v>
+        <v>1607516605</v>
       </c>
       <c r="C10">
-        <v>44397400</v>
+        <v>63413331.99999999</v>
       </c>
       <c r="D10">
-        <v>196609377095.76</v>
+        <v>6792454576.08</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -678,13 +678,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1992009496</v>
+        <v>1408057412</v>
       </c>
       <c r="C11">
-        <v>192151314</v>
+        <v>31229807</v>
       </c>
       <c r="D11">
-        <v>18260176753.98</v>
+        <v>196435885476.88</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -692,13 +692,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1919403868</v>
+        <v>1384484213</v>
       </c>
       <c r="C12">
-        <v>104448679</v>
+        <v>31605169</v>
       </c>
       <c r="D12">
-        <v>141607183086.48</v>
+        <v>15937320753.6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -706,13 +706,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1688995326</v>
+        <v>1383548997</v>
       </c>
       <c r="C13">
-        <v>22828618</v>
+        <v>19282089</v>
       </c>
       <c r="D13">
-        <v>163319307037.2</v>
+        <v>158607330250.7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -720,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1672456450</v>
+        <v>1377729665</v>
       </c>
       <c r="C14">
-        <v>33259036</v>
+        <v>19172467</v>
       </c>
       <c r="D14">
-        <v>18082026687.2</v>
+        <v>120186159924.4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -734,13 +734,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1647772450</v>
+        <v>1351227260</v>
       </c>
       <c r="C15">
-        <v>110382224</v>
+        <v>405016341</v>
       </c>
       <c r="D15">
-        <v>48266140924.08</v>
+        <v>78146795006.44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -748,13 +748,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1408745328</v>
+        <v>1349957977</v>
       </c>
       <c r="C16">
-        <v>13451475</v>
+        <v>116183899</v>
       </c>
       <c r="D16">
-        <v>34651959288.66</v>
+        <v>10827185929.56</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -762,13 +762,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>1360018267</v>
+        <v>1282975554</v>
       </c>
       <c r="C17">
-        <v>52273428</v>
+        <v>9279281</v>
       </c>
       <c r="D17">
-        <v>25322228629.32</v>
+        <v>8098066800</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -776,13 +776,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>1359774128</v>
+        <v>1232723217</v>
       </c>
       <c r="C18">
-        <v>26919428</v>
+        <v>24121613</v>
       </c>
       <c r="D18">
-        <v>210969367513.85</v>
+        <v>9676932337</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -790,13 +790,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>1342440709</v>
+        <v>1185997480</v>
       </c>
       <c r="C19">
-        <v>54016881.99999999</v>
+        <v>26478445</v>
       </c>
       <c r="D19">
-        <v>136660555539.2</v>
+        <v>64069038900</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -804,13 +804,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>1332596483</v>
+        <v>1147289490</v>
       </c>
       <c r="C20">
-        <v>31651805</v>
+        <v>183415379</v>
       </c>
       <c r="D20">
-        <v>28700562975.21</v>
+        <v>14408693580.71</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -818,13 +818,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1218771251</v>
+        <v>1118740589</v>
       </c>
       <c r="C21">
-        <v>60330325</v>
+        <v>22735707</v>
       </c>
       <c r="D21">
-        <v>42876608252.64</v>
+        <v>28825425762.3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -832,13 +832,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1167505212</v>
+        <v>1115293780</v>
       </c>
       <c r="C22">
-        <v>35527948</v>
+        <v>45656455</v>
       </c>
       <c r="D22">
-        <v>27498112771.36</v>
+        <v>18442141882.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -846,13 +846,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1166930231</v>
+        <v>1079853690</v>
       </c>
       <c r="C23">
-        <v>41569715</v>
+        <v>67253821</v>
       </c>
       <c r="D23">
-        <v>20594757839.82</v>
+        <v>125664652540.32</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -860,13 +860,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>1155247008</v>
+        <v>1005568880</v>
       </c>
       <c r="C24">
-        <v>26071524</v>
+        <v>42747496</v>
       </c>
       <c r="D24">
-        <v>43201838349.85999</v>
+        <v>23562916882.24</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -874,13 +874,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>1139918753</v>
+        <v>967694171</v>
       </c>
       <c r="C25">
-        <v>112444704</v>
+        <v>35103670</v>
       </c>
       <c r="D25">
-        <v>76711732503.84</v>
+        <v>152261831740.56</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -888,13 +888,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>1091815567</v>
+        <v>927991518</v>
       </c>
       <c r="C26">
-        <v>26094047</v>
+        <v>96192622</v>
       </c>
       <c r="D26">
-        <v>20360615139.06</v>
+        <v>4643184355.299999</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -902,13 +902,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>1091708430</v>
+        <v>918127732</v>
       </c>
       <c r="C27">
-        <v>92497530</v>
+        <v>20164997</v>
       </c>
       <c r="D27">
-        <v>6284950257.960001</v>
+        <v>21620393549.28</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -916,13 +916,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>1086835113</v>
+        <v>912231660</v>
       </c>
       <c r="C28">
-        <v>35365443</v>
+        <v>52358901</v>
       </c>
       <c r="D28">
-        <v>23176861162.8</v>
+        <v>9620138837.209999</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -930,13 +930,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>1082764472</v>
+        <v>897370142</v>
       </c>
       <c r="C29">
-        <v>56830677</v>
+        <v>133489423</v>
       </c>
       <c r="D29">
-        <v>18171357788.1</v>
+        <v>59904240335.9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -944,13 +944,13 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>1074649684</v>
+        <v>885448769</v>
       </c>
       <c r="C30">
-        <v>77978381</v>
+        <v>45673481</v>
       </c>
       <c r="D30">
-        <v>7621543311.72</v>
+        <v>10854353881.56</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -958,13 +958,13 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>1063489881</v>
+        <v>884960214</v>
       </c>
       <c r="C31">
-        <v>104548610</v>
+        <v>74213597</v>
       </c>
       <c r="D31">
-        <v>7682777073.04</v>
+        <v>30157928833.4</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -972,13 +972,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>1058030406</v>
+        <v>869419817</v>
       </c>
       <c r="C32">
-        <v>18246995</v>
+        <v>54262701</v>
       </c>
       <c r="D32">
-        <v>27947528781.12</v>
+        <v>3869926962</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -986,13 +986,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>1057597798</v>
+        <v>865701220</v>
       </c>
       <c r="C33">
-        <v>29896594</v>
+        <v>49888984</v>
       </c>
       <c r="D33">
-        <v>49648508536</v>
+        <v>17034433263.39</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1000,13 +1000,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>1038623363</v>
+        <v>862039363</v>
       </c>
       <c r="C34">
-        <v>22674500</v>
+        <v>24696007</v>
       </c>
       <c r="D34">
-        <v>19061520354.15</v>
+        <v>111847972649.6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1014,13 +1014,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>1036132456</v>
+        <v>861789553</v>
       </c>
       <c r="C35">
-        <v>27162218</v>
+        <v>25782971</v>
       </c>
       <c r="D35">
-        <v>120681420489.54</v>
+        <v>69414307578.8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1028,13 +1028,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>1026320004</v>
+        <v>861302252</v>
       </c>
       <c r="C36">
-        <v>81769963</v>
+        <v>78956716</v>
       </c>
       <c r="D36">
-        <v>31315912745.2</v>
+        <v>77201885960.42999</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1042,13 +1042,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>1008053774</v>
+        <v>839909438</v>
       </c>
       <c r="C37">
-        <v>141948954</v>
+        <v>7170745</v>
       </c>
       <c r="D37">
-        <v>16058019395.99</v>
+        <v>29707413232.64</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1056,13 +1056,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>1007738423</v>
+        <v>839272378</v>
       </c>
       <c r="C38">
-        <v>77014197</v>
+        <v>31671258</v>
       </c>
       <c r="D38">
-        <v>13720262482.71</v>
+        <v>330234000423.6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1070,13 +1070,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>966502631</v>
+        <v>831407573</v>
       </c>
       <c r="C39">
-        <v>33958888</v>
+        <v>152044861</v>
       </c>
       <c r="D39">
-        <v>351339180901.8</v>
+        <v>118170643411.52</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1084,13 +1084,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>934859311</v>
+        <v>809830171</v>
       </c>
       <c r="C40">
-        <v>131976544</v>
+        <v>108470885</v>
       </c>
       <c r="D40">
-        <v>62752584601.5</v>
+        <v>14623285012.5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1098,13 +1098,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>891300944</v>
+        <v>801386586</v>
       </c>
       <c r="C41">
-        <v>15955004</v>
+        <v>25671156</v>
       </c>
       <c r="D41">
-        <v>31964310600.3</v>
+        <v>44510001775.25</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1112,13 +1112,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>884446397</v>
+        <v>799850193</v>
       </c>
       <c r="C42">
-        <v>82086015</v>
+        <v>70197094</v>
       </c>
       <c r="D42">
-        <v>13644225565.71</v>
+        <v>2347395362.62</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1126,13 +1126,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>880744642</v>
+        <v>780682391</v>
       </c>
       <c r="C43">
-        <v>46738346</v>
+        <v>40720841</v>
       </c>
       <c r="D43">
-        <v>61931577965.53001</v>
+        <v>3820368000</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1140,13 +1140,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>865168371</v>
+        <v>780162090</v>
       </c>
       <c r="C44">
-        <v>79330661</v>
+        <v>3251758</v>
       </c>
       <c r="D44">
-        <v>2808307692.3</v>
+        <v>31884125468.8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1154,13 +1154,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>857286726</v>
+        <v>762111652</v>
       </c>
       <c r="C45">
-        <v>76740624</v>
+        <v>15415535</v>
       </c>
       <c r="D45">
-        <v>5295335195.64</v>
+        <v>20726245790.25</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1168,13 +1168,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>846488203</v>
+        <v>753081138</v>
       </c>
       <c r="C46">
-        <v>53289111</v>
+        <v>44816455</v>
       </c>
       <c r="D46">
-        <v>229650162000.45</v>
+        <v>10734154015.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1182,13 +1182,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>842055664</v>
+        <v>747398179</v>
       </c>
       <c r="C47">
-        <v>75340164</v>
+        <v>76193157</v>
       </c>
       <c r="D47">
-        <v>1606666691.6</v>
+        <v>20577891696.45</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1196,13 +1196,13 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>832328696</v>
+        <v>744765824</v>
       </c>
       <c r="C48">
-        <v>50116247</v>
+        <v>85129670</v>
       </c>
       <c r="D48">
-        <v>7986787448.400001</v>
+        <v>66818354303.93999</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1210,13 +1210,13 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>832298152</v>
+        <v>744043500</v>
       </c>
       <c r="C49">
-        <v>90120009</v>
+        <v>28973975</v>
       </c>
       <c r="D49">
-        <v>4771847175.839999</v>
+        <v>1284613497.9</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1224,13 +1224,13 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>829413118</v>
+        <v>724109343</v>
       </c>
       <c r="C50">
-        <v>25107967</v>
+        <v>39383957</v>
       </c>
       <c r="D50">
-        <v>67654099898.55</v>
+        <v>61043552152.96001</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1238,13 +1238,13 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>827963958</v>
+        <v>701057281</v>
       </c>
       <c r="C51">
-        <v>44091396</v>
+        <v>70465764</v>
       </c>
       <c r="D51">
-        <v>3899284500</v>
+        <v>5304835326</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/volume_top50.xlsx
+++ b/website/everyday-update/data/volume_top50.xlsx
@@ -25,154 +25,154 @@
     <t>mkt_freeshares</t>
   </si>
   <si>
+    <t>601318.SH</t>
+  </si>
+  <si>
+    <t>600519.SH</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>600887.SH</t>
+  </si>
+  <si>
+    <t>300059.SZ</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>600518.SH</t>
+  </si>
+  <si>
+    <t>000001.SZ</t>
+  </si>
+  <si>
+    <t>601688.SH</t>
+  </si>
+  <si>
+    <t>600036.SH</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
+    <t>300168.SZ</t>
+  </si>
+  <si>
+    <t>002304.SZ</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>601398.SH</t>
+  </si>
+  <si>
+    <t>601288.SH</t>
+  </si>
+  <si>
+    <t>600309.SH</t>
+  </si>
+  <si>
+    <t>601166.SH</t>
+  </si>
+  <si>
+    <t>600837.SH</t>
+  </si>
+  <si>
+    <t>000750.SZ</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
     <t>603799.SH</t>
   </si>
   <si>
-    <t>601318.SH</t>
-  </si>
-  <si>
-    <t>000636.SZ</t>
-  </si>
-  <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>300059.SZ</t>
+    <t>000002.SZ</t>
+  </si>
+  <si>
+    <t>000776.SZ</t>
+  </si>
+  <si>
+    <t>601377.SH</t>
   </si>
   <si>
     <t>600536.SH</t>
   </si>
   <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
-    <t>002049.SZ</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
     <t>000725.SZ</t>
   </si>
   <si>
-    <t>000735.SZ</t>
-  </si>
-  <si>
-    <t>300618.SZ</t>
-  </si>
-  <si>
-    <t>002371.SZ</t>
-  </si>
-  <si>
-    <t>600309.SH</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>002466.SZ</t>
-  </si>
-  <si>
-    <t>000977.SZ</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>600516.SH</t>
-  </si>
-  <si>
-    <t>600887.SH</t>
-  </si>
-  <si>
-    <t>002607.SZ</t>
-  </si>
-  <si>
-    <t>603019.SH</t>
-  </si>
-  <si>
-    <t>600596.SH</t>
+    <t>601601.SH</t>
+  </si>
+  <si>
+    <t>600028.SH</t>
+  </si>
+  <si>
+    <t>300122.SZ</t>
+  </si>
+  <si>
+    <t>600585.SH</t>
+  </si>
+  <si>
+    <t>300104.SZ</t>
+  </si>
+  <si>
+    <t>601186.SH</t>
   </si>
   <si>
     <t>601939.SH</t>
   </si>
   <si>
-    <t>600884.SH</t>
-  </si>
-  <si>
-    <t>600352.SH</t>
-  </si>
-  <si>
-    <t>600810.SH</t>
-  </si>
-  <si>
-    <t>000830.SZ</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>600585.SH</t>
-  </si>
-  <si>
-    <t>600048.SH</t>
-  </si>
-  <si>
-    <t>600436.SH</t>
-  </si>
-  <si>
-    <t>600036.SH</t>
-  </si>
-  <si>
-    <t>601398.SH</t>
-  </si>
-  <si>
-    <t>600029.SH</t>
+    <t>601211.SH</t>
   </si>
   <si>
     <t>002230.SZ</t>
   </si>
   <si>
-    <t>300139.SZ</t>
-  </si>
-  <si>
-    <t>601069.SH</t>
+    <t>000629.SZ</t>
   </si>
   <si>
     <t>000661.SZ</t>
   </si>
   <si>
-    <t>300122.SZ</t>
-  </si>
-  <si>
-    <t>002110.SZ</t>
-  </si>
-  <si>
-    <t>600176.SH</t>
-  </si>
-  <si>
-    <t>000001.SZ</t>
-  </si>
-  <si>
-    <t>300647.SZ</t>
-  </si>
-  <si>
-    <t>600690.SH</t>
-  </si>
-  <si>
-    <t>300077.SZ</t>
+    <t>002008.SZ</t>
+  </si>
+  <si>
+    <t>002456.SZ</t>
+  </si>
+  <si>
+    <t>601099.SH</t>
+  </si>
+  <si>
+    <t>000568.SZ</t>
+  </si>
+  <si>
+    <t>002027.SZ</t>
+  </si>
+  <si>
+    <t>600547.SH</t>
+  </si>
+  <si>
+    <t>601336.SH</t>
+  </si>
+  <si>
+    <t>300676.SZ</t>
+  </si>
+  <si>
+    <t>002673.SZ</t>
+  </si>
+  <si>
+    <t>601988.SH</t>
+  </si>
+  <si>
+    <t>600050.SH</t>
   </si>
 </sst>
 </file>
@@ -552,13 +552,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2962525713</v>
+        <v>5398315014</v>
       </c>
       <c r="C2">
-        <v>40740492</v>
+        <v>81063205</v>
       </c>
       <c r="D2">
-        <v>34434078025.28</v>
+        <v>653883882485</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -566,13 +566,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2701645194</v>
+        <v>4818473584</v>
       </c>
       <c r="C3">
-        <v>47378185</v>
+        <v>7611282.000000001</v>
       </c>
       <c r="D3">
-        <v>522675015068.91</v>
+        <v>286399467071.43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2069674264</v>
+        <v>4297194863</v>
       </c>
       <c r="C4">
-        <v>108944444</v>
+        <v>251926016</v>
       </c>
       <c r="D4">
-        <v>13033342909.63</v>
+        <v>132307373601.22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -594,13 +594,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2007374503</v>
+        <v>3425755873</v>
       </c>
       <c r="C5">
-        <v>165374267</v>
+        <v>140278050</v>
       </c>
       <c r="D5">
-        <v>26161606818.6</v>
+        <v>130777033396.8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -608,13 +608,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1817200188</v>
+        <v>2692245483</v>
       </c>
       <c r="C6">
-        <v>46555164</v>
+        <v>213246342</v>
       </c>
       <c r="D6">
-        <v>27229818084.75</v>
+        <v>44171460463.95</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1736875980</v>
+        <v>2476913916</v>
       </c>
       <c r="C7">
-        <v>2427845</v>
+        <v>44049534</v>
       </c>
       <c r="D7">
-        <v>323533067262.06</v>
+        <v>93857920950.95</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -636,13 +636,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1708613018</v>
+        <v>2208708946</v>
       </c>
       <c r="C8">
-        <v>36314578</v>
+        <v>176175155</v>
       </c>
       <c r="D8">
-        <v>201252101653.6</v>
+        <v>33790698574.34999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -650,13 +650,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1639750519</v>
+        <v>2026171911</v>
       </c>
       <c r="C9">
-        <v>129553165</v>
+        <v>182942464</v>
       </c>
       <c r="D9">
-        <v>44844619371.04</v>
+        <v>84017611789.92</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -664,13 +664,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1607516605</v>
+        <v>1975695786</v>
       </c>
       <c r="C10">
-        <v>63413331.99999999</v>
+        <v>122706626</v>
       </c>
       <c r="D10">
-        <v>6792454576.08</v>
+        <v>50710837744.6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -678,13 +678,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1408057412</v>
+        <v>1887867932</v>
       </c>
       <c r="C11">
-        <v>31229807</v>
+        <v>63582428</v>
       </c>
       <c r="D11">
-        <v>196435885476.88</v>
+        <v>344402654242.48</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -692,13 +692,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1384484213</v>
+        <v>1757626690</v>
       </c>
       <c r="C12">
-        <v>31605169</v>
+        <v>44367521</v>
       </c>
       <c r="D12">
-        <v>15937320753.6</v>
+        <v>171115870746.75</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -706,13 +706,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1383548997</v>
+        <v>1634172911</v>
       </c>
       <c r="C13">
-        <v>19282089</v>
+        <v>28009011</v>
       </c>
       <c r="D13">
-        <v>158607330250.7</v>
+        <v>128341097961.6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -720,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1377729665</v>
+        <v>1632038633</v>
       </c>
       <c r="C14">
-        <v>19172467</v>
+        <v>153584009</v>
       </c>
       <c r="D14">
-        <v>120186159924.4</v>
+        <v>7179931703.070001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -734,13 +734,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1351227260</v>
+        <v>1557821754</v>
       </c>
       <c r="C15">
-        <v>405016341</v>
+        <v>14944431</v>
       </c>
       <c r="D15">
-        <v>78146795006.44</v>
+        <v>53149372384.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -748,13 +748,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1349957977</v>
+        <v>1513149505</v>
       </c>
       <c r="C16">
-        <v>116183899</v>
+        <v>86857509</v>
       </c>
       <c r="D16">
-        <v>10827185929.56</v>
+        <v>37420643432.9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -762,13 +762,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>1282975554</v>
+        <v>1474702211</v>
       </c>
       <c r="C17">
-        <v>9279281</v>
+        <v>263417953</v>
       </c>
       <c r="D17">
-        <v>8098066800</v>
+        <v>121189601454.88</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -776,13 +776,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>1232723217</v>
+        <v>1371223773</v>
       </c>
       <c r="C18">
-        <v>24121613</v>
+        <v>354661593</v>
       </c>
       <c r="D18">
-        <v>9676932337</v>
+        <v>137125673950.95</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -790,13 +790,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>1185997480</v>
+        <v>1333180733</v>
       </c>
       <c r="C19">
-        <v>26478445</v>
+        <v>44682865</v>
       </c>
       <c r="D19">
-        <v>64069038900</v>
+        <v>42086239775.2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -804,13 +804,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>1147289490</v>
+        <v>1305295370</v>
       </c>
       <c r="C20">
-        <v>183415379</v>
+        <v>82227424</v>
       </c>
       <c r="D20">
-        <v>14408693580.71</v>
+        <v>229795418269.9</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -818,13 +818,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1118740589</v>
+        <v>1283090872</v>
       </c>
       <c r="C21">
-        <v>22735707</v>
+        <v>141606983</v>
       </c>
       <c r="D21">
-        <v>28825425762.3</v>
+        <v>69695452356.96001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -832,13 +832,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1115293780</v>
+        <v>1279685477</v>
       </c>
       <c r="C22">
-        <v>45656455</v>
+        <v>340795357</v>
       </c>
       <c r="D22">
-        <v>18442141882.5</v>
+        <v>10766908286.28</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -846,13 +846,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1079853690</v>
+        <v>1242799229</v>
       </c>
       <c r="C23">
-        <v>67253821</v>
+        <v>51990305</v>
       </c>
       <c r="D23">
-        <v>125664652540.32</v>
+        <v>76005781414.16</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -860,13 +860,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>1005568880</v>
+        <v>1212289775</v>
       </c>
       <c r="C24">
-        <v>42747496</v>
+        <v>34647330</v>
       </c>
       <c r="D24">
-        <v>23562916882.24</v>
+        <v>8617374178.15</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -874,13 +874,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>967694171</v>
+        <v>1161439968</v>
       </c>
       <c r="C25">
-        <v>35103670</v>
+        <v>51346091</v>
       </c>
       <c r="D25">
-        <v>152261831740.56</v>
+        <v>125235200652.4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -888,13 +888,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>927991518</v>
+        <v>1158673275</v>
       </c>
       <c r="C26">
-        <v>96192622</v>
+        <v>97237374</v>
       </c>
       <c r="D26">
-        <v>4643184355.299999</v>
+        <v>32924828633.58</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -902,13 +902,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>918127732</v>
+        <v>1155851951</v>
       </c>
       <c r="C27">
-        <v>20164997</v>
+        <v>242385713</v>
       </c>
       <c r="D27">
-        <v>21620393549.28</v>
+        <v>22530409201.17</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -916,13 +916,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>912231660</v>
+        <v>1058691355</v>
       </c>
       <c r="C28">
-        <v>52358901</v>
+        <v>38906837</v>
       </c>
       <c r="D28">
-        <v>9620138837.209999</v>
+        <v>7460031014.639999</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -930,13 +930,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>897370142</v>
+        <v>1015123331</v>
       </c>
       <c r="C29">
-        <v>133489423</v>
+        <v>362623670</v>
       </c>
       <c r="D29">
-        <v>59904240335.9</v>
+        <v>65669468882.76</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -944,13 +944,13 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>885448769</v>
+        <v>1008065079</v>
       </c>
       <c r="C30">
-        <v>45673481</v>
+        <v>28005639</v>
       </c>
       <c r="D30">
-        <v>10854353881.56</v>
+        <v>115981031202.2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -958,13 +958,13 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>884960214</v>
+        <v>998759583</v>
       </c>
       <c r="C31">
-        <v>74213597</v>
+        <v>162772744</v>
       </c>
       <c r="D31">
-        <v>30157928833.4</v>
+        <v>75818485212.07001</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -972,13 +972,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>869419817</v>
+        <v>986133653</v>
       </c>
       <c r="C32">
-        <v>54262701</v>
+        <v>26687739</v>
       </c>
       <c r="D32">
-        <v>3869926962</v>
+        <v>15078456709.2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -986,13 +986,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>865701220</v>
+        <v>979372004</v>
       </c>
       <c r="C33">
-        <v>49888984</v>
+        <v>29831718</v>
       </c>
       <c r="D33">
-        <v>17034433263.39</v>
+        <v>67674808224.2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1000,13 +1000,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>862039363</v>
+        <v>959430929</v>
       </c>
       <c r="C34">
-        <v>24696007</v>
+        <v>296497732</v>
       </c>
       <c r="D34">
-        <v>111847972649.6</v>
+        <v>8043292622.96</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1014,13 +1014,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>861789553</v>
+        <v>937396903</v>
       </c>
       <c r="C35">
-        <v>25782971</v>
+        <v>90868341</v>
       </c>
       <c r="D35">
-        <v>69414307578.8</v>
+        <v>47201267218.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1028,13 +1028,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>861302252</v>
+        <v>920512041</v>
       </c>
       <c r="C36">
-        <v>78956716</v>
+        <v>129239392</v>
       </c>
       <c r="D36">
-        <v>77201885960.42999</v>
+        <v>63642692184.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1042,13 +1042,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>839909438</v>
+        <v>912063350</v>
       </c>
       <c r="C37">
-        <v>7170745</v>
+        <v>60462594.99999999</v>
       </c>
       <c r="D37">
-        <v>29707413232.64</v>
+        <v>64939051889.04</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1056,13 +1056,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>839272378</v>
+        <v>911941711</v>
       </c>
       <c r="C38">
-        <v>31671258</v>
+        <v>40099071</v>
       </c>
       <c r="D38">
-        <v>330234000423.6</v>
+        <v>32468857477.65</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1070,13 +1070,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>831407573</v>
+        <v>906656185</v>
       </c>
       <c r="C39">
-        <v>152044861</v>
+        <v>228568008</v>
       </c>
       <c r="D39">
-        <v>118170643411.52</v>
+        <v>14123003533</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1084,13 +1084,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>809830171</v>
+        <v>894137831</v>
       </c>
       <c r="C40">
-        <v>108470885</v>
+        <v>5129061</v>
       </c>
       <c r="D40">
-        <v>14623285012.5</v>
+        <v>22491434526</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1098,13 +1098,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>801386586</v>
+        <v>876602215</v>
       </c>
       <c r="C41">
-        <v>25671156</v>
+        <v>27376568</v>
       </c>
       <c r="D41">
-        <v>44510001775.25</v>
+        <v>25522946004.66</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1112,13 +1112,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>799850193</v>
+        <v>866772501</v>
       </c>
       <c r="C42">
-        <v>70197094</v>
+        <v>64809006.00000001</v>
       </c>
       <c r="D42">
-        <v>2347395362.62</v>
+        <v>24295742089.48</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1126,13 +1126,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>780682391</v>
+        <v>801367062</v>
       </c>
       <c r="C43">
-        <v>40720841</v>
+        <v>330281150</v>
       </c>
       <c r="D43">
-        <v>3820368000</v>
+        <v>13488813800</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1140,13 +1140,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>780162090</v>
+        <v>788098098</v>
       </c>
       <c r="C44">
-        <v>3251758</v>
+        <v>19205935</v>
       </c>
       <c r="D44">
-        <v>31884125468.8</v>
+        <v>29199224035.8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1154,13 +1154,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>762111652</v>
+        <v>773393238</v>
       </c>
       <c r="C45">
-        <v>15415535</v>
+        <v>107796201</v>
       </c>
       <c r="D45">
-        <v>20726245790.25</v>
+        <v>49729306474.67999</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1168,13 +1168,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>753081138</v>
+        <v>771489114</v>
       </c>
       <c r="C46">
-        <v>44816455</v>
+        <v>28685225</v>
       </c>
       <c r="D46">
-        <v>10734154015.5</v>
+        <v>19276520454.48</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1182,13 +1182,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>747398179</v>
+        <v>766603475</v>
       </c>
       <c r="C47">
-        <v>76193157</v>
+        <v>15455909</v>
       </c>
       <c r="D47">
-        <v>20577891696.45</v>
+        <v>34745502856.5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1196,13 +1196,13 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>744765824</v>
+        <v>756334343</v>
       </c>
       <c r="C48">
-        <v>85129670</v>
+        <v>14098060</v>
       </c>
       <c r="D48">
-        <v>66818354303.93999</v>
+        <v>7792945755.400001</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1210,13 +1210,13 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>744043500</v>
+        <v>737963933</v>
       </c>
       <c r="C49">
-        <v>28973975</v>
+        <v>89784919</v>
       </c>
       <c r="D49">
-        <v>1284613497.9</v>
+        <v>13528924598.49</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1224,13 +1224,13 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>724109343</v>
+        <v>732076417</v>
       </c>
       <c r="C50">
-        <v>39383957</v>
+        <v>198592760</v>
       </c>
       <c r="D50">
-        <v>61043552152.96001</v>
+        <v>75417760799.52</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1238,13 +1238,13 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>701057281</v>
+        <v>720358315</v>
       </c>
       <c r="C51">
-        <v>70465764</v>
+        <v>132892318</v>
       </c>
       <c r="D51">
-        <v>5304835326</v>
+        <v>42644383059.60001</v>
       </c>
     </row>
   </sheetData>
